--- a/analysis/mails_01/P08_5/table_to_fill.xlsx
+++ b/analysis/mails_01/P08_5/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2285" uniqueCount="2285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2282" uniqueCount="2282">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -1345,15 +1345,6 @@
   </si>
   <si>
     <t xml:space="preserve">8.40212159</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFD06200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">56.48194931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.84195381</t>
   </si>
   <si>
     <t xml:space="preserve">MFD06201</t>
@@ -11473,7 +11464,7 @@
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s">
-        <v>165</v>
+        <v>128</v>
       </c>
       <c r="D142" t="s">
         <v>445</v>
@@ -11503,7 +11494,7 @@
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="D143" t="s">
         <v>448</v>
@@ -11533,7 +11524,7 @@
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s">
-        <v>165</v>
+        <v>15</v>
       </c>
       <c r="D144" t="s">
         <v>451</v>
@@ -11563,7 +11554,7 @@
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s">
-        <v>15</v>
+        <v>128</v>
       </c>
       <c r="D145" t="s">
         <v>454</v>
@@ -11593,7 +11584,7 @@
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="D146" t="s">
         <v>457</v>
@@ -11653,7 +11644,7 @@
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="D148" t="s">
         <v>463</v>
@@ -11683,7 +11674,7 @@
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
       <c r="D149" t="s">
         <v>466</v>
@@ -11713,7 +11704,7 @@
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D150" t="s">
         <v>469</v>
@@ -11743,7 +11734,7 @@
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="D151" t="s">
         <v>472</v>
@@ -11773,7 +11764,7 @@
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="D152" t="s">
         <v>475</v>
@@ -11833,7 +11824,7 @@
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="D154" t="s">
         <v>481</v>
@@ -11893,7 +11884,7 @@
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="D156" t="s">
         <v>487</v>
@@ -11953,7 +11944,7 @@
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s">
-        <v>165</v>
+        <v>75</v>
       </c>
       <c r="D158" t="s">
         <v>493</v>
@@ -11983,7 +11974,7 @@
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="D159" t="s">
         <v>496</v>
@@ -12013,7 +12004,7 @@
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="D160" t="s">
         <v>499</v>
@@ -12043,13 +12034,13 @@
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s">
-        <v>128</v>
+        <v>502</v>
       </c>
       <c r="D161" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E161" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
@@ -12069,19 +12060,23 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>504</v>
-      </c>
-      <c r="B162" s="2"/>
+        <v>505</v>
+      </c>
+      <c r="B162" t="s">
+        <v>506</v>
+      </c>
       <c r="C162" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D162" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="E162" t="s">
-        <v>507</v>
-      </c>
-      <c r="F162" s="2"/>
+        <v>509</v>
+      </c>
+      <c r="F162" t="s">
+        <v>510</v>
+      </c>
       <c r="G162" s="2"/>
       <c r="H162" s="2"/>
       <c r="I162" t="s">
@@ -12099,22 +12094,22 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B163" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C163" t="s">
+        <v>512</v>
+      </c>
+      <c r="D163" t="s">
+        <v>513</v>
+      </c>
+      <c r="E163" t="s">
+        <v>514</v>
+      </c>
+      <c r="F163" t="s">
         <v>510</v>
-      </c>
-      <c r="D163" t="s">
-        <v>511</v>
-      </c>
-      <c r="E163" t="s">
-        <v>512</v>
-      </c>
-      <c r="F163" t="s">
-        <v>513</v>
       </c>
       <c r="G163" s="2"/>
       <c r="H163" s="2"/>
@@ -12133,23 +12128,19 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>514</v>
-      </c>
-      <c r="B164" t="s">
-        <v>509</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="B164" s="2"/>
       <c r="C164" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D164" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E164" t="s">
-        <v>517</v>
-      </c>
-      <c r="F164" t="s">
-        <v>513</v>
-      </c>
+        <v>518</v>
+      </c>
+      <c r="F164" s="2"/>
       <c r="G164" s="2"/>
       <c r="H164" s="2"/>
       <c r="I164" t="s">
@@ -12167,17 +12158,17 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D165" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="E165" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
@@ -12197,17 +12188,17 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D166" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="E166" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
@@ -12227,11 +12218,11 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="D167" t="s">
         <v>528</v>
@@ -12259,17 +12250,21 @@
       <c r="A168" t="s">
         <v>530</v>
       </c>
-      <c r="B168" s="2"/>
+      <c r="B168" t="s">
+        <v>506</v>
+      </c>
       <c r="C168" t="s">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="D168" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E168" t="s">
-        <v>532</v>
-      </c>
-      <c r="F168" s="2"/>
+        <v>533</v>
+      </c>
+      <c r="F168" t="s">
+        <v>510</v>
+      </c>
       <c r="G168" s="2"/>
       <c r="H168" s="2"/>
       <c r="I168" t="s">
@@ -12287,13 +12282,13 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B169" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C169" t="s">
-        <v>534</v>
+        <v>507</v>
       </c>
       <c r="D169" t="s">
         <v>535</v>
@@ -12302,7 +12297,7 @@
         <v>536</v>
       </c>
       <c r="F169" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G169" s="2"/>
       <c r="H169" s="2"/>
@@ -12323,11 +12318,9 @@
       <c r="A170" t="s">
         <v>537</v>
       </c>
-      <c r="B170" t="s">
-        <v>509</v>
-      </c>
+      <c r="B170" s="2"/>
       <c r="C170" t="s">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="D170" t="s">
         <v>538</v>
@@ -12335,9 +12328,7 @@
       <c r="E170" t="s">
         <v>539</v>
       </c>
-      <c r="F170" t="s">
-        <v>513</v>
-      </c>
+      <c r="F170" s="2"/>
       <c r="G170" s="2"/>
       <c r="H170" s="2"/>
       <c r="I170" t="s">
@@ -12359,7 +12350,7 @@
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="D171" t="s">
         <v>541</v>
@@ -12389,13 +12380,13 @@
       </c>
       <c r="B172" s="2"/>
       <c r="C172" t="s">
-        <v>523</v>
+        <v>544</v>
       </c>
       <c r="D172" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E172" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
@@ -12415,11 +12406,11 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s">
-        <v>547</v>
+        <v>516</v>
       </c>
       <c r="D173" t="s">
         <v>548</v>
@@ -12447,17 +12438,21 @@
       <c r="A174" t="s">
         <v>550</v>
       </c>
-      <c r="B174" s="2"/>
+      <c r="B174" t="s">
+        <v>506</v>
+      </c>
       <c r="C174" t="s">
-        <v>519</v>
+        <v>551</v>
       </c>
       <c r="D174" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="E174" t="s">
-        <v>552</v>
-      </c>
-      <c r="F174" s="2"/>
+        <v>553</v>
+      </c>
+      <c r="F174" t="s">
+        <v>510</v>
+      </c>
       <c r="G174" s="2"/>
       <c r="H174" s="2"/>
       <c r="I174" t="s">
@@ -12475,22 +12470,22 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B175" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C175" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D175" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E175" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F175" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G175" s="2"/>
       <c r="H175" s="2"/>
@@ -12509,13 +12504,11 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>557</v>
-      </c>
-      <c r="B176" t="s">
-        <v>509</v>
-      </c>
+        <v>558</v>
+      </c>
+      <c r="B176" s="2"/>
       <c r="C176" t="s">
-        <v>558</v>
+        <v>520</v>
       </c>
       <c r="D176" t="s">
         <v>559</v>
@@ -12523,9 +12516,7 @@
       <c r="E176" t="s">
         <v>560</v>
       </c>
-      <c r="F176" t="s">
-        <v>513</v>
-      </c>
+      <c r="F176" s="2"/>
       <c r="G176" s="2"/>
       <c r="H176" s="2"/>
       <c r="I176" t="s">
@@ -12545,17 +12536,21 @@
       <c r="A177" t="s">
         <v>561</v>
       </c>
-      <c r="B177" s="2"/>
+      <c r="B177" t="s">
+        <v>506</v>
+      </c>
       <c r="C177" t="s">
-        <v>523</v>
+        <v>562</v>
       </c>
       <c r="D177" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="E177" t="s">
-        <v>563</v>
-      </c>
-      <c r="F177" s="2"/>
+        <v>564</v>
+      </c>
+      <c r="F177" t="s">
+        <v>510</v>
+      </c>
       <c r="G177" s="2"/>
       <c r="H177" s="2"/>
       <c r="I177" t="s">
@@ -12573,13 +12568,13 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B178" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C178" t="s">
-        <v>565</v>
+        <v>507</v>
       </c>
       <c r="D178" t="s">
         <v>566</v>
@@ -12588,7 +12583,7 @@
         <v>567</v>
       </c>
       <c r="F178" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G178" s="2"/>
       <c r="H178" s="2"/>
@@ -12610,10 +12605,10 @@
         <v>568</v>
       </c>
       <c r="B179" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C179" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D179" t="s">
         <v>569</v>
@@ -12622,7 +12617,7 @@
         <v>570</v>
       </c>
       <c r="F179" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G179" s="2"/>
       <c r="H179" s="2"/>
@@ -12643,11 +12638,9 @@
       <c r="A180" t="s">
         <v>571</v>
       </c>
-      <c r="B180" t="s">
-        <v>509</v>
-      </c>
+      <c r="B180" s="2"/>
       <c r="C180" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="D180" t="s">
         <v>572</v>
@@ -12655,9 +12648,7 @@
       <c r="E180" t="s">
         <v>573</v>
       </c>
-      <c r="F180" t="s">
-        <v>513</v>
-      </c>
+      <c r="F180" s="2"/>
       <c r="G180" s="2"/>
       <c r="H180" s="2"/>
       <c r="I180" t="s">
@@ -12677,17 +12668,21 @@
       <c r="A181" t="s">
         <v>574</v>
       </c>
-      <c r="B181" s="2"/>
+      <c r="B181" t="s">
+        <v>506</v>
+      </c>
       <c r="C181" t="s">
-        <v>527</v>
+        <v>575</v>
       </c>
       <c r="D181" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E181" t="s">
-        <v>576</v>
-      </c>
-      <c r="F181" s="2"/>
+        <v>577</v>
+      </c>
+      <c r="F181" t="s">
+        <v>510</v>
+      </c>
       <c r="G181" s="2"/>
       <c r="H181" s="2"/>
       <c r="I181" t="s">
@@ -12705,22 +12700,22 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B182" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C182" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D182" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E182" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F182" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G182" s="2"/>
       <c r="H182" s="2"/>
@@ -12739,13 +12734,11 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>581</v>
-      </c>
-      <c r="B183" t="s">
-        <v>509</v>
-      </c>
+        <v>582</v>
+      </c>
+      <c r="B183" s="2"/>
       <c r="C183" t="s">
-        <v>582</v>
+        <v>520</v>
       </c>
       <c r="D183" t="s">
         <v>583</v>
@@ -12753,9 +12746,7 @@
       <c r="E183" t="s">
         <v>584</v>
       </c>
-      <c r="F183" t="s">
-        <v>513</v>
-      </c>
+      <c r="F183" s="2"/>
       <c r="G183" s="2"/>
       <c r="H183" s="2"/>
       <c r="I183" t="s">
@@ -12777,7 +12768,7 @@
       </c>
       <c r="B184" s="2"/>
       <c r="C184" t="s">
-        <v>523</v>
+        <v>502</v>
       </c>
       <c r="D184" t="s">
         <v>586</v>
@@ -12807,7 +12798,7 @@
       </c>
       <c r="B185" s="2"/>
       <c r="C185" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="D185" t="s">
         <v>589</v>
@@ -12837,7 +12828,7 @@
       </c>
       <c r="B186" s="2"/>
       <c r="C186" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D186" t="s">
         <v>592</v>
@@ -12867,7 +12858,7 @@
       </c>
       <c r="B187" s="2"/>
       <c r="C187" t="s">
-        <v>523</v>
+        <v>502</v>
       </c>
       <c r="D187" t="s">
         <v>595</v>
@@ -12897,13 +12888,13 @@
       </c>
       <c r="B188" s="2"/>
       <c r="C188" t="s">
-        <v>505</v>
+        <v>598</v>
       </c>
       <c r="D188" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E188" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F188" s="2"/>
       <c r="G188" s="2"/>
@@ -12923,11 +12914,11 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" t="s">
-        <v>601</v>
+        <v>502</v>
       </c>
       <c r="D189" t="s">
         <v>602</v>
@@ -12957,7 +12948,7 @@
       </c>
       <c r="B190" s="2"/>
       <c r="C190" t="s">
-        <v>505</v>
+        <v>524</v>
       </c>
       <c r="D190" t="s">
         <v>605</v>
@@ -12987,13 +12978,13 @@
       </c>
       <c r="B191" s="2"/>
       <c r="C191" t="s">
-        <v>527</v>
+        <v>608</v>
       </c>
       <c r="D191" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="E191" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F191" s="2"/>
       <c r="G191" s="2"/>
@@ -13013,11 +13004,11 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" t="s">
-        <v>611</v>
+        <v>544</v>
       </c>
       <c r="D192" t="s">
         <v>612</v>
@@ -13047,7 +13038,7 @@
       </c>
       <c r="B193" s="2"/>
       <c r="C193" t="s">
-        <v>547</v>
+        <v>598</v>
       </c>
       <c r="D193" t="s">
         <v>615</v>
@@ -13077,7 +13068,7 @@
       </c>
       <c r="B194" s="2"/>
       <c r="C194" t="s">
-        <v>601</v>
+        <v>544</v>
       </c>
       <c r="D194" t="s">
         <v>618</v>
@@ -13107,7 +13098,7 @@
       </c>
       <c r="B195" s="2"/>
       <c r="C195" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D195" t="s">
         <v>621</v>
@@ -13137,13 +13128,13 @@
       </c>
       <c r="B196" s="2"/>
       <c r="C196" t="s">
-        <v>547</v>
+        <v>624</v>
       </c>
       <c r="D196" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="E196" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F196" s="2"/>
       <c r="G196" s="2"/>
@@ -13163,11 +13154,11 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" t="s">
-        <v>627</v>
+        <v>502</v>
       </c>
       <c r="D197" t="s">
         <v>628</v>
@@ -13197,7 +13188,7 @@
       </c>
       <c r="B198" s="2"/>
       <c r="C198" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="D198" t="s">
         <v>631</v>
@@ -13227,7 +13218,7 @@
       </c>
       <c r="B199" s="2"/>
       <c r="C199" t="s">
-        <v>523</v>
+        <v>598</v>
       </c>
       <c r="D199" t="s">
         <v>634</v>
@@ -13257,7 +13248,7 @@
       </c>
       <c r="B200" s="2"/>
       <c r="C200" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D200" t="s">
         <v>637</v>
@@ -13287,7 +13278,7 @@
       </c>
       <c r="B201" s="2"/>
       <c r="C201" t="s">
-        <v>601</v>
+        <v>624</v>
       </c>
       <c r="D201" t="s">
         <v>640</v>
@@ -13317,7 +13308,7 @@
       </c>
       <c r="B202" s="2"/>
       <c r="C202" t="s">
-        <v>627</v>
+        <v>598</v>
       </c>
       <c r="D202" t="s">
         <v>643</v>
@@ -13347,7 +13338,7 @@
       </c>
       <c r="B203" s="2"/>
       <c r="C203" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D203" t="s">
         <v>646</v>
@@ -13377,7 +13368,7 @@
       </c>
       <c r="B204" s="2"/>
       <c r="C204" t="s">
-        <v>601</v>
+        <v>502</v>
       </c>
       <c r="D204" t="s">
         <v>649</v>
@@ -13407,7 +13398,7 @@
       </c>
       <c r="B205" s="2"/>
       <c r="C205" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D205" t="s">
         <v>652</v>
@@ -13437,7 +13428,7 @@
       </c>
       <c r="B206" s="2"/>
       <c r="C206" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D206" t="s">
         <v>655</v>
@@ -13467,7 +13458,7 @@
       </c>
       <c r="B207" s="2"/>
       <c r="C207" t="s">
-        <v>505</v>
+        <v>598</v>
       </c>
       <c r="D207" t="s">
         <v>658</v>
@@ -13497,7 +13488,7 @@
       </c>
       <c r="B208" s="2"/>
       <c r="C208" t="s">
-        <v>601</v>
+        <v>624</v>
       </c>
       <c r="D208" t="s">
         <v>661</v>
@@ -13527,7 +13518,7 @@
       </c>
       <c r="B209" s="2"/>
       <c r="C209" t="s">
-        <v>627</v>
+        <v>502</v>
       </c>
       <c r="D209" t="s">
         <v>664</v>
@@ -13557,7 +13548,7 @@
       </c>
       <c r="B210" s="2"/>
       <c r="C210" t="s">
-        <v>505</v>
+        <v>598</v>
       </c>
       <c r="D210" t="s">
         <v>667</v>
@@ -13587,7 +13578,7 @@
       </c>
       <c r="B211" s="2"/>
       <c r="C211" t="s">
-        <v>601</v>
+        <v>502</v>
       </c>
       <c r="D211" t="s">
         <v>670</v>
@@ -13617,7 +13608,7 @@
       </c>
       <c r="B212" s="2"/>
       <c r="C212" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D212" t="s">
         <v>673</v>
@@ -13647,7 +13638,7 @@
       </c>
       <c r="B213" s="2"/>
       <c r="C213" t="s">
-        <v>505</v>
+        <v>598</v>
       </c>
       <c r="D213" t="s">
         <v>676</v>
@@ -13677,7 +13668,7 @@
       </c>
       <c r="B214" s="2"/>
       <c r="C214" t="s">
-        <v>601</v>
+        <v>524</v>
       </c>
       <c r="D214" t="s">
         <v>679</v>
@@ -13707,7 +13698,7 @@
       </c>
       <c r="B215" s="2"/>
       <c r="C215" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D215" t="s">
         <v>682</v>
@@ -13737,7 +13728,7 @@
       </c>
       <c r="B216" s="2"/>
       <c r="C216" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="D216" t="s">
         <v>685</v>
@@ -13767,7 +13758,7 @@
       </c>
       <c r="B217" s="2"/>
       <c r="C217" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D217" t="s">
         <v>688</v>
@@ -13797,7 +13788,7 @@
       </c>
       <c r="B218" s="2"/>
       <c r="C218" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="D218" t="s">
         <v>691</v>
@@ -13827,7 +13818,7 @@
       </c>
       <c r="B219" s="2"/>
       <c r="C219" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D219" t="s">
         <v>694</v>
@@ -13857,7 +13848,7 @@
       </c>
       <c r="B220" s="2"/>
       <c r="C220" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D220" t="s">
         <v>697</v>
@@ -13887,7 +13878,7 @@
       </c>
       <c r="B221" s="2"/>
       <c r="C221" t="s">
-        <v>523</v>
+        <v>544</v>
       </c>
       <c r="D221" t="s">
         <v>700</v>
@@ -13917,7 +13908,7 @@
       </c>
       <c r="B222" s="2"/>
       <c r="C222" t="s">
-        <v>547</v>
+        <v>520</v>
       </c>
       <c r="D222" t="s">
         <v>703</v>
@@ -13947,7 +13938,7 @@
       </c>
       <c r="B223" s="2"/>
       <c r="C223" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D223" t="s">
         <v>706</v>
@@ -13977,7 +13968,7 @@
       </c>
       <c r="B224" s="2"/>
       <c r="C224" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="D224" t="s">
         <v>709</v>
@@ -14007,7 +13998,7 @@
       </c>
       <c r="B225" s="2"/>
       <c r="C225" t="s">
-        <v>519</v>
+        <v>544</v>
       </c>
       <c r="D225" t="s">
         <v>712</v>
@@ -14037,7 +14028,7 @@
       </c>
       <c r="B226" s="2"/>
       <c r="C226" t="s">
-        <v>547</v>
+        <v>608</v>
       </c>
       <c r="D226" t="s">
         <v>715</v>
@@ -14067,7 +14058,7 @@
       </c>
       <c r="B227" s="2"/>
       <c r="C227" t="s">
-        <v>611</v>
+        <v>520</v>
       </c>
       <c r="D227" t="s">
         <v>718</v>
@@ -14097,7 +14088,7 @@
       </c>
       <c r="B228" s="2"/>
       <c r="C228" t="s">
-        <v>523</v>
+        <v>608</v>
       </c>
       <c r="D228" t="s">
         <v>721</v>
@@ -14127,7 +14118,7 @@
       </c>
       <c r="B229" s="2"/>
       <c r="C229" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="D229" t="s">
         <v>724</v>
@@ -14155,17 +14146,21 @@
       <c r="A230" t="s">
         <v>726</v>
       </c>
-      <c r="B230" s="2"/>
+      <c r="B230" t="s">
+        <v>506</v>
+      </c>
       <c r="C230" t="s">
-        <v>601</v>
+        <v>727</v>
       </c>
       <c r="D230" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="E230" t="s">
-        <v>728</v>
-      </c>
-      <c r="F230" s="2"/>
+        <v>729</v>
+      </c>
+      <c r="F230" t="s">
+        <v>510</v>
+      </c>
       <c r="G230" s="2"/>
       <c r="H230" s="2"/>
       <c r="I230" t="s">
@@ -14183,13 +14178,11 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>729</v>
-      </c>
-      <c r="B231" t="s">
-        <v>509</v>
-      </c>
+        <v>730</v>
+      </c>
+      <c r="B231" s="2"/>
       <c r="C231" t="s">
-        <v>730</v>
+        <v>502</v>
       </c>
       <c r="D231" t="s">
         <v>731</v>
@@ -14197,9 +14190,7 @@
       <c r="E231" t="s">
         <v>732</v>
       </c>
-      <c r="F231" t="s">
-        <v>513</v>
-      </c>
+      <c r="F231" s="2"/>
       <c r="G231" s="2"/>
       <c r="H231" s="2"/>
       <c r="I231" t="s">
@@ -14221,7 +14212,7 @@
       </c>
       <c r="B232" s="2"/>
       <c r="C232" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D232" t="s">
         <v>734</v>
@@ -14251,7 +14242,7 @@
       </c>
       <c r="B233" s="2"/>
       <c r="C233" t="s">
-        <v>505</v>
+        <v>598</v>
       </c>
       <c r="D233" t="s">
         <v>737</v>
@@ -14281,7 +14272,7 @@
       </c>
       <c r="B234" s="2"/>
       <c r="C234" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="D234" t="s">
         <v>740</v>
@@ -14311,7 +14302,7 @@
       </c>
       <c r="B235" s="2"/>
       <c r="C235" t="s">
-        <v>611</v>
+        <v>624</v>
       </c>
       <c r="D235" t="s">
         <v>743</v>
@@ -14339,9 +14330,11 @@
       <c r="A236" t="s">
         <v>745</v>
       </c>
-      <c r="B236" s="2"/>
+      <c r="B236" t="s">
+        <v>506</v>
+      </c>
       <c r="C236" t="s">
-        <v>627</v>
+        <v>555</v>
       </c>
       <c r="D236" t="s">
         <v>746</v>
@@ -14349,7 +14342,9 @@
       <c r="E236" t="s">
         <v>747</v>
       </c>
-      <c r="F236" s="2"/>
+      <c r="F236" t="s">
+        <v>510</v>
+      </c>
       <c r="G236" s="2"/>
       <c r="H236" s="2"/>
       <c r="I236" t="s">
@@ -14369,11 +14364,9 @@
       <c r="A237" t="s">
         <v>748</v>
       </c>
-      <c r="B237" t="s">
-        <v>509</v>
-      </c>
+      <c r="B237" s="2"/>
       <c r="C237" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="D237" t="s">
         <v>749</v>
@@ -14381,9 +14374,7 @@
       <c r="E237" t="s">
         <v>750</v>
       </c>
-      <c r="F237" t="s">
-        <v>513</v>
-      </c>
+      <c r="F237" s="2"/>
       <c r="G237" s="2"/>
       <c r="H237" s="2"/>
       <c r="I237" t="s">
@@ -14405,7 +14396,7 @@
       </c>
       <c r="B238" s="2"/>
       <c r="C238" t="s">
-        <v>547</v>
+        <v>520</v>
       </c>
       <c r="D238" t="s">
         <v>752</v>
@@ -14435,7 +14426,7 @@
       </c>
       <c r="B239" s="2"/>
       <c r="C239" t="s">
-        <v>523</v>
+        <v>598</v>
       </c>
       <c r="D239" t="s">
         <v>755</v>
@@ -14465,7 +14456,7 @@
       </c>
       <c r="B240" s="2"/>
       <c r="C240" t="s">
-        <v>601</v>
+        <v>520</v>
       </c>
       <c r="D240" t="s">
         <v>758</v>
@@ -14495,7 +14486,7 @@
       </c>
       <c r="B241" s="2"/>
       <c r="C241" t="s">
-        <v>523</v>
+        <v>544</v>
       </c>
       <c r="D241" t="s">
         <v>761</v>
@@ -14525,7 +14516,7 @@
       </c>
       <c r="B242" s="2"/>
       <c r="C242" t="s">
-        <v>547</v>
+        <v>624</v>
       </c>
       <c r="D242" t="s">
         <v>764</v>
@@ -14553,9 +14544,11 @@
       <c r="A243" t="s">
         <v>766</v>
       </c>
-      <c r="B243" s="2"/>
+      <c r="B243" t="s">
+        <v>506</v>
+      </c>
       <c r="C243" t="s">
-        <v>627</v>
+        <v>555</v>
       </c>
       <c r="D243" t="s">
         <v>767</v>
@@ -14563,7 +14556,9 @@
       <c r="E243" t="s">
         <v>768</v>
       </c>
-      <c r="F243" s="2"/>
+      <c r="F243" t="s">
+        <v>510</v>
+      </c>
       <c r="G243" s="2"/>
       <c r="H243" s="2"/>
       <c r="I243" t="s">
@@ -14583,11 +14578,9 @@
       <c r="A244" t="s">
         <v>769</v>
       </c>
-      <c r="B244" t="s">
-        <v>509</v>
-      </c>
+      <c r="B244" s="2"/>
       <c r="C244" t="s">
-        <v>558</v>
+        <v>520</v>
       </c>
       <c r="D244" t="s">
         <v>770</v>
@@ -14595,9 +14588,7 @@
       <c r="E244" t="s">
         <v>771</v>
       </c>
-      <c r="F244" t="s">
-        <v>513</v>
-      </c>
+      <c r="F244" s="2"/>
       <c r="G244" s="2"/>
       <c r="H244" s="2"/>
       <c r="I244" t="s">
@@ -14619,7 +14610,7 @@
       </c>
       <c r="B245" s="2"/>
       <c r="C245" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="D245" t="s">
         <v>773</v>
@@ -14649,7 +14640,7 @@
       </c>
       <c r="B246" s="2"/>
       <c r="C246" t="s">
-        <v>519</v>
+        <v>544</v>
       </c>
       <c r="D246" t="s">
         <v>776</v>
@@ -14679,7 +14670,7 @@
       </c>
       <c r="B247" s="2"/>
       <c r="C247" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D247" t="s">
         <v>779</v>
@@ -14709,7 +14700,7 @@
       </c>
       <c r="B248" s="2"/>
       <c r="C248" t="s">
-        <v>547</v>
+        <v>502</v>
       </c>
       <c r="D248" t="s">
         <v>782</v>
@@ -14739,7 +14730,7 @@
       </c>
       <c r="B249" s="2"/>
       <c r="C249" t="s">
-        <v>505</v>
+        <v>524</v>
       </c>
       <c r="D249" t="s">
         <v>785</v>
@@ -14769,7 +14760,7 @@
       </c>
       <c r="B250" s="2"/>
       <c r="C250" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="D250" t="s">
         <v>788</v>
@@ -14799,7 +14790,7 @@
       </c>
       <c r="B251" s="2"/>
       <c r="C251" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D251" t="s">
         <v>791</v>
@@ -14829,7 +14820,7 @@
       </c>
       <c r="B252" s="2"/>
       <c r="C252" t="s">
-        <v>519</v>
+        <v>624</v>
       </c>
       <c r="D252" t="s">
         <v>794</v>
@@ -14859,7 +14850,7 @@
       </c>
       <c r="B253" s="2"/>
       <c r="C253" t="s">
-        <v>627</v>
+        <v>516</v>
       </c>
       <c r="D253" t="s">
         <v>797</v>
@@ -14887,9 +14878,11 @@
       <c r="A254" t="s">
         <v>799</v>
       </c>
-      <c r="B254" s="2"/>
+      <c r="B254" t="s">
+        <v>506</v>
+      </c>
       <c r="C254" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="D254" t="s">
         <v>800</v>
@@ -14897,7 +14890,9 @@
       <c r="E254" t="s">
         <v>801</v>
       </c>
-      <c r="F254" s="2"/>
+      <c r="F254" t="s">
+        <v>510</v>
+      </c>
       <c r="G254" s="2"/>
       <c r="H254" s="2"/>
       <c r="I254" t="s">
@@ -14917,11 +14912,9 @@
       <c r="A255" t="s">
         <v>802</v>
       </c>
-      <c r="B255" t="s">
-        <v>509</v>
-      </c>
+      <c r="B255" s="2"/>
       <c r="C255" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="D255" t="s">
         <v>803</v>
@@ -14929,9 +14922,7 @@
       <c r="E255" t="s">
         <v>804</v>
       </c>
-      <c r="F255" t="s">
-        <v>513</v>
-      </c>
+      <c r="F255" s="2"/>
       <c r="G255" s="2"/>
       <c r="H255" s="2"/>
       <c r="I255" t="s">
@@ -14953,7 +14944,7 @@
       </c>
       <c r="B256" s="2"/>
       <c r="C256" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D256" t="s">
         <v>806</v>
@@ -14983,7 +14974,7 @@
       </c>
       <c r="B257" s="2"/>
       <c r="C257" t="s">
-        <v>505</v>
+        <v>598</v>
       </c>
       <c r="D257" t="s">
         <v>809</v>
@@ -15013,7 +15004,7 @@
       </c>
       <c r="B258" s="2"/>
       <c r="C258" t="s">
-        <v>601</v>
+        <v>544</v>
       </c>
       <c r="D258" t="s">
         <v>812</v>
@@ -15043,7 +15034,7 @@
       </c>
       <c r="B259" s="2"/>
       <c r="C259" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D259" t="s">
         <v>815</v>
@@ -15073,7 +15064,7 @@
       </c>
       <c r="B260" s="2"/>
       <c r="C260" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D260" t="s">
         <v>818</v>
@@ -15103,7 +15094,7 @@
       </c>
       <c r="B261" s="2"/>
       <c r="C261" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D261" t="s">
         <v>821</v>
@@ -15133,7 +15124,7 @@
       </c>
       <c r="B262" s="2"/>
       <c r="C262" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D262" t="s">
         <v>824</v>
@@ -15163,7 +15154,7 @@
       </c>
       <c r="B263" s="2"/>
       <c r="C263" t="s">
-        <v>547</v>
+        <v>520</v>
       </c>
       <c r="D263" t="s">
         <v>827</v>
@@ -15193,7 +15184,7 @@
       </c>
       <c r="B264" s="2"/>
       <c r="C264" t="s">
-        <v>523</v>
+        <v>544</v>
       </c>
       <c r="D264" t="s">
         <v>830</v>
@@ -15223,7 +15214,7 @@
       </c>
       <c r="B265" s="2"/>
       <c r="C265" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D265" t="s">
         <v>833</v>
@@ -15251,17 +15242,21 @@
       <c r="A266" t="s">
         <v>835</v>
       </c>
-      <c r="B266" s="2"/>
+      <c r="B266" t="s">
+        <v>506</v>
+      </c>
       <c r="C266" t="s">
-        <v>547</v>
+        <v>836</v>
       </c>
       <c r="D266" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="E266" t="s">
-        <v>837</v>
-      </c>
-      <c r="F266" s="2"/>
+        <v>838</v>
+      </c>
+      <c r="F266" t="s">
+        <v>510</v>
+      </c>
       <c r="G266" s="2"/>
       <c r="H266" s="2"/>
       <c r="I266" t="s">
@@ -15279,13 +15274,11 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>838</v>
-      </c>
-      <c r="B267" t="s">
-        <v>509</v>
-      </c>
+        <v>839</v>
+      </c>
+      <c r="B267" s="2"/>
       <c r="C267" t="s">
-        <v>839</v>
+        <v>598</v>
       </c>
       <c r="D267" t="s">
         <v>840</v>
@@ -15293,9 +15286,7 @@
       <c r="E267" t="s">
         <v>841</v>
       </c>
-      <c r="F267" t="s">
-        <v>513</v>
-      </c>
+      <c r="F267" s="2"/>
       <c r="G267" s="2"/>
       <c r="H267" s="2"/>
       <c r="I267" t="s">
@@ -15315,17 +15306,15 @@
       <c r="A268" t="s">
         <v>842</v>
       </c>
-      <c r="B268" s="2"/>
-      <c r="C268" t="s">
-        <v>601</v>
-      </c>
-      <c r="D268" t="s">
-        <v>843</v>
-      </c>
-      <c r="E268" t="s">
-        <v>844</v>
-      </c>
-      <c r="F268" s="2"/>
+      <c r="B268" t="s">
+        <v>506</v>
+      </c>
+      <c r="C268" s="2"/>
+      <c r="D268" s="2"/>
+      <c r="E268" s="2"/>
+      <c r="F268" t="s">
+        <v>510</v>
+      </c>
       <c r="G268" s="2"/>
       <c r="H268" s="2"/>
       <c r="I268" t="s">
@@ -15343,16 +15332,16 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B269" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
       <c r="E269" s="2"/>
       <c r="F269" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G269" s="2"/>
       <c r="H269" s="2"/>
@@ -15371,17 +15360,19 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
+        <v>844</v>
+      </c>
+      <c r="B270" s="2"/>
+      <c r="C270" t="s">
+        <v>502</v>
+      </c>
+      <c r="D270" t="s">
+        <v>845</v>
+      </c>
+      <c r="E270" t="s">
         <v>846</v>
       </c>
-      <c r="B270" t="s">
-        <v>509</v>
-      </c>
-      <c r="C270" s="2"/>
-      <c r="D270" s="2"/>
-      <c r="E270" s="2"/>
-      <c r="F270" t="s">
-        <v>513</v>
-      </c>
+      <c r="F270" s="2"/>
       <c r="G270" s="2"/>
       <c r="H270" s="2"/>
       <c r="I270" t="s">
@@ -15403,7 +15394,7 @@
       </c>
       <c r="B271" s="2"/>
       <c r="C271" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
       <c r="D271" t="s">
         <v>848</v>
@@ -15433,7 +15424,7 @@
       </c>
       <c r="B272" s="2"/>
       <c r="C272" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D272" t="s">
         <v>851</v>
@@ -15463,7 +15454,7 @@
       </c>
       <c r="B273" s="2"/>
       <c r="C273" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="D273" t="s">
         <v>854</v>
@@ -15493,7 +15484,7 @@
       </c>
       <c r="B274" s="2"/>
       <c r="C274" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D274" t="s">
         <v>857</v>
@@ -15521,9 +15512,11 @@
       <c r="A275" t="s">
         <v>859</v>
       </c>
-      <c r="B275" s="2"/>
+      <c r="B275" t="s">
+        <v>506</v>
+      </c>
       <c r="C275" t="s">
-        <v>523</v>
+        <v>579</v>
       </c>
       <c r="D275" t="s">
         <v>860</v>
@@ -15531,7 +15524,9 @@
       <c r="E275" t="s">
         <v>861</v>
       </c>
-      <c r="F275" s="2"/>
+      <c r="F275" t="s">
+        <v>510</v>
+      </c>
       <c r="G275" s="2"/>
       <c r="H275" s="2"/>
       <c r="I275" t="s">
@@ -15552,10 +15547,10 @@
         <v>862</v>
       </c>
       <c r="B276" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C276" t="s">
-        <v>582</v>
+        <v>507</v>
       </c>
       <c r="D276" t="s">
         <v>863</v>
@@ -15564,7 +15559,7 @@
         <v>864</v>
       </c>
       <c r="F276" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G276" s="2"/>
       <c r="H276" s="2"/>
@@ -15585,11 +15580,9 @@
       <c r="A277" t="s">
         <v>865</v>
       </c>
-      <c r="B277" t="s">
-        <v>509</v>
-      </c>
+      <c r="B277" s="2"/>
       <c r="C277" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="D277" t="s">
         <v>866</v>
@@ -15597,9 +15590,7 @@
       <c r="E277" t="s">
         <v>867</v>
       </c>
-      <c r="F277" t="s">
-        <v>513</v>
-      </c>
+      <c r="F277" s="2"/>
       <c r="G277" s="2"/>
       <c r="H277" s="2"/>
       <c r="I277" t="s">
@@ -15621,7 +15612,7 @@
       </c>
       <c r="B278" s="2"/>
       <c r="C278" t="s">
-        <v>519</v>
+        <v>502</v>
       </c>
       <c r="D278" t="s">
         <v>869</v>
@@ -15651,7 +15642,7 @@
       </c>
       <c r="B279" s="2"/>
       <c r="C279" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="D279" t="s">
         <v>872</v>
@@ -15681,7 +15672,7 @@
       </c>
       <c r="B280" s="2"/>
       <c r="C280" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="D280" t="s">
         <v>875</v>
@@ -15711,7 +15702,7 @@
       </c>
       <c r="B281" s="2"/>
       <c r="C281" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D281" t="s">
         <v>878</v>
@@ -15741,7 +15732,7 @@
       </c>
       <c r="B282" s="2"/>
       <c r="C282" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D282" t="s">
         <v>881</v>
@@ -15771,7 +15762,7 @@
       </c>
       <c r="B283" s="2"/>
       <c r="C283" t="s">
-        <v>527</v>
+        <v>502</v>
       </c>
       <c r="D283" t="s">
         <v>884</v>
@@ -15801,7 +15792,7 @@
       </c>
       <c r="B284" s="2"/>
       <c r="C284" t="s">
-        <v>505</v>
+        <v>598</v>
       </c>
       <c r="D284" t="s">
         <v>887</v>
@@ -15831,7 +15822,7 @@
       </c>
       <c r="B285" s="2"/>
       <c r="C285" t="s">
-        <v>601</v>
+        <v>520</v>
       </c>
       <c r="D285" t="s">
         <v>890</v>
@@ -15861,7 +15852,7 @@
       </c>
       <c r="B286" s="2"/>
       <c r="C286" t="s">
-        <v>523</v>
+        <v>598</v>
       </c>
       <c r="D286" t="s">
         <v>893</v>
@@ -15891,7 +15882,7 @@
       </c>
       <c r="B287" s="2"/>
       <c r="C287" t="s">
-        <v>601</v>
+        <v>524</v>
       </c>
       <c r="D287" t="s">
         <v>896</v>
@@ -15921,7 +15912,7 @@
       </c>
       <c r="B288" s="2"/>
       <c r="C288" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="D288" t="s">
         <v>899</v>
@@ -15951,7 +15942,7 @@
       </c>
       <c r="B289" s="2"/>
       <c r="C289" t="s">
-        <v>519</v>
+        <v>544</v>
       </c>
       <c r="D289" t="s">
         <v>902</v>
@@ -15981,7 +15972,7 @@
       </c>
       <c r="B290" s="2"/>
       <c r="C290" t="s">
-        <v>547</v>
+        <v>502</v>
       </c>
       <c r="D290" t="s">
         <v>905</v>
@@ -16011,7 +16002,7 @@
       </c>
       <c r="B291" s="2"/>
       <c r="C291" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="D291" t="s">
         <v>908</v>
@@ -16039,9 +16030,11 @@
       <c r="A292" t="s">
         <v>910</v>
       </c>
-      <c r="B292" s="2"/>
+      <c r="B292" t="s">
+        <v>506</v>
+      </c>
       <c r="C292" t="s">
-        <v>519</v>
+        <v>727</v>
       </c>
       <c r="D292" t="s">
         <v>911</v>
@@ -16049,7 +16042,9 @@
       <c r="E292" t="s">
         <v>912</v>
       </c>
-      <c r="F292" s="2"/>
+      <c r="F292" t="s">
+        <v>510</v>
+      </c>
       <c r="G292" s="2"/>
       <c r="H292" s="2"/>
       <c r="I292" t="s">
@@ -16069,11 +16064,9 @@
       <c r="A293" t="s">
         <v>913</v>
       </c>
-      <c r="B293" t="s">
-        <v>509</v>
-      </c>
+      <c r="B293" s="2"/>
       <c r="C293" t="s">
-        <v>730</v>
+        <v>624</v>
       </c>
       <c r="D293" t="s">
         <v>914</v>
@@ -16081,9 +16074,7 @@
       <c r="E293" t="s">
         <v>915</v>
       </c>
-      <c r="F293" t="s">
-        <v>513</v>
-      </c>
+      <c r="F293" s="2"/>
       <c r="G293" s="2"/>
       <c r="H293" s="2"/>
       <c r="I293" t="s">
@@ -16105,7 +16096,7 @@
       </c>
       <c r="B294" s="2"/>
       <c r="C294" t="s">
-        <v>627</v>
+        <v>520</v>
       </c>
       <c r="D294" t="s">
         <v>917</v>
@@ -16135,7 +16126,7 @@
       </c>
       <c r="B295" s="2"/>
       <c r="C295" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D295" t="s">
         <v>920</v>
@@ -16163,9 +16154,11 @@
       <c r="A296" t="s">
         <v>922</v>
       </c>
-      <c r="B296" s="2"/>
+      <c r="B296" t="s">
+        <v>506</v>
+      </c>
       <c r="C296" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
       <c r="D296" t="s">
         <v>923</v>
@@ -16173,7 +16166,9 @@
       <c r="E296" t="s">
         <v>924</v>
       </c>
-      <c r="F296" s="2"/>
+      <c r="F296" t="s">
+        <v>510</v>
+      </c>
       <c r="G296" s="2"/>
       <c r="H296" s="2"/>
       <c r="I296" t="s">
@@ -16193,11 +16188,9 @@
       <c r="A297" t="s">
         <v>925</v>
       </c>
-      <c r="B297" t="s">
-        <v>509</v>
-      </c>
+      <c r="B297" s="2"/>
       <c r="C297" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="D297" t="s">
         <v>926</v>
@@ -16205,9 +16198,7 @@
       <c r="E297" t="s">
         <v>927</v>
       </c>
-      <c r="F297" t="s">
-        <v>513</v>
-      </c>
+      <c r="F297" s="2"/>
       <c r="G297" s="2"/>
       <c r="H297" s="2"/>
       <c r="I297" t="s">
@@ -16229,7 +16220,7 @@
       </c>
       <c r="B298" s="2"/>
       <c r="C298" t="s">
-        <v>523</v>
+        <v>608</v>
       </c>
       <c r="D298" t="s">
         <v>929</v>
@@ -16259,7 +16250,7 @@
       </c>
       <c r="B299" s="2"/>
       <c r="C299" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D299" t="s">
         <v>932</v>
@@ -16289,7 +16280,7 @@
       </c>
       <c r="B300" s="2"/>
       <c r="C300" t="s">
-        <v>611</v>
+        <v>624</v>
       </c>
       <c r="D300" t="s">
         <v>935</v>
@@ -16319,7 +16310,7 @@
       </c>
       <c r="B301" s="2"/>
       <c r="C301" t="s">
-        <v>627</v>
+        <v>544</v>
       </c>
       <c r="D301" t="s">
         <v>938</v>
@@ -16349,7 +16340,7 @@
       </c>
       <c r="B302" s="2"/>
       <c r="C302" t="s">
-        <v>547</v>
+        <v>524</v>
       </c>
       <c r="D302" t="s">
         <v>941</v>
@@ -16379,7 +16370,7 @@
       </c>
       <c r="B303" s="2"/>
       <c r="C303" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="D303" t="s">
         <v>944</v>
@@ -16409,7 +16400,7 @@
       </c>
       <c r="B304" s="2"/>
       <c r="C304" t="s">
-        <v>519</v>
+        <v>624</v>
       </c>
       <c r="D304" t="s">
         <v>947</v>
@@ -16439,7 +16430,7 @@
       </c>
       <c r="B305" s="2"/>
       <c r="C305" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="D305" t="s">
         <v>950</v>
@@ -16469,7 +16460,7 @@
       </c>
       <c r="B306" s="2"/>
       <c r="C306" t="s">
-        <v>627</v>
+        <v>516</v>
       </c>
       <c r="D306" t="s">
         <v>953</v>
@@ -16499,7 +16490,7 @@
       </c>
       <c r="B307" s="2"/>
       <c r="C307" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="D307" t="s">
         <v>956</v>
@@ -16529,7 +16520,7 @@
       </c>
       <c r="B308" s="2"/>
       <c r="C308" t="s">
-        <v>527</v>
+        <v>544</v>
       </c>
       <c r="D308" t="s">
         <v>959</v>
@@ -16559,7 +16550,7 @@
       </c>
       <c r="B309" s="2"/>
       <c r="C309" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D309" t="s">
         <v>962</v>
@@ -16589,7 +16580,7 @@
       </c>
       <c r="B310" s="2"/>
       <c r="C310" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D310" t="s">
         <v>965</v>
@@ -16619,7 +16610,7 @@
       </c>
       <c r="B311" s="2"/>
       <c r="C311" t="s">
-        <v>547</v>
+        <v>524</v>
       </c>
       <c r="D311" t="s">
         <v>968</v>
@@ -16649,7 +16640,7 @@
       </c>
       <c r="B312" s="2"/>
       <c r="C312" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="D312" t="s">
         <v>971</v>
@@ -16679,7 +16670,7 @@
       </c>
       <c r="B313" s="2"/>
       <c r="C313" t="s">
-        <v>519</v>
+        <v>608</v>
       </c>
       <c r="D313" t="s">
         <v>974</v>
@@ -16709,7 +16700,7 @@
       </c>
       <c r="B314" s="2"/>
       <c r="C314" t="s">
-        <v>611</v>
+        <v>544</v>
       </c>
       <c r="D314" t="s">
         <v>977</v>
@@ -16739,7 +16730,7 @@
       </c>
       <c r="B315" s="2"/>
       <c r="C315" t="s">
-        <v>547</v>
+        <v>608</v>
       </c>
       <c r="D315" t="s">
         <v>980</v>
@@ -16769,7 +16760,7 @@
       </c>
       <c r="B316" s="2"/>
       <c r="C316" t="s">
-        <v>611</v>
+        <v>524</v>
       </c>
       <c r="D316" t="s">
         <v>983</v>
@@ -16799,7 +16790,7 @@
       </c>
       <c r="B317" s="2"/>
       <c r="C317" t="s">
-        <v>527</v>
+        <v>624</v>
       </c>
       <c r="D317" t="s">
         <v>986</v>
@@ -16829,7 +16820,7 @@
       </c>
       <c r="B318" s="2"/>
       <c r="C318" t="s">
-        <v>627</v>
+        <v>524</v>
       </c>
       <c r="D318" t="s">
         <v>989</v>
@@ -16859,7 +16850,7 @@
       </c>
       <c r="B319" s="2"/>
       <c r="C319" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D319" t="s">
         <v>992</v>
@@ -16889,7 +16880,7 @@
       </c>
       <c r="B320" s="2"/>
       <c r="C320" t="s">
-        <v>527</v>
+        <v>544</v>
       </c>
       <c r="D320" t="s">
         <v>995</v>
@@ -16919,7 +16910,7 @@
       </c>
       <c r="B321" s="2"/>
       <c r="C321" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D321" t="s">
         <v>998</v>
@@ -16949,7 +16940,7 @@
       </c>
       <c r="B322" s="2"/>
       <c r="C322" t="s">
-        <v>547</v>
+        <v>608</v>
       </c>
       <c r="D322" t="s">
         <v>1001</v>
@@ -16979,7 +16970,7 @@
       </c>
       <c r="B323" s="2"/>
       <c r="C323" t="s">
-        <v>611</v>
+        <v>524</v>
       </c>
       <c r="D323" t="s">
         <v>1004</v>
@@ -17009,7 +17000,7 @@
       </c>
       <c r="B324" s="2"/>
       <c r="C324" t="s">
-        <v>527</v>
+        <v>544</v>
       </c>
       <c r="D324" t="s">
         <v>1007</v>
@@ -17039,7 +17030,7 @@
       </c>
       <c r="B325" s="2"/>
       <c r="C325" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D325" t="s">
         <v>1010</v>
@@ -17069,7 +17060,7 @@
       </c>
       <c r="B326" s="2"/>
       <c r="C326" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D326" t="s">
         <v>1013</v>
@@ -17099,7 +17090,7 @@
       </c>
       <c r="B327" s="2"/>
       <c r="C327" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D327" t="s">
         <v>1016</v>
@@ -17129,7 +17120,7 @@
       </c>
       <c r="B328" s="2"/>
       <c r="C328" t="s">
-        <v>547</v>
+        <v>608</v>
       </c>
       <c r="D328" t="s">
         <v>1019</v>
@@ -17159,7 +17150,7 @@
       </c>
       <c r="B329" s="2"/>
       <c r="C329" t="s">
-        <v>611</v>
+        <v>544</v>
       </c>
       <c r="D329" t="s">
         <v>1022</v>
@@ -17189,7 +17180,7 @@
       </c>
       <c r="B330" s="2"/>
       <c r="C330" t="s">
-        <v>547</v>
+        <v>516</v>
       </c>
       <c r="D330" t="s">
         <v>1025</v>
@@ -17219,7 +17210,7 @@
       </c>
       <c r="B331" s="2"/>
       <c r="C331" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D331" t="s">
         <v>1028</v>
@@ -17249,7 +17240,7 @@
       </c>
       <c r="B332" s="2"/>
       <c r="C332" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="D332" t="s">
         <v>1031</v>
@@ -17279,7 +17270,7 @@
       </c>
       <c r="B333" s="2"/>
       <c r="C333" t="s">
-        <v>527</v>
+        <v>544</v>
       </c>
       <c r="D333" t="s">
         <v>1034</v>
@@ -17309,7 +17300,7 @@
       </c>
       <c r="B334" s="2"/>
       <c r="C334" t="s">
-        <v>547</v>
+        <v>598</v>
       </c>
       <c r="D334" t="s">
         <v>1037</v>
@@ -17339,13 +17330,13 @@
       </c>
       <c r="B335" s="2"/>
       <c r="C335" t="s">
-        <v>601</v>
+        <v>1040</v>
       </c>
       <c r="D335" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="E335" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="F335" s="2"/>
       <c r="G335" s="2"/>
@@ -17365,17 +17356,17 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B336" s="2"/>
       <c r="C336" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D336" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="E336" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="F336" s="2"/>
       <c r="G336" s="2"/>
@@ -17395,11 +17386,11 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B337" s="2"/>
       <c r="C337" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
       <c r="D337" t="s">
         <v>1048</v>
@@ -17429,13 +17420,13 @@
       </c>
       <c r="B338" s="2"/>
       <c r="C338" t="s">
-        <v>1043</v>
+        <v>1051</v>
       </c>
       <c r="D338" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="E338" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="F338" s="2"/>
       <c r="G338" s="2"/>
@@ -17455,11 +17446,11 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="B339" s="2"/>
       <c r="C339" t="s">
-        <v>1054</v>
+        <v>1044</v>
       </c>
       <c r="D339" t="s">
         <v>1055</v>
@@ -17489,7 +17480,7 @@
       </c>
       <c r="B340" s="2"/>
       <c r="C340" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="D340" t="s">
         <v>1058</v>
@@ -17519,7 +17510,7 @@
       </c>
       <c r="B341" s="2"/>
       <c r="C341" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
       <c r="D341" t="s">
         <v>1061</v>
@@ -17549,7 +17540,7 @@
       </c>
       <c r="B342" s="2"/>
       <c r="C342" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D342" t="s">
         <v>1064</v>
@@ -17579,7 +17570,7 @@
       </c>
       <c r="B343" s="2"/>
       <c r="C343" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
       <c r="D343" t="s">
         <v>1067</v>
@@ -17609,7 +17600,7 @@
       </c>
       <c r="B344" s="2"/>
       <c r="C344" t="s">
-        <v>1043</v>
+        <v>1051</v>
       </c>
       <c r="D344" t="s">
         <v>1070</v>
@@ -17639,7 +17630,7 @@
       </c>
       <c r="B345" s="2"/>
       <c r="C345" t="s">
-        <v>1054</v>
+        <v>1044</v>
       </c>
       <c r="D345" t="s">
         <v>1073</v>
@@ -17669,7 +17660,7 @@
       </c>
       <c r="B346" s="2"/>
       <c r="C346" t="s">
-        <v>1047</v>
+        <v>1051</v>
       </c>
       <c r="D346" t="s">
         <v>1076</v>
@@ -17699,13 +17690,13 @@
       </c>
       <c r="B347" s="2"/>
       <c r="C347" t="s">
-        <v>1054</v>
+        <v>1079</v>
       </c>
       <c r="D347" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="E347" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="F347" s="2"/>
       <c r="G347" s="2"/>
@@ -17725,11 +17716,11 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B348" s="2"/>
       <c r="C348" t="s">
-        <v>1082</v>
+        <v>1051</v>
       </c>
       <c r="D348" t="s">
         <v>1083</v>
@@ -17759,7 +17750,7 @@
       </c>
       <c r="B349" s="2"/>
       <c r="C349" t="s">
-        <v>1054</v>
+        <v>1040</v>
       </c>
       <c r="D349" t="s">
         <v>1086</v>
@@ -17789,7 +17780,7 @@
       </c>
       <c r="B350" s="2"/>
       <c r="C350" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D350" t="s">
         <v>1089</v>
@@ -17819,7 +17810,7 @@
       </c>
       <c r="B351" s="2"/>
       <c r="C351" t="s">
-        <v>1047</v>
+        <v>1051</v>
       </c>
       <c r="D351" t="s">
         <v>1092</v>
@@ -17849,7 +17840,7 @@
       </c>
       <c r="B352" s="2"/>
       <c r="C352" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="D352" t="s">
         <v>1095</v>
@@ -17879,7 +17870,7 @@
       </c>
       <c r="B353" s="2"/>
       <c r="C353" t="s">
-        <v>1054</v>
+        <v>1040</v>
       </c>
       <c r="D353" t="s">
         <v>1098</v>
@@ -17909,7 +17900,7 @@
       </c>
       <c r="B354" s="2"/>
       <c r="C354" t="s">
-        <v>1043</v>
+        <v>1051</v>
       </c>
       <c r="D354" t="s">
         <v>1101</v>
@@ -17939,7 +17930,7 @@
       </c>
       <c r="B355" s="2"/>
       <c r="C355" t="s">
-        <v>1054</v>
+        <v>1044</v>
       </c>
       <c r="D355" t="s">
         <v>1104</v>
@@ -17969,7 +17960,7 @@
       </c>
       <c r="B356" s="2"/>
       <c r="C356" t="s">
-        <v>1047</v>
+        <v>103</v>
       </c>
       <c r="D356" t="s">
         <v>1107</v>
@@ -17999,7 +17990,7 @@
       </c>
       <c r="B357" s="2"/>
       <c r="C357" t="s">
-        <v>103</v>
+        <v>1044</v>
       </c>
       <c r="D357" t="s">
         <v>1110</v>
@@ -18029,7 +18020,7 @@
       </c>
       <c r="B358" s="2"/>
       <c r="C358" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="D358" t="s">
         <v>1113</v>
@@ -18059,7 +18050,7 @@
       </c>
       <c r="B359" s="2"/>
       <c r="C359" t="s">
-        <v>1047</v>
+        <v>1051</v>
       </c>
       <c r="D359" t="s">
         <v>1116</v>
@@ -18089,7 +18080,7 @@
       </c>
       <c r="B360" s="2"/>
       <c r="C360" t="s">
-        <v>1054</v>
+        <v>1044</v>
       </c>
       <c r="D360" t="s">
         <v>1119</v>
@@ -18119,7 +18110,7 @@
       </c>
       <c r="B361" s="2"/>
       <c r="C361" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
       <c r="D361" t="s">
         <v>1122</v>
@@ -18149,7 +18140,7 @@
       </c>
       <c r="B362" s="2"/>
       <c r="C362" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D362" t="s">
         <v>1125</v>
@@ -18179,7 +18170,7 @@
       </c>
       <c r="B363" s="2"/>
       <c r="C363" t="s">
-        <v>1047</v>
+        <v>1051</v>
       </c>
       <c r="D363" t="s">
         <v>1128</v>
@@ -18209,7 +18200,7 @@
       </c>
       <c r="B364" s="2"/>
       <c r="C364" t="s">
-        <v>1054</v>
+        <v>1044</v>
       </c>
       <c r="D364" t="s">
         <v>1131</v>
@@ -18239,7 +18230,7 @@
       </c>
       <c r="B365" s="2"/>
       <c r="C365" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
       <c r="D365" t="s">
         <v>1134</v>
@@ -18269,7 +18260,7 @@
       </c>
       <c r="B366" s="2"/>
       <c r="C366" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D366" t="s">
         <v>1137</v>
@@ -18299,13 +18290,13 @@
       </c>
       <c r="B367" s="2"/>
       <c r="C367" t="s">
-        <v>1047</v>
+        <v>1140</v>
       </c>
       <c r="D367" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="E367" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="F367" s="2"/>
       <c r="G367" s="2"/>
@@ -18325,11 +18316,11 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="B368" s="2"/>
       <c r="C368" t="s">
-        <v>1143</v>
+        <v>1079</v>
       </c>
       <c r="D368" t="s">
         <v>1144</v>
@@ -18359,7 +18350,7 @@
       </c>
       <c r="B369" s="2"/>
       <c r="C369" t="s">
-        <v>1082</v>
+        <v>1051</v>
       </c>
       <c r="D369" t="s">
         <v>1147</v>
@@ -18389,7 +18380,7 @@
       </c>
       <c r="B370" s="2"/>
       <c r="C370" t="s">
-        <v>1054</v>
+        <v>1040</v>
       </c>
       <c r="D370" t="s">
         <v>1150</v>
@@ -18419,7 +18410,7 @@
       </c>
       <c r="B371" s="2"/>
       <c r="C371" t="s">
-        <v>1043</v>
+        <v>103</v>
       </c>
       <c r="D371" t="s">
         <v>1153</v>
@@ -18449,7 +18440,7 @@
       </c>
       <c r="B372" s="2"/>
       <c r="C372" t="s">
-        <v>103</v>
+        <v>1040</v>
       </c>
       <c r="D372" t="s">
         <v>1156</v>
@@ -18479,7 +18470,7 @@
       </c>
       <c r="B373" s="2"/>
       <c r="C373" t="s">
-        <v>1043</v>
+        <v>1079</v>
       </c>
       <c r="D373" t="s">
         <v>1159</v>
@@ -18509,13 +18500,13 @@
       </c>
       <c r="B374" s="2"/>
       <c r="C374" t="s">
-        <v>1082</v>
+        <v>1162</v>
       </c>
       <c r="D374" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="E374" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="F374" s="2"/>
       <c r="G374" s="2"/>
@@ -18535,11 +18526,11 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="B375" s="2"/>
       <c r="C375" t="s">
-        <v>1165</v>
+        <v>1140</v>
       </c>
       <c r="D375" t="s">
         <v>1166</v>
@@ -18569,7 +18560,7 @@
       </c>
       <c r="B376" s="2"/>
       <c r="C376" t="s">
-        <v>1143</v>
+        <v>1040</v>
       </c>
       <c r="D376" t="s">
         <v>1169</v>
@@ -18599,7 +18590,7 @@
       </c>
       <c r="B377" s="2"/>
       <c r="C377" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D377" t="s">
         <v>1172</v>
@@ -18629,7 +18620,7 @@
       </c>
       <c r="B378" s="2"/>
       <c r="C378" t="s">
-        <v>1047</v>
+        <v>1051</v>
       </c>
       <c r="D378" t="s">
         <v>1175</v>
@@ -18659,7 +18650,7 @@
       </c>
       <c r="B379" s="2"/>
       <c r="C379" t="s">
-        <v>1054</v>
+        <v>1040</v>
       </c>
       <c r="D379" t="s">
         <v>1178</v>
@@ -18689,7 +18680,7 @@
       </c>
       <c r="B380" s="2"/>
       <c r="C380" t="s">
-        <v>1043</v>
+        <v>103</v>
       </c>
       <c r="D380" t="s">
         <v>1181</v>
@@ -18719,7 +18710,7 @@
       </c>
       <c r="B381" s="2"/>
       <c r="C381" t="s">
-        <v>103</v>
+        <v>1044</v>
       </c>
       <c r="D381" t="s">
         <v>1184</v>
@@ -18749,7 +18740,7 @@
       </c>
       <c r="B382" s="2"/>
       <c r="C382" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
       <c r="D382" t="s">
         <v>1187</v>
@@ -18779,7 +18770,7 @@
       </c>
       <c r="B383" s="2"/>
       <c r="C383" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="D383" t="s">
         <v>1190</v>
@@ -18809,7 +18800,7 @@
       </c>
       <c r="B384" s="2"/>
       <c r="C384" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="D384" t="s">
         <v>1193</v>
@@ -18839,7 +18830,7 @@
       </c>
       <c r="B385" s="2"/>
       <c r="C385" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D385" t="s">
         <v>1196</v>
@@ -18869,7 +18860,7 @@
       </c>
       <c r="B386" s="2"/>
       <c r="C386" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="D386" t="s">
         <v>1199</v>
@@ -18899,7 +18890,7 @@
       </c>
       <c r="B387" s="2"/>
       <c r="C387" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="D387" t="s">
         <v>1202</v>
@@ -18929,7 +18920,7 @@
       </c>
       <c r="B388" s="2"/>
       <c r="C388" t="s">
-        <v>1047</v>
+        <v>1051</v>
       </c>
       <c r="D388" t="s">
         <v>1205</v>
@@ -18959,7 +18950,7 @@
       </c>
       <c r="B389" s="2"/>
       <c r="C389" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="D389" t="s">
         <v>1208</v>
@@ -18989,7 +18980,7 @@
       </c>
       <c r="B390" s="2"/>
       <c r="C390" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="D390" t="s">
         <v>1211</v>
@@ -19019,7 +19010,7 @@
       </c>
       <c r="B391" s="2"/>
       <c r="C391" t="s">
-        <v>1054</v>
+        <v>1044</v>
       </c>
       <c r="D391" t="s">
         <v>1214</v>
@@ -19049,7 +19040,7 @@
       </c>
       <c r="B392" s="2"/>
       <c r="C392" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="D392" t="s">
         <v>1217</v>
@@ -19079,7 +19070,7 @@
       </c>
       <c r="B393" s="2"/>
       <c r="C393" t="s">
-        <v>1047</v>
+        <v>1051</v>
       </c>
       <c r="D393" t="s">
         <v>1220</v>
@@ -19109,7 +19100,7 @@
       </c>
       <c r="B394" s="2"/>
       <c r="C394" t="s">
-        <v>1054</v>
+        <v>1040</v>
       </c>
       <c r="D394" t="s">
         <v>1223</v>
@@ -19139,7 +19130,7 @@
       </c>
       <c r="B395" s="2"/>
       <c r="C395" t="s">
-        <v>1043</v>
+        <v>1051</v>
       </c>
       <c r="D395" t="s">
         <v>1226</v>
@@ -19169,7 +19160,7 @@
       </c>
       <c r="B396" s="2"/>
       <c r="C396" t="s">
-        <v>1054</v>
+        <v>1044</v>
       </c>
       <c r="D396" t="s">
         <v>1229</v>
@@ -19199,7 +19190,7 @@
       </c>
       <c r="B397" s="2"/>
       <c r="C397" t="s">
-        <v>1047</v>
+        <v>1079</v>
       </c>
       <c r="D397" t="s">
         <v>1232</v>
@@ -19229,7 +19220,7 @@
       </c>
       <c r="B398" s="2"/>
       <c r="C398" t="s">
-        <v>1082</v>
+        <v>1044</v>
       </c>
       <c r="D398" t="s">
         <v>1235</v>
@@ -19259,7 +19250,7 @@
       </c>
       <c r="B399" s="2"/>
       <c r="C399" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
       <c r="D399" t="s">
         <v>1238</v>
@@ -19289,7 +19280,7 @@
       </c>
       <c r="B400" s="2"/>
       <c r="C400" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D400" t="s">
         <v>1241</v>
@@ -19319,7 +19310,7 @@
       </c>
       <c r="B401" s="2"/>
       <c r="C401" t="s">
-        <v>1047</v>
+        <v>1051</v>
       </c>
       <c r="D401" t="s">
         <v>1244</v>
@@ -19349,7 +19340,7 @@
       </c>
       <c r="B402" s="2"/>
       <c r="C402" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="D402" t="s">
         <v>1247</v>
@@ -19379,7 +19370,7 @@
       </c>
       <c r="B403" s="2"/>
       <c r="C403" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="D403" t="s">
         <v>1250</v>
@@ -19409,7 +19400,7 @@
       </c>
       <c r="B404" s="2"/>
       <c r="C404" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="D404" t="s">
         <v>1253</v>
@@ -19439,7 +19430,7 @@
       </c>
       <c r="B405" s="2"/>
       <c r="C405" t="s">
-        <v>1054</v>
+        <v>1044</v>
       </c>
       <c r="D405" t="s">
         <v>1256</v>
@@ -19469,7 +19460,7 @@
       </c>
       <c r="B406" s="2"/>
       <c r="C406" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
       <c r="D406" t="s">
         <v>1259</v>
@@ -19499,7 +19490,7 @@
       </c>
       <c r="B407" s="2"/>
       <c r="C407" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D407" t="s">
         <v>1262</v>
@@ -19529,7 +19520,7 @@
       </c>
       <c r="B408" s="2"/>
       <c r="C408" t="s">
-        <v>1047</v>
+        <v>1051</v>
       </c>
       <c r="D408" t="s">
         <v>1265</v>
@@ -19559,7 +19550,7 @@
       </c>
       <c r="B409" s="2"/>
       <c r="C409" t="s">
-        <v>1054</v>
+        <v>1044</v>
       </c>
       <c r="D409" t="s">
         <v>1268</v>
@@ -19589,7 +19580,7 @@
       </c>
       <c r="B410" s="2"/>
       <c r="C410" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="D410" t="s">
         <v>1271</v>
@@ -19619,7 +19610,7 @@
       </c>
       <c r="B411" s="2"/>
       <c r="C411" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="D411" t="s">
         <v>1274</v>
@@ -19649,7 +19640,7 @@
       </c>
       <c r="B412" s="2"/>
       <c r="C412" t="s">
-        <v>1047</v>
+        <v>1051</v>
       </c>
       <c r="D412" t="s">
         <v>1277</v>
@@ -19679,7 +19670,7 @@
       </c>
       <c r="B413" s="2"/>
       <c r="C413" t="s">
-        <v>1054</v>
+        <v>1044</v>
       </c>
       <c r="D413" t="s">
         <v>1280</v>
@@ -19709,7 +19700,7 @@
       </c>
       <c r="B414" s="2"/>
       <c r="C414" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
       <c r="D414" t="s">
         <v>1283</v>
@@ -19739,7 +19730,7 @@
       </c>
       <c r="B415" s="2"/>
       <c r="C415" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="D415" t="s">
         <v>1286</v>
@@ -19769,7 +19760,7 @@
       </c>
       <c r="B416" s="2"/>
       <c r="C416" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D416" t="s">
         <v>1289</v>
@@ -19799,7 +19790,7 @@
       </c>
       <c r="B417" s="2"/>
       <c r="C417" t="s">
-        <v>1047</v>
+        <v>1051</v>
       </c>
       <c r="D417" t="s">
         <v>1292</v>
@@ -19829,7 +19820,7 @@
       </c>
       <c r="B418" s="2"/>
       <c r="C418" t="s">
-        <v>1054</v>
+        <v>1044</v>
       </c>
       <c r="D418" t="s">
         <v>1295</v>
@@ -19859,7 +19850,7 @@
       </c>
       <c r="B419" s="2"/>
       <c r="C419" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="D419" t="s">
         <v>1298</v>
@@ -19889,7 +19880,7 @@
       </c>
       <c r="B420" s="2"/>
       <c r="C420" t="s">
-        <v>1047</v>
+        <v>1079</v>
       </c>
       <c r="D420" t="s">
         <v>1301</v>
@@ -19919,7 +19910,7 @@
       </c>
       <c r="B421" s="2"/>
       <c r="C421" t="s">
-        <v>1082</v>
+        <v>103</v>
       </c>
       <c r="D421" t="s">
         <v>1304</v>
@@ -19949,7 +19940,7 @@
       </c>
       <c r="B422" s="2"/>
       <c r="C422" t="s">
-        <v>103</v>
+        <v>1044</v>
       </c>
       <c r="D422" t="s">
         <v>1307</v>
@@ -19979,7 +19970,7 @@
       </c>
       <c r="B423" s="2"/>
       <c r="C423" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
       <c r="D423" t="s">
         <v>1310</v>
@@ -20009,7 +20000,7 @@
       </c>
       <c r="B424" s="2"/>
       <c r="C424" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D424" t="s">
         <v>1313</v>
@@ -20039,7 +20030,7 @@
       </c>
       <c r="B425" s="2"/>
       <c r="C425" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
       <c r="D425" t="s">
         <v>1316</v>
@@ -20069,7 +20060,7 @@
       </c>
       <c r="B426" s="2"/>
       <c r="C426" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D426" t="s">
         <v>1319</v>
@@ -20099,7 +20090,7 @@
       </c>
       <c r="B427" s="2"/>
       <c r="C427" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="D427" t="s">
         <v>1322</v>
@@ -20129,7 +20120,7 @@
       </c>
       <c r="B428" s="2"/>
       <c r="C428" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
       <c r="D428" t="s">
         <v>1325</v>
@@ -20159,7 +20150,7 @@
       </c>
       <c r="B429" s="2"/>
       <c r="C429" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D429" t="s">
         <v>1328</v>
@@ -20189,7 +20180,7 @@
       </c>
       <c r="B430" s="2"/>
       <c r="C430" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
       <c r="D430" t="s">
         <v>1331</v>
@@ -20219,7 +20210,7 @@
       </c>
       <c r="B431" s="2"/>
       <c r="C431" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="D431" t="s">
         <v>1334</v>
@@ -20249,7 +20240,7 @@
       </c>
       <c r="B432" s="2"/>
       <c r="C432" t="s">
-        <v>1043</v>
+        <v>103</v>
       </c>
       <c r="D432" t="s">
         <v>1337</v>
@@ -20279,7 +20270,7 @@
       </c>
       <c r="B433" s="2"/>
       <c r="C433" t="s">
-        <v>103</v>
+        <v>1079</v>
       </c>
       <c r="D433" t="s">
         <v>1340</v>
@@ -20309,7 +20300,7 @@
       </c>
       <c r="B434" s="2"/>
       <c r="C434" t="s">
-        <v>1082</v>
+        <v>1044</v>
       </c>
       <c r="D434" t="s">
         <v>1343</v>
@@ -20339,7 +20330,7 @@
       </c>
       <c r="B435" s="2"/>
       <c r="C435" t="s">
-        <v>1047</v>
+        <v>103</v>
       </c>
       <c r="D435" t="s">
         <v>1346</v>
@@ -20369,7 +20360,7 @@
       </c>
       <c r="B436" s="2"/>
       <c r="C436" t="s">
-        <v>103</v>
+        <v>1044</v>
       </c>
       <c r="D436" t="s">
         <v>1349</v>
@@ -20399,7 +20390,7 @@
       </c>
       <c r="B437" s="2"/>
       <c r="C437" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
       <c r="D437" t="s">
         <v>1352</v>
@@ -20429,7 +20420,7 @@
       </c>
       <c r="B438" s="2"/>
       <c r="C438" t="s">
-        <v>1043</v>
+        <v>103</v>
       </c>
       <c r="D438" t="s">
         <v>1355</v>
@@ -20459,7 +20450,7 @@
       </c>
       <c r="B439" s="2"/>
       <c r="C439" t="s">
-        <v>103</v>
+        <v>1051</v>
       </c>
       <c r="D439" t="s">
         <v>1358</v>
@@ -20489,7 +20480,7 @@
       </c>
       <c r="B440" s="2"/>
       <c r="C440" t="s">
-        <v>1054</v>
+        <v>1040</v>
       </c>
       <c r="D440" t="s">
         <v>1361</v>
@@ -20519,7 +20510,7 @@
       </c>
       <c r="B441" s="2"/>
       <c r="C441" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D441" t="s">
         <v>1364</v>
@@ -20549,7 +20540,7 @@
       </c>
       <c r="B442" s="2"/>
       <c r="C442" t="s">
-        <v>1047</v>
+        <v>103</v>
       </c>
       <c r="D442" t="s">
         <v>1367</v>
@@ -20579,7 +20570,7 @@
       </c>
       <c r="B443" s="2"/>
       <c r="C443" t="s">
-        <v>103</v>
+        <v>1040</v>
       </c>
       <c r="D443" t="s">
         <v>1370</v>
@@ -20609,7 +20600,7 @@
       </c>
       <c r="B444" s="2"/>
       <c r="C444" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="D444" t="s">
         <v>1373</v>
@@ -20639,7 +20630,7 @@
       </c>
       <c r="B445" s="2"/>
       <c r="C445" t="s">
-        <v>1043</v>
+        <v>1140</v>
       </c>
       <c r="D445" t="s">
         <v>1376</v>
@@ -20669,7 +20660,7 @@
       </c>
       <c r="B446" s="2"/>
       <c r="C446" t="s">
-        <v>1143</v>
+        <v>1079</v>
       </c>
       <c r="D446" t="s">
         <v>1379</v>
@@ -20699,7 +20690,7 @@
       </c>
       <c r="B447" s="2"/>
       <c r="C447" t="s">
-        <v>1082</v>
+        <v>1040</v>
       </c>
       <c r="D447" t="s">
         <v>1382</v>
@@ -20729,7 +20720,7 @@
       </c>
       <c r="B448" s="2"/>
       <c r="C448" t="s">
-        <v>1043</v>
+        <v>103</v>
       </c>
       <c r="D448" t="s">
         <v>1385</v>
@@ -20759,7 +20750,7 @@
       </c>
       <c r="B449" s="2"/>
       <c r="C449" t="s">
-        <v>103</v>
+        <v>1040</v>
       </c>
       <c r="D449" t="s">
         <v>1388</v>
@@ -20789,7 +20780,7 @@
       </c>
       <c r="B450" s="2"/>
       <c r="C450" t="s">
-        <v>1043</v>
+        <v>103</v>
       </c>
       <c r="D450" t="s">
         <v>1391</v>
@@ -20819,7 +20810,7 @@
       </c>
       <c r="B451" s="2"/>
       <c r="C451" t="s">
-        <v>103</v>
+        <v>1079</v>
       </c>
       <c r="D451" t="s">
         <v>1394</v>
@@ -20849,7 +20840,7 @@
       </c>
       <c r="B452" s="2"/>
       <c r="C452" t="s">
-        <v>1082</v>
+        <v>1040</v>
       </c>
       <c r="D452" t="s">
         <v>1397</v>
@@ -20879,7 +20870,7 @@
       </c>
       <c r="B453" s="2"/>
       <c r="C453" t="s">
-        <v>1043</v>
+        <v>103</v>
       </c>
       <c r="D453" t="s">
         <v>1400</v>
@@ -20909,7 +20900,7 @@
       </c>
       <c r="B454" s="2"/>
       <c r="C454" t="s">
-        <v>103</v>
+        <v>1140</v>
       </c>
       <c r="D454" t="s">
         <v>1403</v>
@@ -20937,17 +20928,21 @@
       <c r="A455" t="s">
         <v>1405</v>
       </c>
-      <c r="B455" s="2"/>
+      <c r="B455" t="s">
+        <v>506</v>
+      </c>
       <c r="C455" t="s">
-        <v>1143</v>
+        <v>1406</v>
       </c>
       <c r="D455" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="E455" t="s">
-        <v>1407</v>
-      </c>
-      <c r="F455" s="2"/>
+        <v>1408</v>
+      </c>
+      <c r="F455" t="s">
+        <v>510</v>
+      </c>
       <c r="G455" s="2"/>
       <c r="H455" s="2"/>
       <c r="I455" t="s">
@@ -20965,23 +20960,19 @@
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>1408</v>
-      </c>
-      <c r="B456" t="s">
-        <v>509</v>
-      </c>
+        <v>1409</v>
+      </c>
+      <c r="B456" s="2"/>
       <c r="C456" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="D456" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="E456" t="s">
-        <v>1411</v>
-      </c>
-      <c r="F456" t="s">
-        <v>513</v>
-      </c>
+        <v>1412</v>
+      </c>
+      <c r="F456" s="2"/>
       <c r="G456" s="2"/>
       <c r="H456" s="2"/>
       <c r="I456" t="s">
@@ -20999,11 +20990,13 @@
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>1412</v>
-      </c>
-      <c r="B457" s="2"/>
+        <v>1413</v>
+      </c>
+      <c r="B457" t="s">
+        <v>506</v>
+      </c>
       <c r="C457" t="s">
-        <v>1413</v>
+        <v>1406</v>
       </c>
       <c r="D457" t="s">
         <v>1414</v>
@@ -21011,7 +21004,9 @@
       <c r="E457" t="s">
         <v>1415</v>
       </c>
-      <c r="F457" s="2"/>
+      <c r="F457" t="s">
+        <v>510</v>
+      </c>
       <c r="G457" s="2"/>
       <c r="H457" s="2"/>
       <c r="I457" t="s">
@@ -21032,19 +21027,19 @@
         <v>1416</v>
       </c>
       <c r="B458" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C458" t="s">
-        <v>1409</v>
+        <v>1417</v>
       </c>
       <c r="D458" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="E458" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="F458" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G458" s="2"/>
       <c r="H458" s="2"/>
@@ -21063,13 +21058,11 @@
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>1419</v>
-      </c>
-      <c r="B459" t="s">
-        <v>509</v>
-      </c>
+        <v>1420</v>
+      </c>
+      <c r="B459" s="2"/>
       <c r="C459" t="s">
-        <v>1420</v>
+        <v>1410</v>
       </c>
       <c r="D459" t="s">
         <v>1421</v>
@@ -21077,9 +21070,7 @@
       <c r="E459" t="s">
         <v>1422</v>
       </c>
-      <c r="F459" t="s">
-        <v>513</v>
-      </c>
+      <c r="F459" s="2"/>
       <c r="G459" s="2"/>
       <c r="H459" s="2"/>
       <c r="I459" t="s">
@@ -21099,9 +21090,11 @@
       <c r="A460" t="s">
         <v>1423</v>
       </c>
-      <c r="B460" s="2"/>
+      <c r="B460" t="s">
+        <v>506</v>
+      </c>
       <c r="C460" t="s">
-        <v>1413</v>
+        <v>1406</v>
       </c>
       <c r="D460" t="s">
         <v>1424</v>
@@ -21109,7 +21102,9 @@
       <c r="E460" t="s">
         <v>1425</v>
       </c>
-      <c r="F460" s="2"/>
+      <c r="F460" t="s">
+        <v>510</v>
+      </c>
       <c r="G460" s="2"/>
       <c r="H460" s="2"/>
       <c r="I460" t="s">
@@ -21129,11 +21124,9 @@
       <c r="A461" t="s">
         <v>1426</v>
       </c>
-      <c r="B461" t="s">
-        <v>509</v>
-      </c>
+      <c r="B461" s="2"/>
       <c r="C461" t="s">
-        <v>1409</v>
+        <v>1162</v>
       </c>
       <c r="D461" t="s">
         <v>1427</v>
@@ -21141,9 +21134,7 @@
       <c r="E461" t="s">
         <v>1428</v>
       </c>
-      <c r="F461" t="s">
-        <v>513</v>
-      </c>
+      <c r="F461" s="2"/>
       <c r="G461" s="2"/>
       <c r="H461" s="2"/>
       <c r="I461" t="s">
@@ -21165,13 +21156,13 @@
       </c>
       <c r="B462" s="2"/>
       <c r="C462" t="s">
-        <v>1165</v>
+        <v>1430</v>
       </c>
       <c r="D462" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="E462" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="F462" s="2"/>
       <c r="G462" s="2"/>
@@ -21191,17 +21182,17 @@
     </row>
     <row r="463">
       <c r="A463" t="s">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="B463" s="2"/>
       <c r="C463" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="D463" t="s">
-        <v>1434</v>
+        <v>1435</v>
       </c>
       <c r="E463" t="s">
-        <v>1435</v>
+        <v>1436</v>
       </c>
       <c r="F463" s="2"/>
       <c r="G463" s="2"/>
@@ -21221,11 +21212,11 @@
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="B464" s="2"/>
       <c r="C464" t="s">
-        <v>1437</v>
+        <v>1410</v>
       </c>
       <c r="D464" t="s">
         <v>1438</v>
@@ -21255,7 +21246,7 @@
       </c>
       <c r="B465" s="2"/>
       <c r="C465" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="D465" t="s">
         <v>1441</v>
@@ -21285,7 +21276,7 @@
       </c>
       <c r="B466" s="2"/>
       <c r="C466" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="D466" t="s">
         <v>1444</v>
@@ -21315,7 +21306,7 @@
       </c>
       <c r="B467" s="2"/>
       <c r="C467" t="s">
-        <v>1413</v>
+        <v>1162</v>
       </c>
       <c r="D467" t="s">
         <v>1447</v>
@@ -21345,7 +21336,7 @@
       </c>
       <c r="B468" s="2"/>
       <c r="C468" t="s">
-        <v>1165</v>
+        <v>1410</v>
       </c>
       <c r="D468" t="s">
         <v>1450</v>
@@ -21375,7 +21366,7 @@
       </c>
       <c r="B469" s="2"/>
       <c r="C469" t="s">
-        <v>1413</v>
+        <v>1162</v>
       </c>
       <c r="D469" t="s">
         <v>1453</v>
@@ -21405,7 +21396,7 @@
       </c>
       <c r="B470" s="2"/>
       <c r="C470" t="s">
-        <v>1165</v>
+        <v>1430</v>
       </c>
       <c r="D470" t="s">
         <v>1456</v>
@@ -21435,7 +21426,7 @@
       </c>
       <c r="B471" s="2"/>
       <c r="C471" t="s">
-        <v>1433</v>
+        <v>1162</v>
       </c>
       <c r="D471" t="s">
         <v>1459</v>
@@ -21465,7 +21456,7 @@
       </c>
       <c r="B472" s="2"/>
       <c r="C472" t="s">
-        <v>1165</v>
+        <v>1410</v>
       </c>
       <c r="D472" t="s">
         <v>1462</v>
@@ -21495,7 +21486,7 @@
       </c>
       <c r="B473" s="2"/>
       <c r="C473" t="s">
-        <v>1413</v>
+        <v>1430</v>
       </c>
       <c r="D473" t="s">
         <v>1465</v>
@@ -21525,7 +21516,7 @@
       </c>
       <c r="B474" s="2"/>
       <c r="C474" t="s">
-        <v>1433</v>
+        <v>1410</v>
       </c>
       <c r="D474" t="s">
         <v>1468</v>
@@ -21555,7 +21546,7 @@
       </c>
       <c r="B475" s="2"/>
       <c r="C475" t="s">
-        <v>1413</v>
+        <v>165</v>
       </c>
       <c r="D475" t="s">
         <v>1471</v>
@@ -21585,7 +21576,7 @@
       </c>
       <c r="B476" s="2"/>
       <c r="C476" t="s">
-        <v>165</v>
+        <v>1434</v>
       </c>
       <c r="D476" t="s">
         <v>1474</v>
@@ -21615,7 +21606,7 @@
       </c>
       <c r="B477" s="2"/>
       <c r="C477" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="D477" t="s">
         <v>1477</v>
@@ -21643,17 +21634,21 @@
       <c r="A478" t="s">
         <v>1479</v>
       </c>
-      <c r="B478" s="2"/>
+      <c r="B478" t="s">
+        <v>506</v>
+      </c>
       <c r="C478" t="s">
-        <v>1437</v>
+        <v>1480</v>
       </c>
       <c r="D478" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="E478" t="s">
-        <v>1481</v>
-      </c>
-      <c r="F478" s="2"/>
+        <v>1482</v>
+      </c>
+      <c r="F478" t="s">
+        <v>510</v>
+      </c>
       <c r="G478" s="2"/>
       <c r="H478" s="2"/>
       <c r="I478" t="s">
@@ -21671,13 +21666,11 @@
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>1482</v>
-      </c>
-      <c r="B479" t="s">
-        <v>509</v>
-      </c>
+        <v>1483</v>
+      </c>
+      <c r="B479" s="2"/>
       <c r="C479" t="s">
-        <v>1483</v>
+        <v>1430</v>
       </c>
       <c r="D479" t="s">
         <v>1484</v>
@@ -21685,9 +21678,7 @@
       <c r="E479" t="s">
         <v>1485</v>
       </c>
-      <c r="F479" t="s">
-        <v>513</v>
-      </c>
+      <c r="F479" s="2"/>
       <c r="G479" s="2"/>
       <c r="H479" s="2"/>
       <c r="I479" t="s">
@@ -21709,7 +21700,7 @@
       </c>
       <c r="B480" s="2"/>
       <c r="C480" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="D480" t="s">
         <v>1487</v>
@@ -21739,7 +21730,7 @@
       </c>
       <c r="B481" s="2"/>
       <c r="C481" t="s">
-        <v>1437</v>
+        <v>1162</v>
       </c>
       <c r="D481" t="s">
         <v>1490</v>
@@ -21769,7 +21760,7 @@
       </c>
       <c r="B482" s="2"/>
       <c r="C482" t="s">
-        <v>1165</v>
+        <v>165</v>
       </c>
       <c r="D482" t="s">
         <v>1493</v>
@@ -21799,7 +21790,7 @@
       </c>
       <c r="B483" s="2"/>
       <c r="C483" t="s">
-        <v>165</v>
+        <v>1410</v>
       </c>
       <c r="D483" t="s">
         <v>1496</v>
@@ -21829,7 +21820,7 @@
       </c>
       <c r="B484" s="2"/>
       <c r="C484" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="D484" t="s">
         <v>1499</v>
@@ -21859,7 +21850,7 @@
       </c>
       <c r="B485" s="2"/>
       <c r="C485" t="s">
-        <v>1413</v>
+        <v>165</v>
       </c>
       <c r="D485" t="s">
         <v>1502</v>
@@ -21889,7 +21880,7 @@
       </c>
       <c r="B486" s="2"/>
       <c r="C486" t="s">
-        <v>165</v>
+        <v>1410</v>
       </c>
       <c r="D486" t="s">
         <v>1505</v>
@@ -21919,7 +21910,7 @@
       </c>
       <c r="B487" s="2"/>
       <c r="C487" t="s">
-        <v>1413</v>
+        <v>1162</v>
       </c>
       <c r="D487" t="s">
         <v>1508</v>
@@ -21949,7 +21940,7 @@
       </c>
       <c r="B488" s="2"/>
       <c r="C488" t="s">
-        <v>1165</v>
+        <v>1410</v>
       </c>
       <c r="D488" t="s">
         <v>1511</v>
@@ -21977,17 +21968,21 @@
       <c r="A489" t="s">
         <v>1513</v>
       </c>
-      <c r="B489" s="2"/>
+      <c r="B489" t="s">
+        <v>506</v>
+      </c>
       <c r="C489" t="s">
-        <v>1413</v>
+        <v>1514</v>
       </c>
       <c r="D489" t="s">
-        <v>1514</v>
+        <v>1515</v>
       </c>
       <c r="E489" t="s">
-        <v>1515</v>
-      </c>
-      <c r="F489" s="2"/>
+        <v>1516</v>
+      </c>
+      <c r="F489" t="s">
+        <v>510</v>
+      </c>
       <c r="G489" s="2"/>
       <c r="H489" s="2"/>
       <c r="I489" t="s">
@@ -22005,13 +22000,11 @@
     </row>
     <row r="490">
       <c r="A490" t="s">
-        <v>1516</v>
-      </c>
-      <c r="B490" t="s">
-        <v>509</v>
-      </c>
+        <v>1517</v>
+      </c>
+      <c r="B490" s="2"/>
       <c r="C490" t="s">
-        <v>1517</v>
+        <v>1410</v>
       </c>
       <c r="D490" t="s">
         <v>1518</v>
@@ -22019,9 +22012,7 @@
       <c r="E490" t="s">
         <v>1519</v>
       </c>
-      <c r="F490" t="s">
-        <v>513</v>
-      </c>
+      <c r="F490" s="2"/>
       <c r="G490" s="2"/>
       <c r="H490" s="2"/>
       <c r="I490" t="s">
@@ -22043,7 +22034,7 @@
       </c>
       <c r="B491" s="2"/>
       <c r="C491" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="D491" t="s">
         <v>1521</v>
@@ -22073,7 +22064,7 @@
       </c>
       <c r="B492" s="2"/>
       <c r="C492" t="s">
-        <v>1413</v>
+        <v>165</v>
       </c>
       <c r="D492" t="s">
         <v>1524</v>
@@ -22103,7 +22094,7 @@
       </c>
       <c r="B493" s="2"/>
       <c r="C493" t="s">
-        <v>165</v>
+        <v>1410</v>
       </c>
       <c r="D493" t="s">
         <v>1527</v>
@@ -22133,7 +22124,7 @@
       </c>
       <c r="B494" s="2"/>
       <c r="C494" t="s">
-        <v>1413</v>
+        <v>165</v>
       </c>
       <c r="D494" t="s">
         <v>1530</v>
@@ -22163,7 +22154,7 @@
       </c>
       <c r="B495" s="2"/>
       <c r="C495" t="s">
-        <v>165</v>
+        <v>1410</v>
       </c>
       <c r="D495" t="s">
         <v>1533</v>
@@ -22193,7 +22184,7 @@
       </c>
       <c r="B496" s="2"/>
       <c r="C496" t="s">
-        <v>1413</v>
+        <v>165</v>
       </c>
       <c r="D496" t="s">
         <v>1536</v>
@@ -22253,7 +22244,7 @@
       </c>
       <c r="B498" s="2"/>
       <c r="C498" t="s">
-        <v>165</v>
+        <v>1410</v>
       </c>
       <c r="D498" t="s">
         <v>1542</v>
@@ -22283,7 +22274,7 @@
       </c>
       <c r="B499" s="2"/>
       <c r="C499" t="s">
-        <v>1413</v>
+        <v>165</v>
       </c>
       <c r="D499" t="s">
         <v>1545</v>
@@ -22313,7 +22304,7 @@
       </c>
       <c r="B500" s="2"/>
       <c r="C500" t="s">
-        <v>165</v>
+        <v>1434</v>
       </c>
       <c r="D500" t="s">
         <v>1548</v>
@@ -22343,7 +22334,7 @@
       </c>
       <c r="B501" s="2"/>
       <c r="C501" t="s">
-        <v>1437</v>
+        <v>1162</v>
       </c>
       <c r="D501" t="s">
         <v>1551</v>
@@ -22373,7 +22364,7 @@
       </c>
       <c r="B502" s="2"/>
       <c r="C502" t="s">
-        <v>1165</v>
+        <v>1434</v>
       </c>
       <c r="D502" t="s">
         <v>1554</v>
@@ -22403,7 +22394,7 @@
       </c>
       <c r="B503" s="2"/>
       <c r="C503" t="s">
-        <v>1437</v>
+        <v>1410</v>
       </c>
       <c r="D503" t="s">
         <v>1557</v>
@@ -22433,7 +22424,7 @@
       </c>
       <c r="B504" s="2"/>
       <c r="C504" t="s">
-        <v>1413</v>
+        <v>1430</v>
       </c>
       <c r="D504" t="s">
         <v>1560</v>
@@ -22463,7 +22454,7 @@
       </c>
       <c r="B505" s="2"/>
       <c r="C505" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="D505" t="s">
         <v>1563</v>
@@ -22491,17 +22482,21 @@
       <c r="A506" t="s">
         <v>1565</v>
       </c>
-      <c r="B506" s="2"/>
+      <c r="B506" t="s">
+        <v>506</v>
+      </c>
       <c r="C506" t="s">
-        <v>1433</v>
+        <v>1566</v>
       </c>
       <c r="D506" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
       <c r="E506" t="s">
-        <v>1567</v>
-      </c>
-      <c r="F506" s="2"/>
+        <v>1568</v>
+      </c>
+      <c r="F506" t="s">
+        <v>510</v>
+      </c>
       <c r="G506" s="2"/>
       <c r="H506" s="2"/>
       <c r="I506" t="s">
@@ -22519,13 +22514,11 @@
     </row>
     <row r="507">
       <c r="A507" t="s">
-        <v>1568</v>
-      </c>
-      <c r="B507" t="s">
-        <v>509</v>
-      </c>
+        <v>1569</v>
+      </c>
+      <c r="B507" s="2"/>
       <c r="C507" t="s">
-        <v>1569</v>
+        <v>1434</v>
       </c>
       <c r="D507" t="s">
         <v>1570</v>
@@ -22533,9 +22526,7 @@
       <c r="E507" t="s">
         <v>1571</v>
       </c>
-      <c r="F507" t="s">
-        <v>513</v>
-      </c>
+      <c r="F507" s="2"/>
       <c r="G507" s="2"/>
       <c r="H507" s="2"/>
       <c r="I507" t="s">
@@ -22557,7 +22548,7 @@
       </c>
       <c r="B508" s="2"/>
       <c r="C508" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="D508" t="s">
         <v>1573</v>
@@ -22587,7 +22578,7 @@
       </c>
       <c r="B509" s="2"/>
       <c r="C509" t="s">
-        <v>1437</v>
+        <v>1162</v>
       </c>
       <c r="D509" t="s">
         <v>1576</v>
@@ -22617,7 +22608,7 @@
       </c>
       <c r="B510" s="2"/>
       <c r="C510" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="D510" t="s">
         <v>1579</v>
@@ -22647,7 +22638,7 @@
       </c>
       <c r="B511" s="2"/>
       <c r="C511" t="s">
-        <v>1165</v>
+        <v>165</v>
       </c>
       <c r="D511" t="s">
         <v>1582</v>
@@ -22677,7 +22668,7 @@
       </c>
       <c r="B512" s="2"/>
       <c r="C512" t="s">
-        <v>165</v>
+        <v>1410</v>
       </c>
       <c r="D512" t="s">
         <v>1585</v>
@@ -22707,13 +22698,13 @@
       </c>
       <c r="B513" s="2"/>
       <c r="C513" t="s">
-        <v>1413</v>
+        <v>1588</v>
       </c>
       <c r="D513" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
       <c r="E513" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="F513" s="2"/>
       <c r="G513" s="2"/>
@@ -22733,11 +22724,11 @@
     </row>
     <row r="514">
       <c r="A514" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="B514" s="2"/>
       <c r="C514" t="s">
-        <v>1591</v>
+        <v>1410</v>
       </c>
       <c r="D514" t="s">
         <v>1592</v>
@@ -22767,7 +22758,7 @@
       </c>
       <c r="B515" s="2"/>
       <c r="C515" t="s">
-        <v>1413</v>
+        <v>1434</v>
       </c>
       <c r="D515" t="s">
         <v>1595</v>
@@ -22795,9 +22786,11 @@
       <c r="A516" t="s">
         <v>1597</v>
       </c>
-      <c r="B516" s="2"/>
+      <c r="B516" t="s">
+        <v>506</v>
+      </c>
       <c r="C516" t="s">
-        <v>1437</v>
+        <v>1514</v>
       </c>
       <c r="D516" t="s">
         <v>1598</v>
@@ -22805,7 +22798,9 @@
       <c r="E516" t="s">
         <v>1599</v>
       </c>
-      <c r="F516" s="2"/>
+      <c r="F516" t="s">
+        <v>510</v>
+      </c>
       <c r="G516" s="2"/>
       <c r="H516" s="2"/>
       <c r="I516" t="s">
@@ -22826,10 +22821,10 @@
         <v>1600</v>
       </c>
       <c r="B517" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C517" t="s">
-        <v>1517</v>
+        <v>1566</v>
       </c>
       <c r="D517" t="s">
         <v>1601</v>
@@ -22838,7 +22833,7 @@
         <v>1602</v>
       </c>
       <c r="F517" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G517" s="2"/>
       <c r="H517" s="2"/>
@@ -22859,11 +22854,9 @@
       <c r="A518" t="s">
         <v>1603</v>
       </c>
-      <c r="B518" t="s">
-        <v>509</v>
-      </c>
+      <c r="B518" s="2"/>
       <c r="C518" t="s">
-        <v>1569</v>
+        <v>1162</v>
       </c>
       <c r="D518" t="s">
         <v>1604</v>
@@ -22871,9 +22864,7 @@
       <c r="E518" t="s">
         <v>1605</v>
       </c>
-      <c r="F518" t="s">
-        <v>513</v>
-      </c>
+      <c r="F518" s="2"/>
       <c r="G518" s="2"/>
       <c r="H518" s="2"/>
       <c r="I518" t="s">
@@ -22895,7 +22886,7 @@
       </c>
       <c r="B519" s="2"/>
       <c r="C519" t="s">
-        <v>1165</v>
+        <v>1434</v>
       </c>
       <c r="D519" t="s">
         <v>1607</v>
@@ -22923,9 +22914,11 @@
       <c r="A520" t="s">
         <v>1609</v>
       </c>
-      <c r="B520" s="2"/>
+      <c r="B520" t="s">
+        <v>506</v>
+      </c>
       <c r="C520" t="s">
-        <v>1437</v>
+        <v>1514</v>
       </c>
       <c r="D520" t="s">
         <v>1610</v>
@@ -22933,7 +22926,9 @@
       <c r="E520" t="s">
         <v>1611</v>
       </c>
-      <c r="F520" s="2"/>
+      <c r="F520" t="s">
+        <v>510</v>
+      </c>
       <c r="G520" s="2"/>
       <c r="H520" s="2"/>
       <c r="I520" t="s">
@@ -22954,10 +22949,10 @@
         <v>1612</v>
       </c>
       <c r="B521" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C521" t="s">
-        <v>1517</v>
+        <v>1514</v>
       </c>
       <c r="D521" t="s">
         <v>1613</v>
@@ -22966,7 +22961,7 @@
         <v>1614</v>
       </c>
       <c r="F521" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G521" s="2"/>
       <c r="H521" s="2"/>
@@ -22988,19 +22983,19 @@
         <v>1615</v>
       </c>
       <c r="B522" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C522" t="s">
-        <v>1517</v>
+        <v>1616</v>
       </c>
       <c r="D522" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="E522" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="F522" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G522" s="2"/>
       <c r="H522" s="2"/>
@@ -23019,13 +23014,11 @@
     </row>
     <row r="523">
       <c r="A523" t="s">
-        <v>1618</v>
-      </c>
-      <c r="B523" t="s">
-        <v>509</v>
-      </c>
+        <v>1619</v>
+      </c>
+      <c r="B523" s="2"/>
       <c r="C523" t="s">
-        <v>1619</v>
+        <v>1410</v>
       </c>
       <c r="D523" t="s">
         <v>1620</v>
@@ -23033,9 +23026,7 @@
       <c r="E523" t="s">
         <v>1621</v>
       </c>
-      <c r="F523" t="s">
-        <v>513</v>
-      </c>
+      <c r="F523" s="2"/>
       <c r="G523" s="2"/>
       <c r="H523" s="2"/>
       <c r="I523" t="s">
@@ -23055,9 +23046,11 @@
       <c r="A524" t="s">
         <v>1622</v>
       </c>
-      <c r="B524" s="2"/>
+      <c r="B524" t="s">
+        <v>506</v>
+      </c>
       <c r="C524" t="s">
-        <v>1413</v>
+        <v>1514</v>
       </c>
       <c r="D524" t="s">
         <v>1623</v>
@@ -23065,7 +23058,9 @@
       <c r="E524" t="s">
         <v>1624</v>
       </c>
-      <c r="F524" s="2"/>
+      <c r="F524" t="s">
+        <v>510</v>
+      </c>
       <c r="G524" s="2"/>
       <c r="H524" s="2"/>
       <c r="I524" t="s">
@@ -23086,10 +23081,10 @@
         <v>1625</v>
       </c>
       <c r="B525" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C525" t="s">
-        <v>1517</v>
+        <v>1616</v>
       </c>
       <c r="D525" t="s">
         <v>1626</v>
@@ -23098,7 +23093,7 @@
         <v>1627</v>
       </c>
       <c r="F525" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G525" s="2"/>
       <c r="H525" s="2"/>
@@ -23119,11 +23114,9 @@
       <c r="A526" t="s">
         <v>1628</v>
       </c>
-      <c r="B526" t="s">
-        <v>509</v>
-      </c>
+      <c r="B526" s="2"/>
       <c r="C526" t="s">
-        <v>1619</v>
+        <v>165</v>
       </c>
       <c r="D526" t="s">
         <v>1629</v>
@@ -23131,9 +23124,7 @@
       <c r="E526" t="s">
         <v>1630</v>
       </c>
-      <c r="F526" t="s">
-        <v>513</v>
-      </c>
+      <c r="F526" s="2"/>
       <c r="G526" s="2"/>
       <c r="H526" s="2"/>
       <c r="I526" t="s">
@@ -23155,7 +23146,7 @@
       </c>
       <c r="B527" s="2"/>
       <c r="C527" t="s">
-        <v>165</v>
+        <v>1410</v>
       </c>
       <c r="D527" t="s">
         <v>1632</v>
@@ -23185,7 +23176,7 @@
       </c>
       <c r="B528" s="2"/>
       <c r="C528" t="s">
-        <v>1413</v>
+        <v>1162</v>
       </c>
       <c r="D528" t="s">
         <v>1635</v>
@@ -23215,7 +23206,7 @@
       </c>
       <c r="B529" s="2"/>
       <c r="C529" t="s">
-        <v>1165</v>
+        <v>1588</v>
       </c>
       <c r="D529" t="s">
         <v>1638</v>
@@ -23245,7 +23236,7 @@
       </c>
       <c r="B530" s="2"/>
       <c r="C530" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="D530" t="s">
         <v>1641</v>
@@ -23275,7 +23266,7 @@
       </c>
       <c r="B531" s="2"/>
       <c r="C531" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="D531" t="s">
         <v>1644</v>
@@ -23303,9 +23294,11 @@
       <c r="A532" t="s">
         <v>1646</v>
       </c>
-      <c r="B532" s="2"/>
+      <c r="B532" t="s">
+        <v>506</v>
+      </c>
       <c r="C532" t="s">
-        <v>1591</v>
+        <v>1514</v>
       </c>
       <c r="D532" t="s">
         <v>1647</v>
@@ -23313,7 +23306,9 @@
       <c r="E532" t="s">
         <v>1648</v>
       </c>
-      <c r="F532" s="2"/>
+      <c r="F532" t="s">
+        <v>510</v>
+      </c>
       <c r="G532" s="2"/>
       <c r="H532" s="2"/>
       <c r="I532" t="s">
@@ -23333,11 +23328,9 @@
       <c r="A533" t="s">
         <v>1649</v>
       </c>
-      <c r="B533" t="s">
-        <v>509</v>
-      </c>
+      <c r="B533" s="2"/>
       <c r="C533" t="s">
-        <v>1517</v>
+        <v>165</v>
       </c>
       <c r="D533" t="s">
         <v>1650</v>
@@ -23345,9 +23338,7 @@
       <c r="E533" t="s">
         <v>1651</v>
       </c>
-      <c r="F533" t="s">
-        <v>513</v>
-      </c>
+      <c r="F533" s="2"/>
       <c r="G533" s="2"/>
       <c r="H533" s="2"/>
       <c r="I533" t="s">
@@ -23369,7 +23360,7 @@
       </c>
       <c r="B534" s="2"/>
       <c r="C534" t="s">
-        <v>165</v>
+        <v>1588</v>
       </c>
       <c r="D534" t="s">
         <v>1653</v>
@@ -23397,9 +23388,11 @@
       <c r="A535" t="s">
         <v>1655</v>
       </c>
-      <c r="B535" s="2"/>
+      <c r="B535" t="s">
+        <v>506</v>
+      </c>
       <c r="C535" t="s">
-        <v>1591</v>
+        <v>1514</v>
       </c>
       <c r="D535" t="s">
         <v>1656</v>
@@ -23407,7 +23400,9 @@
       <c r="E535" t="s">
         <v>1657</v>
       </c>
-      <c r="F535" s="2"/>
+      <c r="F535" t="s">
+        <v>510</v>
+      </c>
       <c r="G535" s="2"/>
       <c r="H535" s="2"/>
       <c r="I535" t="s">
@@ -23428,10 +23423,10 @@
         <v>1658</v>
       </c>
       <c r="B536" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C536" t="s">
-        <v>1517</v>
+        <v>1417</v>
       </c>
       <c r="D536" t="s">
         <v>1659</v>
@@ -23440,7 +23435,7 @@
         <v>1660</v>
       </c>
       <c r="F536" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G536" s="2"/>
       <c r="H536" s="2"/>
@@ -23461,11 +23456,9 @@
       <c r="A537" t="s">
         <v>1661</v>
       </c>
-      <c r="B537" t="s">
-        <v>509</v>
-      </c>
+      <c r="B537" s="2"/>
       <c r="C537" t="s">
-        <v>1420</v>
+        <v>1162</v>
       </c>
       <c r="D537" t="s">
         <v>1662</v>
@@ -23473,9 +23466,7 @@
       <c r="E537" t="s">
         <v>1663</v>
       </c>
-      <c r="F537" t="s">
-        <v>513</v>
-      </c>
+      <c r="F537" s="2"/>
       <c r="G537" s="2"/>
       <c r="H537" s="2"/>
       <c r="I537" t="s">
@@ -23497,7 +23488,7 @@
       </c>
       <c r="B538" s="2"/>
       <c r="C538" t="s">
-        <v>1165</v>
+        <v>1588</v>
       </c>
       <c r="D538" t="s">
         <v>1665</v>
@@ -23525,9 +23516,11 @@
       <c r="A539" t="s">
         <v>1667</v>
       </c>
-      <c r="B539" s="2"/>
+      <c r="B539" t="s">
+        <v>506</v>
+      </c>
       <c r="C539" t="s">
-        <v>1591</v>
+        <v>1616</v>
       </c>
       <c r="D539" t="s">
         <v>1668</v>
@@ -23535,7 +23528,9 @@
       <c r="E539" t="s">
         <v>1669</v>
       </c>
-      <c r="F539" s="2"/>
+      <c r="F539" t="s">
+        <v>510</v>
+      </c>
       <c r="G539" s="2"/>
       <c r="H539" s="2"/>
       <c r="I539" t="s">
@@ -23556,10 +23551,10 @@
         <v>1670</v>
       </c>
       <c r="B540" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C540" t="s">
-        <v>1619</v>
+        <v>1616</v>
       </c>
       <c r="D540" t="s">
         <v>1671</v>
@@ -23568,7 +23563,7 @@
         <v>1672</v>
       </c>
       <c r="F540" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G540" s="2"/>
       <c r="H540" s="2"/>
@@ -23590,10 +23585,10 @@
         <v>1673</v>
       </c>
       <c r="B541" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C541" t="s">
-        <v>1619</v>
+        <v>1406</v>
       </c>
       <c r="D541" t="s">
         <v>1674</v>
@@ -23602,7 +23597,7 @@
         <v>1675</v>
       </c>
       <c r="F541" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G541" s="2"/>
       <c r="H541" s="2"/>
@@ -23623,11 +23618,9 @@
       <c r="A542" t="s">
         <v>1676</v>
       </c>
-      <c r="B542" t="s">
-        <v>509</v>
-      </c>
+      <c r="B542" s="2"/>
       <c r="C542" t="s">
-        <v>1409</v>
+        <v>1162</v>
       </c>
       <c r="D542" t="s">
         <v>1677</v>
@@ -23635,9 +23628,7 @@
       <c r="E542" t="s">
         <v>1678</v>
       </c>
-      <c r="F542" t="s">
-        <v>513</v>
-      </c>
+      <c r="F542" s="2"/>
       <c r="G542" s="2"/>
       <c r="H542" s="2"/>
       <c r="I542" t="s">
@@ -23657,9 +23648,11 @@
       <c r="A543" t="s">
         <v>1679</v>
       </c>
-      <c r="B543" s="2"/>
+      <c r="B543" t="s">
+        <v>506</v>
+      </c>
       <c r="C543" t="s">
-        <v>1165</v>
+        <v>1406</v>
       </c>
       <c r="D543" t="s">
         <v>1680</v>
@@ -23667,7 +23660,9 @@
       <c r="E543" t="s">
         <v>1681</v>
       </c>
-      <c r="F543" s="2"/>
+      <c r="F543" t="s">
+        <v>510</v>
+      </c>
       <c r="G543" s="2"/>
       <c r="H543" s="2"/>
       <c r="I543" t="s">
@@ -23688,10 +23683,10 @@
         <v>1682</v>
       </c>
       <c r="B544" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C544" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="D544" t="s">
         <v>1683</v>
@@ -23700,7 +23695,7 @@
         <v>1684</v>
       </c>
       <c r="F544" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G544" s="2"/>
       <c r="H544" s="2"/>
@@ -23721,11 +23716,9 @@
       <c r="A545" t="s">
         <v>1685</v>
       </c>
-      <c r="B545" t="s">
-        <v>509</v>
-      </c>
+      <c r="B545" s="2"/>
       <c r="C545" t="s">
-        <v>1409</v>
+        <v>1588</v>
       </c>
       <c r="D545" t="s">
         <v>1686</v>
@@ -23733,9 +23726,7 @@
       <c r="E545" t="s">
         <v>1687</v>
       </c>
-      <c r="F545" t="s">
-        <v>513</v>
-      </c>
+      <c r="F545" s="2"/>
       <c r="G545" s="2"/>
       <c r="H545" s="2"/>
       <c r="I545" t="s">
@@ -23755,17 +23746,15 @@
       <c r="A546" t="s">
         <v>1688</v>
       </c>
-      <c r="B546" s="2"/>
-      <c r="C546" t="s">
-        <v>1591</v>
-      </c>
-      <c r="D546" t="s">
-        <v>1689</v>
-      </c>
-      <c r="E546" t="s">
-        <v>1690</v>
-      </c>
-      <c r="F546" s="2"/>
+      <c r="B546" t="s">
+        <v>506</v>
+      </c>
+      <c r="C546" s="2"/>
+      <c r="D546" s="2"/>
+      <c r="E546" s="2"/>
+      <c r="F546" t="s">
+        <v>510</v>
+      </c>
       <c r="G546" s="2"/>
       <c r="H546" s="2"/>
       <c r="I546" t="s">
@@ -23783,17 +23772,19 @@
     </row>
     <row r="547">
       <c r="A547" t="s">
+        <v>1689</v>
+      </c>
+      <c r="B547" s="2"/>
+      <c r="C547" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D547" t="s">
+        <v>1690</v>
+      </c>
+      <c r="E547" t="s">
         <v>1691</v>
       </c>
-      <c r="B547" t="s">
-        <v>509</v>
-      </c>
-      <c r="C547" s="2"/>
-      <c r="D547" s="2"/>
-      <c r="E547" s="2"/>
-      <c r="F547" t="s">
-        <v>513</v>
-      </c>
+      <c r="F547" s="2"/>
       <c r="G547" s="2"/>
       <c r="H547" s="2"/>
       <c r="I547" t="s">
@@ -23815,7 +23806,7 @@
       </c>
       <c r="B548" s="2"/>
       <c r="C548" t="s">
-        <v>1437</v>
+        <v>1588</v>
       </c>
       <c r="D548" t="s">
         <v>1693</v>
@@ -23845,7 +23836,7 @@
       </c>
       <c r="B549" s="2"/>
       <c r="C549" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="D549" t="s">
         <v>1696</v>
@@ -23873,9 +23864,11 @@
       <c r="A550" t="s">
         <v>1698</v>
       </c>
-      <c r="B550" s="2"/>
+      <c r="B550" t="s">
+        <v>506</v>
+      </c>
       <c r="C550" t="s">
-        <v>1591</v>
+        <v>1566</v>
       </c>
       <c r="D550" t="s">
         <v>1699</v>
@@ -23883,7 +23876,9 @@
       <c r="E550" t="s">
         <v>1700</v>
       </c>
-      <c r="F550" s="2"/>
+      <c r="F550" t="s">
+        <v>510</v>
+      </c>
       <c r="G550" s="2"/>
       <c r="H550" s="2"/>
       <c r="I550" t="s">
@@ -23903,11 +23898,9 @@
       <c r="A551" t="s">
         <v>1701</v>
       </c>
-      <c r="B551" t="s">
-        <v>509</v>
-      </c>
+      <c r="B551" s="2"/>
       <c r="C551" t="s">
-        <v>1569</v>
+        <v>1162</v>
       </c>
       <c r="D551" t="s">
         <v>1702</v>
@@ -23915,9 +23908,7 @@
       <c r="E551" t="s">
         <v>1703</v>
       </c>
-      <c r="F551" t="s">
-        <v>513</v>
-      </c>
+      <c r="F551" s="2"/>
       <c r="G551" s="2"/>
       <c r="H551" s="2"/>
       <c r="I551" t="s">
@@ -23939,7 +23930,7 @@
       </c>
       <c r="B552" s="2"/>
       <c r="C552" t="s">
-        <v>1165</v>
+        <v>1410</v>
       </c>
       <c r="D552" t="s">
         <v>1705</v>
@@ -23969,7 +23960,7 @@
       </c>
       <c r="B553" s="2"/>
       <c r="C553" t="s">
-        <v>1413</v>
+        <v>1430</v>
       </c>
       <c r="D553" t="s">
         <v>1708</v>
@@ -23999,7 +23990,7 @@
       </c>
       <c r="B554" s="2"/>
       <c r="C554" t="s">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="D554" t="s">
         <v>1711</v>
@@ -24029,7 +24020,7 @@
       </c>
       <c r="B555" s="2"/>
       <c r="C555" t="s">
-        <v>1437</v>
+        <v>516</v>
       </c>
       <c r="D555" t="s">
         <v>1714</v>
@@ -24057,9 +24048,11 @@
       <c r="A556" t="s">
         <v>1716</v>
       </c>
-      <c r="B556" s="2"/>
+      <c r="B556" t="s">
+        <v>506</v>
+      </c>
       <c r="C556" t="s">
-        <v>519</v>
+        <v>1566</v>
       </c>
       <c r="D556" t="s">
         <v>1717</v>
@@ -24067,7 +24060,9 @@
       <c r="E556" t="s">
         <v>1718</v>
       </c>
-      <c r="F556" s="2"/>
+      <c r="F556" t="s">
+        <v>510</v>
+      </c>
       <c r="G556" s="2"/>
       <c r="H556" s="2"/>
       <c r="I556" t="s">
@@ -24087,11 +24082,9 @@
       <c r="A557" t="s">
         <v>1719</v>
       </c>
-      <c r="B557" t="s">
-        <v>509</v>
-      </c>
+      <c r="B557" s="2"/>
       <c r="C557" t="s">
-        <v>1569</v>
+        <v>1434</v>
       </c>
       <c r="D557" t="s">
         <v>1720</v>
@@ -24099,9 +24092,7 @@
       <c r="E557" t="s">
         <v>1721</v>
       </c>
-      <c r="F557" t="s">
-        <v>513</v>
-      </c>
+      <c r="F557" s="2"/>
       <c r="G557" s="2"/>
       <c r="H557" s="2"/>
       <c r="I557" t="s">
@@ -24123,7 +24114,7 @@
       </c>
       <c r="B558" s="2"/>
       <c r="C558" t="s">
-        <v>1437</v>
+        <v>1162</v>
       </c>
       <c r="D558" t="s">
         <v>1723</v>
@@ -24151,9 +24142,11 @@
       <c r="A559" t="s">
         <v>1725</v>
       </c>
-      <c r="B559" s="2"/>
+      <c r="B559" t="s">
+        <v>506</v>
+      </c>
       <c r="C559" t="s">
-        <v>1165</v>
+        <v>1480</v>
       </c>
       <c r="D559" t="s">
         <v>1726</v>
@@ -24161,7 +24154,9 @@
       <c r="E559" t="s">
         <v>1727</v>
       </c>
-      <c r="F559" s="2"/>
+      <c r="F559" t="s">
+        <v>510</v>
+      </c>
       <c r="G559" s="2"/>
       <c r="H559" s="2"/>
       <c r="I559" t="s">
@@ -24181,11 +24176,9 @@
       <c r="A560" t="s">
         <v>1728</v>
       </c>
-      <c r="B560" t="s">
-        <v>509</v>
-      </c>
+      <c r="B560" s="2"/>
       <c r="C560" t="s">
-        <v>1483</v>
+        <v>1162</v>
       </c>
       <c r="D560" t="s">
         <v>1729</v>
@@ -24193,9 +24186,7 @@
       <c r="E560" t="s">
         <v>1730</v>
       </c>
-      <c r="F560" t="s">
-        <v>513</v>
-      </c>
+      <c r="F560" s="2"/>
       <c r="G560" s="2"/>
       <c r="H560" s="2"/>
       <c r="I560" t="s">
@@ -24217,7 +24208,7 @@
       </c>
       <c r="B561" s="2"/>
       <c r="C561" t="s">
-        <v>1165</v>
+        <v>165</v>
       </c>
       <c r="D561" t="s">
         <v>1732</v>
@@ -24247,7 +24238,7 @@
       </c>
       <c r="B562" s="2"/>
       <c r="C562" t="s">
-        <v>165</v>
+        <v>1162</v>
       </c>
       <c r="D562" t="s">
         <v>1735</v>
@@ -24277,7 +24268,7 @@
       </c>
       <c r="B563" s="2"/>
       <c r="C563" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="D563" t="s">
         <v>1738</v>
@@ -24307,7 +24298,7 @@
       </c>
       <c r="B564" s="2"/>
       <c r="C564" t="s">
-        <v>1165</v>
+        <v>1434</v>
       </c>
       <c r="D564" t="s">
         <v>1741</v>
@@ -24337,7 +24328,7 @@
       </c>
       <c r="B565" s="2"/>
       <c r="C565" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="D565" t="s">
         <v>1744</v>
@@ -24367,7 +24358,7 @@
       </c>
       <c r="B566" s="2"/>
       <c r="C566" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="D566" t="s">
         <v>1747</v>
@@ -24395,9 +24386,11 @@
       <c r="A567" t="s">
         <v>1749</v>
       </c>
-      <c r="B567" s="2"/>
+      <c r="B567" t="s">
+        <v>506</v>
+      </c>
       <c r="C567" t="s">
-        <v>1437</v>
+        <v>1566</v>
       </c>
       <c r="D567" t="s">
         <v>1750</v>
@@ -24405,7 +24398,9 @@
       <c r="E567" t="s">
         <v>1751</v>
       </c>
-      <c r="F567" s="2"/>
+      <c r="F567" t="s">
+        <v>510</v>
+      </c>
       <c r="G567" s="2"/>
       <c r="H567" s="2"/>
       <c r="I567" t="s">
@@ -24425,11 +24420,9 @@
       <c r="A568" t="s">
         <v>1752</v>
       </c>
-      <c r="B568" t="s">
-        <v>509</v>
-      </c>
+      <c r="B568" s="2"/>
       <c r="C568" t="s">
-        <v>1569</v>
+        <v>1162</v>
       </c>
       <c r="D568" t="s">
         <v>1753</v>
@@ -24437,9 +24430,7 @@
       <c r="E568" t="s">
         <v>1754</v>
       </c>
-      <c r="F568" t="s">
-        <v>513</v>
-      </c>
+      <c r="F568" s="2"/>
       <c r="G568" s="2"/>
       <c r="H568" s="2"/>
       <c r="I568" t="s">
@@ -24461,7 +24452,7 @@
       </c>
       <c r="B569" s="2"/>
       <c r="C569" t="s">
-        <v>1165</v>
+        <v>1434</v>
       </c>
       <c r="D569" t="s">
         <v>1756</v>
@@ -24491,7 +24482,7 @@
       </c>
       <c r="B570" s="2"/>
       <c r="C570" t="s">
-        <v>1437</v>
+        <v>1430</v>
       </c>
       <c r="D570" t="s">
         <v>1759</v>
@@ -24519,9 +24510,11 @@
       <c r="A571" t="s">
         <v>1761</v>
       </c>
-      <c r="B571" s="2"/>
+      <c r="B571" t="s">
+        <v>506</v>
+      </c>
       <c r="C571" t="s">
-        <v>1433</v>
+        <v>1406</v>
       </c>
       <c r="D571" t="s">
         <v>1762</v>
@@ -24529,7 +24522,9 @@
       <c r="E571" t="s">
         <v>1763</v>
       </c>
-      <c r="F571" s="2"/>
+      <c r="F571" t="s">
+        <v>510</v>
+      </c>
       <c r="G571" s="2"/>
       <c r="H571" s="2"/>
       <c r="I571" t="s">
@@ -24550,10 +24545,10 @@
         <v>1764</v>
       </c>
       <c r="B572" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C572" t="s">
-        <v>1409</v>
+        <v>1417</v>
       </c>
       <c r="D572" t="s">
         <v>1765</v>
@@ -24562,7 +24557,7 @@
         <v>1766</v>
       </c>
       <c r="F572" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G572" s="2"/>
       <c r="H572" s="2"/>
@@ -24584,10 +24579,10 @@
         <v>1767</v>
       </c>
       <c r="B573" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C573" t="s">
-        <v>1420</v>
+        <v>1406</v>
       </c>
       <c r="D573" t="s">
         <v>1768</v>
@@ -24596,7 +24591,7 @@
         <v>1769</v>
       </c>
       <c r="F573" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G573" s="2"/>
       <c r="H573" s="2"/>
@@ -24618,10 +24613,10 @@
         <v>1770</v>
       </c>
       <c r="B574" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C574" t="s">
-        <v>1409</v>
+        <v>1417</v>
       </c>
       <c r="D574" t="s">
         <v>1771</v>
@@ -24630,7 +24625,7 @@
         <v>1772</v>
       </c>
       <c r="F574" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G574" s="2"/>
       <c r="H574" s="2"/>
@@ -24651,11 +24646,9 @@
       <c r="A575" t="s">
         <v>1773</v>
       </c>
-      <c r="B575" t="s">
-        <v>509</v>
-      </c>
+      <c r="B575" s="2"/>
       <c r="C575" t="s">
-        <v>1420</v>
+        <v>1430</v>
       </c>
       <c r="D575" t="s">
         <v>1774</v>
@@ -24663,9 +24656,7 @@
       <c r="E575" t="s">
         <v>1775</v>
       </c>
-      <c r="F575" t="s">
-        <v>513</v>
-      </c>
+      <c r="F575" s="2"/>
       <c r="G575" s="2"/>
       <c r="H575" s="2"/>
       <c r="I575" t="s">
@@ -24685,9 +24676,11 @@
       <c r="A576" t="s">
         <v>1776</v>
       </c>
-      <c r="B576" s="2"/>
+      <c r="B576" t="s">
+        <v>506</v>
+      </c>
       <c r="C576" t="s">
-        <v>1433</v>
+        <v>1406</v>
       </c>
       <c r="D576" t="s">
         <v>1777</v>
@@ -24695,7 +24688,9 @@
       <c r="E576" t="s">
         <v>1778</v>
       </c>
-      <c r="F576" s="2"/>
+      <c r="F576" t="s">
+        <v>510</v>
+      </c>
       <c r="G576" s="2"/>
       <c r="H576" s="2"/>
       <c r="I576" t="s">
@@ -24715,11 +24710,9 @@
       <c r="A577" t="s">
         <v>1779</v>
       </c>
-      <c r="B577" t="s">
-        <v>509</v>
-      </c>
+      <c r="B577" s="2"/>
       <c r="C577" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="D577" t="s">
         <v>1780</v>
@@ -24727,9 +24720,7 @@
       <c r="E577" t="s">
         <v>1781</v>
       </c>
-      <c r="F577" t="s">
-        <v>513</v>
-      </c>
+      <c r="F577" s="2"/>
       <c r="G577" s="2"/>
       <c r="H577" s="2"/>
       <c r="I577" t="s">
@@ -24749,9 +24740,11 @@
       <c r="A578" t="s">
         <v>1782</v>
       </c>
-      <c r="B578" s="2"/>
+      <c r="B578" t="s">
+        <v>506</v>
+      </c>
       <c r="C578" t="s">
-        <v>1413</v>
+        <v>1616</v>
       </c>
       <c r="D578" t="s">
         <v>1783</v>
@@ -24759,7 +24752,9 @@
       <c r="E578" t="s">
         <v>1784</v>
       </c>
-      <c r="F578" s="2"/>
+      <c r="F578" t="s">
+        <v>510</v>
+      </c>
       <c r="G578" s="2"/>
       <c r="H578" s="2"/>
       <c r="I578" t="s">
@@ -24780,10 +24775,10 @@
         <v>1785</v>
       </c>
       <c r="B579" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C579" t="s">
-        <v>1619</v>
+        <v>1417</v>
       </c>
       <c r="D579" t="s">
         <v>1786</v>
@@ -24792,7 +24787,7 @@
         <v>1787</v>
       </c>
       <c r="F579" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G579" s="2"/>
       <c r="H579" s="2"/>
@@ -24814,10 +24809,10 @@
         <v>1788</v>
       </c>
       <c r="B580" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C580" t="s">
-        <v>1420</v>
+        <v>1566</v>
       </c>
       <c r="D580" t="s">
         <v>1789</v>
@@ -24826,7 +24821,7 @@
         <v>1790</v>
       </c>
       <c r="F580" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G580" s="2"/>
       <c r="H580" s="2"/>
@@ -24848,10 +24843,10 @@
         <v>1791</v>
       </c>
       <c r="B581" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C581" t="s">
-        <v>1569</v>
+        <v>1406</v>
       </c>
       <c r="D581" t="s">
         <v>1792</v>
@@ -24860,7 +24855,7 @@
         <v>1793</v>
       </c>
       <c r="F581" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G581" s="2"/>
       <c r="H581" s="2"/>
@@ -24881,11 +24876,9 @@
       <c r="A582" t="s">
         <v>1794</v>
       </c>
-      <c r="B582" t="s">
-        <v>509</v>
-      </c>
+      <c r="B582" s="2"/>
       <c r="C582" t="s">
-        <v>1409</v>
+        <v>1588</v>
       </c>
       <c r="D582" t="s">
         <v>1795</v>
@@ -24893,9 +24886,7 @@
       <c r="E582" t="s">
         <v>1796</v>
       </c>
-      <c r="F582" t="s">
-        <v>513</v>
-      </c>
+      <c r="F582" s="2"/>
       <c r="G582" s="2"/>
       <c r="H582" s="2"/>
       <c r="I582" t="s">
@@ -24917,7 +24908,7 @@
       </c>
       <c r="B583" s="2"/>
       <c r="C583" t="s">
-        <v>1591</v>
+        <v>1588</v>
       </c>
       <c r="D583" t="s">
         <v>1798</v>
@@ -24945,9 +24936,11 @@
       <c r="A584" t="s">
         <v>1800</v>
       </c>
-      <c r="B584" s="2"/>
+      <c r="B584" t="s">
+        <v>506</v>
+      </c>
       <c r="C584" t="s">
-        <v>1591</v>
+        <v>1480</v>
       </c>
       <c r="D584" t="s">
         <v>1801</v>
@@ -24955,7 +24948,9 @@
       <c r="E584" t="s">
         <v>1802</v>
       </c>
-      <c r="F584" s="2"/>
+      <c r="F584" t="s">
+        <v>510</v>
+      </c>
       <c r="G584" s="2"/>
       <c r="H584" s="2"/>
       <c r="I584" t="s">
@@ -24976,10 +24971,10 @@
         <v>1803</v>
       </c>
       <c r="B585" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C585" t="s">
-        <v>1483</v>
+        <v>1417</v>
       </c>
       <c r="D585" t="s">
         <v>1804</v>
@@ -24988,7 +24983,7 @@
         <v>1805</v>
       </c>
       <c r="F585" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G585" s="2"/>
       <c r="H585" s="2"/>
@@ -25010,10 +25005,10 @@
         <v>1806</v>
       </c>
       <c r="B586" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C586" t="s">
-        <v>1420</v>
+        <v>1514</v>
       </c>
       <c r="D586" t="s">
         <v>1807</v>
@@ -25022,7 +25017,7 @@
         <v>1808</v>
       </c>
       <c r="F586" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G586" s="2"/>
       <c r="H586" s="2"/>
@@ -25043,11 +25038,9 @@
       <c r="A587" t="s">
         <v>1809</v>
       </c>
-      <c r="B587" t="s">
-        <v>509</v>
-      </c>
+      <c r="B587" s="2"/>
       <c r="C587" t="s">
-        <v>1517</v>
+        <v>1588</v>
       </c>
       <c r="D587" t="s">
         <v>1810</v>
@@ -25055,9 +25048,7 @@
       <c r="E587" t="s">
         <v>1811</v>
       </c>
-      <c r="F587" t="s">
-        <v>513</v>
-      </c>
+      <c r="F587" s="2"/>
       <c r="G587" s="2"/>
       <c r="H587" s="2"/>
       <c r="I587" t="s">
@@ -25079,7 +25070,7 @@
       </c>
       <c r="B588" s="2"/>
       <c r="C588" t="s">
-        <v>1591</v>
+        <v>1162</v>
       </c>
       <c r="D588" t="s">
         <v>1813</v>
@@ -25107,9 +25098,11 @@
       <c r="A589" t="s">
         <v>1815</v>
       </c>
-      <c r="B589" s="2"/>
+      <c r="B589" t="s">
+        <v>506</v>
+      </c>
       <c r="C589" t="s">
-        <v>1165</v>
+        <v>1480</v>
       </c>
       <c r="D589" t="s">
         <v>1816</v>
@@ -25117,7 +25110,9 @@
       <c r="E589" t="s">
         <v>1817</v>
       </c>
-      <c r="F589" s="2"/>
+      <c r="F589" t="s">
+        <v>510</v>
+      </c>
       <c r="G589" s="2"/>
       <c r="H589" s="2"/>
       <c r="I589" t="s">
@@ -25138,10 +25133,10 @@
         <v>1818</v>
       </c>
       <c r="B590" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C590" t="s">
-        <v>1483</v>
+        <v>1480</v>
       </c>
       <c r="D590" t="s">
         <v>1819</v>
@@ -25150,7 +25145,7 @@
         <v>1820</v>
       </c>
       <c r="F590" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G590" s="2"/>
       <c r="H590" s="2"/>
@@ -25171,11 +25166,9 @@
       <c r="A591" t="s">
         <v>1821</v>
       </c>
-      <c r="B591" t="s">
-        <v>509</v>
-      </c>
+      <c r="B591" s="2"/>
       <c r="C591" t="s">
-        <v>1483</v>
+        <v>1410</v>
       </c>
       <c r="D591" t="s">
         <v>1822</v>
@@ -25183,9 +25176,7 @@
       <c r="E591" t="s">
         <v>1823</v>
       </c>
-      <c r="F591" t="s">
-        <v>513</v>
-      </c>
+      <c r="F591" s="2"/>
       <c r="G591" s="2"/>
       <c r="H591" s="2"/>
       <c r="I591" t="s">
@@ -25207,7 +25198,7 @@
       </c>
       <c r="B592" s="2"/>
       <c r="C592" t="s">
-        <v>1413</v>
+        <v>1051</v>
       </c>
       <c r="D592" t="s">
         <v>1825</v>
@@ -25237,7 +25228,7 @@
       </c>
       <c r="B593" s="2"/>
       <c r="C593" t="s">
-        <v>1054</v>
+        <v>1410</v>
       </c>
       <c r="D593" t="s">
         <v>1828</v>
@@ -25265,9 +25256,11 @@
       <c r="A594" t="s">
         <v>1830</v>
       </c>
-      <c r="B594" s="2"/>
+      <c r="B594" t="s">
+        <v>506</v>
+      </c>
       <c r="C594" t="s">
-        <v>1413</v>
+        <v>1480</v>
       </c>
       <c r="D594" t="s">
         <v>1831</v>
@@ -25275,7 +25268,9 @@
       <c r="E594" t="s">
         <v>1832</v>
       </c>
-      <c r="F594" s="2"/>
+      <c r="F594" t="s">
+        <v>510</v>
+      </c>
       <c r="G594" s="2"/>
       <c r="H594" s="2"/>
       <c r="I594" t="s">
@@ -25296,10 +25291,10 @@
         <v>1833</v>
       </c>
       <c r="B595" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C595" t="s">
-        <v>1483</v>
+        <v>1566</v>
       </c>
       <c r="D595" t="s">
         <v>1834</v>
@@ -25308,7 +25303,7 @@
         <v>1835</v>
       </c>
       <c r="F595" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G595" s="2"/>
       <c r="H595" s="2"/>
@@ -25330,10 +25325,10 @@
         <v>1836</v>
       </c>
       <c r="B596" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C596" t="s">
-        <v>1569</v>
+        <v>1566</v>
       </c>
       <c r="D596" t="s">
         <v>1837</v>
@@ -25342,7 +25337,7 @@
         <v>1838</v>
       </c>
       <c r="F596" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G596" s="2"/>
       <c r="H596" s="2"/>
@@ -25363,11 +25358,9 @@
       <c r="A597" t="s">
         <v>1839</v>
       </c>
-      <c r="B597" t="s">
-        <v>509</v>
-      </c>
+      <c r="B597" s="2"/>
       <c r="C597" t="s">
-        <v>1569</v>
+        <v>1162</v>
       </c>
       <c r="D597" t="s">
         <v>1840</v>
@@ -25375,9 +25368,7 @@
       <c r="E597" t="s">
         <v>1841</v>
       </c>
-      <c r="F597" t="s">
-        <v>513</v>
-      </c>
+      <c r="F597" s="2"/>
       <c r="G597" s="2"/>
       <c r="H597" s="2"/>
       <c r="I597" t="s">
@@ -25399,7 +25390,7 @@
       </c>
       <c r="B598" s="2"/>
       <c r="C598" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="D598" t="s">
         <v>1843</v>
@@ -25429,7 +25420,7 @@
       </c>
       <c r="B599" s="2"/>
       <c r="C599" t="s">
-        <v>1165</v>
+        <v>1410</v>
       </c>
       <c r="D599" t="s">
         <v>1846</v>
@@ -25459,13 +25450,13 @@
       </c>
       <c r="B600" s="2"/>
       <c r="C600" t="s">
-        <v>1413</v>
+        <v>1849</v>
       </c>
       <c r="D600" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="E600" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="F600" s="2"/>
       <c r="G600" s="2"/>
@@ -25485,17 +25476,17 @@
     </row>
     <row r="601">
       <c r="A601" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="B601" s="2"/>
       <c r="C601" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="D601" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="E601" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="F601" s="2"/>
       <c r="G601" s="2"/>
@@ -25515,11 +25506,13 @@
     </row>
     <row r="602">
       <c r="A602" t="s">
-        <v>1855</v>
-      </c>
-      <c r="B602" s="2"/>
+        <v>1856</v>
+      </c>
+      <c r="B602" t="s">
+        <v>506</v>
+      </c>
       <c r="C602" t="s">
-        <v>1856</v>
+        <v>1566</v>
       </c>
       <c r="D602" t="s">
         <v>1857</v>
@@ -25527,7 +25520,9 @@
       <c r="E602" t="s">
         <v>1858</v>
       </c>
-      <c r="F602" s="2"/>
+      <c r="F602" t="s">
+        <v>510</v>
+      </c>
       <c r="G602" s="2"/>
       <c r="H602" s="2"/>
       <c r="I602" t="s">
@@ -25547,21 +25542,17 @@
       <c r="A603" t="s">
         <v>1859</v>
       </c>
-      <c r="B603" t="s">
-        <v>509</v>
-      </c>
+      <c r="B603" s="2"/>
       <c r="C603" t="s">
-        <v>1569</v>
+        <v>1860</v>
       </c>
       <c r="D603" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="E603" t="s">
-        <v>1861</v>
-      </c>
-      <c r="F603" t="s">
-        <v>513</v>
-      </c>
+        <v>1862</v>
+      </c>
+      <c r="F603" s="2"/>
       <c r="G603" s="2"/>
       <c r="H603" s="2"/>
       <c r="I603" t="s">
@@ -25579,11 +25570,13 @@
     </row>
     <row r="604">
       <c r="A604" t="s">
-        <v>1862</v>
-      </c>
-      <c r="B604" s="2"/>
+        <v>1863</v>
+      </c>
+      <c r="B604" t="s">
+        <v>506</v>
+      </c>
       <c r="C604" t="s">
-        <v>1863</v>
+        <v>836</v>
       </c>
       <c r="D604" t="s">
         <v>1864</v>
@@ -25591,7 +25584,9 @@
       <c r="E604" t="s">
         <v>1865</v>
       </c>
-      <c r="F604" s="2"/>
+      <c r="F604" t="s">
+        <v>510</v>
+      </c>
       <c r="G604" s="2"/>
       <c r="H604" s="2"/>
       <c r="I604" t="s">
@@ -25611,11 +25606,9 @@
       <c r="A605" t="s">
         <v>1866</v>
       </c>
-      <c r="B605" t="s">
-        <v>509</v>
-      </c>
+      <c r="B605" s="2"/>
       <c r="C605" t="s">
-        <v>839</v>
+        <v>544</v>
       </c>
       <c r="D605" t="s">
         <v>1867</v>
@@ -25623,9 +25616,7 @@
       <c r="E605" t="s">
         <v>1868</v>
       </c>
-      <c r="F605" t="s">
-        <v>513</v>
-      </c>
+      <c r="F605" s="2"/>
       <c r="G605" s="2"/>
       <c r="H605" s="2"/>
       <c r="I605" t="s">
@@ -25645,9 +25636,11 @@
       <c r="A606" t="s">
         <v>1869</v>
       </c>
-      <c r="B606" s="2"/>
+      <c r="B606" t="s">
+        <v>506</v>
+      </c>
       <c r="C606" t="s">
-        <v>547</v>
+        <v>575</v>
       </c>
       <c r="D606" t="s">
         <v>1870</v>
@@ -25655,7 +25648,9 @@
       <c r="E606" t="s">
         <v>1871</v>
       </c>
-      <c r="F606" s="2"/>
+      <c r="F606" t="s">
+        <v>510</v>
+      </c>
       <c r="G606" s="2"/>
       <c r="H606" s="2"/>
       <c r="I606" t="s">
@@ -25675,11 +25670,9 @@
       <c r="A607" t="s">
         <v>1872</v>
       </c>
-      <c r="B607" t="s">
-        <v>509</v>
-      </c>
+      <c r="B607" s="2"/>
       <c r="C607" t="s">
-        <v>578</v>
+        <v>1430</v>
       </c>
       <c r="D607" t="s">
         <v>1873</v>
@@ -25687,9 +25680,7 @@
       <c r="E607" t="s">
         <v>1874</v>
       </c>
-      <c r="F607" t="s">
-        <v>513</v>
-      </c>
+      <c r="F607" s="2"/>
       <c r="G607" s="2"/>
       <c r="H607" s="2"/>
       <c r="I607" t="s">
@@ -25711,7 +25702,7 @@
       </c>
       <c r="B608" s="2"/>
       <c r="C608" t="s">
-        <v>1433</v>
+        <v>516</v>
       </c>
       <c r="D608" t="s">
         <v>1876</v>
@@ -25739,9 +25730,11 @@
       <c r="A609" t="s">
         <v>1878</v>
       </c>
-      <c r="B609" s="2"/>
+      <c r="B609" t="s">
+        <v>506</v>
+      </c>
       <c r="C609" t="s">
-        <v>519</v>
+        <v>1514</v>
       </c>
       <c r="D609" t="s">
         <v>1879</v>
@@ -25749,7 +25742,9 @@
       <c r="E609" t="s">
         <v>1880</v>
       </c>
-      <c r="F609" s="2"/>
+      <c r="F609" t="s">
+        <v>510</v>
+      </c>
       <c r="G609" s="2"/>
       <c r="H609" s="2"/>
       <c r="I609" t="s">
@@ -25769,11 +25764,9 @@
       <c r="A610" t="s">
         <v>1881</v>
       </c>
-      <c r="B610" t="s">
-        <v>509</v>
-      </c>
+      <c r="B610" s="2"/>
       <c r="C610" t="s">
-        <v>1517</v>
+        <v>516</v>
       </c>
       <c r="D610" t="s">
         <v>1882</v>
@@ -25781,9 +25774,7 @@
       <c r="E610" t="s">
         <v>1883</v>
       </c>
-      <c r="F610" t="s">
-        <v>513</v>
-      </c>
+      <c r="F610" s="2"/>
       <c r="G610" s="2"/>
       <c r="H610" s="2"/>
       <c r="I610" t="s">
@@ -25805,7 +25796,7 @@
       </c>
       <c r="B611" s="2"/>
       <c r="C611" t="s">
-        <v>519</v>
+        <v>1860</v>
       </c>
       <c r="D611" t="s">
         <v>1885</v>
@@ -25835,13 +25826,13 @@
       </c>
       <c r="B612" s="2"/>
       <c r="C612" t="s">
-        <v>1863</v>
+        <v>1888</v>
       </c>
       <c r="D612" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="E612" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="F612" s="2"/>
       <c r="G612" s="2"/>
@@ -25861,11 +25852,11 @@
     </row>
     <row r="613">
       <c r="A613" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="B613" s="2"/>
       <c r="C613" t="s">
-        <v>1891</v>
+        <v>544</v>
       </c>
       <c r="D613" t="s">
         <v>1892</v>
@@ -25895,7 +25886,7 @@
       </c>
       <c r="B614" s="2"/>
       <c r="C614" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D614" t="s">
         <v>1895</v>
@@ -25925,7 +25916,7 @@
       </c>
       <c r="B615" s="2"/>
       <c r="C615" t="s">
-        <v>547</v>
+        <v>1430</v>
       </c>
       <c r="D615" t="s">
         <v>1898</v>
@@ -25955,7 +25946,7 @@
       </c>
       <c r="B616" s="2"/>
       <c r="C616" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="D616" t="s">
         <v>1901</v>
@@ -25985,7 +25976,7 @@
       </c>
       <c r="B617" s="2"/>
       <c r="C617" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="D617" t="s">
         <v>1904</v>
@@ -26013,17 +26004,21 @@
       <c r="A618" t="s">
         <v>1906</v>
       </c>
-      <c r="B618" s="2"/>
+      <c r="B618" t="s">
+        <v>506</v>
+      </c>
       <c r="C618" t="s">
-        <v>1433</v>
+        <v>1907</v>
       </c>
       <c r="D618" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="E618" t="s">
-        <v>1908</v>
-      </c>
-      <c r="F618" s="2"/>
+        <v>1909</v>
+      </c>
+      <c r="F618" t="s">
+        <v>510</v>
+      </c>
       <c r="G618" s="2"/>
       <c r="H618" s="2"/>
       <c r="I618" t="s">
@@ -26041,13 +26036,11 @@
     </row>
     <row r="619">
       <c r="A619" t="s">
-        <v>1909</v>
-      </c>
-      <c r="B619" t="s">
-        <v>509</v>
-      </c>
+        <v>1910</v>
+      </c>
+      <c r="B619" s="2"/>
       <c r="C619" t="s">
-        <v>1910</v>
+        <v>1430</v>
       </c>
       <c r="D619" t="s">
         <v>1911</v>
@@ -26055,9 +26048,7 @@
       <c r="E619" t="s">
         <v>1912</v>
       </c>
-      <c r="F619" t="s">
-        <v>513</v>
-      </c>
+      <c r="F619" s="2"/>
       <c r="G619" s="2"/>
       <c r="H619" s="2"/>
       <c r="I619" t="s">
@@ -26079,7 +26070,7 @@
       </c>
       <c r="B620" s="2"/>
       <c r="C620" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="D620" t="s">
         <v>1914</v>
@@ -26109,7 +26100,7 @@
       </c>
       <c r="B621" s="2"/>
       <c r="C621" t="s">
-        <v>1433</v>
+        <v>1853</v>
       </c>
       <c r="D621" t="s">
         <v>1917</v>
@@ -26139,13 +26130,13 @@
       </c>
       <c r="B622" s="2"/>
       <c r="C622" t="s">
-        <v>1856</v>
+        <v>1920</v>
       </c>
       <c r="D622" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="E622" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="F622" s="2"/>
       <c r="G622" s="2"/>
@@ -26165,11 +26156,11 @@
     </row>
     <row r="623">
       <c r="A623" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="B623" s="2"/>
       <c r="C623" t="s">
-        <v>1923</v>
+        <v>1920</v>
       </c>
       <c r="D623" t="s">
         <v>1924</v>
@@ -26197,17 +26188,21 @@
       <c r="A624" t="s">
         <v>1926</v>
       </c>
-      <c r="B624" s="2"/>
+      <c r="B624" t="s">
+        <v>506</v>
+      </c>
       <c r="C624" t="s">
-        <v>1923</v>
+        <v>1927</v>
       </c>
       <c r="D624" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="E624" t="s">
-        <v>1928</v>
-      </c>
-      <c r="F624" s="2"/>
+        <v>1929</v>
+      </c>
+      <c r="F624" t="s">
+        <v>510</v>
+      </c>
       <c r="G624" s="2"/>
       <c r="H624" s="2"/>
       <c r="I624" t="s">
@@ -26225,13 +26220,11 @@
     </row>
     <row r="625">
       <c r="A625" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B625" t="s">
-        <v>509</v>
-      </c>
+        <v>1930</v>
+      </c>
+      <c r="B625" s="2"/>
       <c r="C625" t="s">
-        <v>1930</v>
+        <v>1430</v>
       </c>
       <c r="D625" t="s">
         <v>1931</v>
@@ -26239,9 +26232,7 @@
       <c r="E625" t="s">
         <v>1932</v>
       </c>
-      <c r="F625" t="s">
-        <v>513</v>
-      </c>
+      <c r="F625" s="2"/>
       <c r="G625" s="2"/>
       <c r="H625" s="2"/>
       <c r="I625" t="s">
@@ -26261,9 +26252,11 @@
       <c r="A626" t="s">
         <v>1933</v>
       </c>
-      <c r="B626" s="2"/>
+      <c r="B626" t="s">
+        <v>506</v>
+      </c>
       <c r="C626" t="s">
-        <v>1433</v>
+        <v>1514</v>
       </c>
       <c r="D626" t="s">
         <v>1934</v>
@@ -26271,7 +26264,9 @@
       <c r="E626" t="s">
         <v>1935</v>
       </c>
-      <c r="F626" s="2"/>
+      <c r="F626" t="s">
+        <v>510</v>
+      </c>
       <c r="G626" s="2"/>
       <c r="H626" s="2"/>
       <c r="I626" t="s">
@@ -26291,11 +26286,9 @@
       <c r="A627" t="s">
         <v>1936</v>
       </c>
-      <c r="B627" t="s">
-        <v>509</v>
-      </c>
+      <c r="B627" s="2"/>
       <c r="C627" t="s">
-        <v>1517</v>
+        <v>1920</v>
       </c>
       <c r="D627" t="s">
         <v>1937</v>
@@ -26303,9 +26296,7 @@
       <c r="E627" t="s">
         <v>1938</v>
       </c>
-      <c r="F627" t="s">
-        <v>513</v>
-      </c>
+      <c r="F627" s="2"/>
       <c r="G627" s="2"/>
       <c r="H627" s="2"/>
       <c r="I627" t="s">
@@ -26327,13 +26318,13 @@
       </c>
       <c r="B628" s="2"/>
       <c r="C628" t="s">
-        <v>1923</v>
+        <v>1940</v>
       </c>
       <c r="D628" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="E628" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="F628" s="2"/>
       <c r="G628" s="2"/>
@@ -26353,11 +26344,11 @@
     </row>
     <row r="629">
       <c r="A629" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="B629" s="2"/>
       <c r="C629" t="s">
-        <v>1943</v>
+        <v>1920</v>
       </c>
       <c r="D629" t="s">
         <v>1944</v>
@@ -26387,7 +26378,7 @@
       </c>
       <c r="B630" s="2"/>
       <c r="C630" t="s">
-        <v>1923</v>
+        <v>516</v>
       </c>
       <c r="D630" t="s">
         <v>1947</v>
@@ -26415,17 +26406,21 @@
       <c r="A631" t="s">
         <v>1949</v>
       </c>
-      <c r="B631" s="2"/>
+      <c r="B631" t="s">
+        <v>506</v>
+      </c>
       <c r="C631" t="s">
-        <v>519</v>
+        <v>1950</v>
       </c>
       <c r="D631" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="E631" t="s">
-        <v>1951</v>
-      </c>
-      <c r="F631" s="2"/>
+        <v>1952</v>
+      </c>
+      <c r="F631" t="s">
+        <v>510</v>
+      </c>
       <c r="G631" s="2"/>
       <c r="H631" s="2"/>
       <c r="I631" t="s">
@@ -26443,22 +26438,22 @@
     </row>
     <row r="632">
       <c r="A632" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="B632" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C632" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="D632" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="E632" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="F632" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G632" s="2"/>
       <c r="H632" s="2"/>
@@ -26477,13 +26472,11 @@
     </row>
     <row r="633">
       <c r="A633" t="s">
-        <v>1956</v>
-      </c>
-      <c r="B633" t="s">
-        <v>509</v>
-      </c>
+        <v>1957</v>
+      </c>
+      <c r="B633" s="2"/>
       <c r="C633" t="s">
-        <v>1957</v>
+        <v>1849</v>
       </c>
       <c r="D633" t="s">
         <v>1958</v>
@@ -26491,9 +26484,7 @@
       <c r="E633" t="s">
         <v>1959</v>
       </c>
-      <c r="F633" t="s">
-        <v>513</v>
-      </c>
+      <c r="F633" s="2"/>
       <c r="G633" s="2"/>
       <c r="H633" s="2"/>
       <c r="I633" t="s">
@@ -26513,9 +26504,11 @@
       <c r="A634" t="s">
         <v>1960</v>
       </c>
-      <c r="B634" s="2"/>
+      <c r="B634" t="s">
+        <v>506</v>
+      </c>
       <c r="C634" t="s">
-        <v>1852</v>
+        <v>1566</v>
       </c>
       <c r="D634" t="s">
         <v>1961</v>
@@ -26523,7 +26516,9 @@
       <c r="E634" t="s">
         <v>1962</v>
       </c>
-      <c r="F634" s="2"/>
+      <c r="F634" t="s">
+        <v>510</v>
+      </c>
       <c r="G634" s="2"/>
       <c r="H634" s="2"/>
       <c r="I634" t="s">
@@ -26543,11 +26538,9 @@
       <c r="A635" t="s">
         <v>1963</v>
       </c>
-      <c r="B635" t="s">
-        <v>509</v>
-      </c>
+      <c r="B635" s="2"/>
       <c r="C635" t="s">
-        <v>1569</v>
+        <v>1430</v>
       </c>
       <c r="D635" t="s">
         <v>1964</v>
@@ -26555,9 +26548,7 @@
       <c r="E635" t="s">
         <v>1965</v>
       </c>
-      <c r="F635" t="s">
-        <v>513</v>
-      </c>
+      <c r="F635" s="2"/>
       <c r="G635" s="2"/>
       <c r="H635" s="2"/>
       <c r="I635" t="s">
@@ -26577,9 +26568,11 @@
       <c r="A636" t="s">
         <v>1966</v>
       </c>
-      <c r="B636" s="2"/>
+      <c r="B636" t="s">
+        <v>506</v>
+      </c>
       <c r="C636" t="s">
-        <v>1433</v>
+        <v>1950</v>
       </c>
       <c r="D636" t="s">
         <v>1967</v>
@@ -26587,7 +26580,9 @@
       <c r="E636" t="s">
         <v>1968</v>
       </c>
-      <c r="F636" s="2"/>
+      <c r="F636" t="s">
+        <v>510</v>
+      </c>
       <c r="G636" s="2"/>
       <c r="H636" s="2"/>
       <c r="I636" t="s">
@@ -26608,19 +26603,19 @@
         <v>1969</v>
       </c>
       <c r="B637" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C637" t="s">
-        <v>1953</v>
+        <v>1970</v>
       </c>
       <c r="D637" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="E637" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="F637" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G637" s="2"/>
       <c r="H637" s="2"/>
@@ -26639,13 +26634,13 @@
     </row>
     <row r="638">
       <c r="A638" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="B638" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C638" t="s">
-        <v>1973</v>
+        <v>1970</v>
       </c>
       <c r="D638" t="s">
         <v>1974</v>
@@ -26654,7 +26649,7 @@
         <v>1975</v>
       </c>
       <c r="F638" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G638" s="2"/>
       <c r="H638" s="2"/>
@@ -26676,10 +26671,10 @@
         <v>1976</v>
       </c>
       <c r="B639" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C639" t="s">
-        <v>1973</v>
+        <v>1406</v>
       </c>
       <c r="D639" t="s">
         <v>1977</v>
@@ -26688,7 +26683,7 @@
         <v>1978</v>
       </c>
       <c r="F639" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G639" s="2"/>
       <c r="H639" s="2"/>
@@ -26710,10 +26705,10 @@
         <v>1979</v>
       </c>
       <c r="B640" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C640" t="s">
-        <v>1409</v>
+        <v>1417</v>
       </c>
       <c r="D640" t="s">
         <v>1980</v>
@@ -26722,7 +26717,7 @@
         <v>1981</v>
       </c>
       <c r="F640" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G640" s="2"/>
       <c r="H640" s="2"/>
@@ -26744,19 +26739,19 @@
         <v>1982</v>
       </c>
       <c r="B641" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C641" t="s">
-        <v>1420</v>
+        <v>1983</v>
       </c>
       <c r="D641" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="E641" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="F641" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G641" s="2"/>
       <c r="H641" s="2"/>
@@ -26775,13 +26770,11 @@
     </row>
     <row r="642">
       <c r="A642" t="s">
-        <v>1985</v>
-      </c>
-      <c r="B642" t="s">
-        <v>509</v>
-      </c>
+        <v>1986</v>
+      </c>
+      <c r="B642" s="2"/>
       <c r="C642" t="s">
-        <v>1986</v>
+        <v>544</v>
       </c>
       <c r="D642" t="s">
         <v>1987</v>
@@ -26789,9 +26782,7 @@
       <c r="E642" t="s">
         <v>1988</v>
       </c>
-      <c r="F642" t="s">
-        <v>513</v>
-      </c>
+      <c r="F642" s="2"/>
       <c r="G642" s="2"/>
       <c r="H642" s="2"/>
       <c r="I642" t="s">
@@ -26811,17 +26802,21 @@
       <c r="A643" t="s">
         <v>1989</v>
       </c>
-      <c r="B643" s="2"/>
+      <c r="B643" t="s">
+        <v>506</v>
+      </c>
       <c r="C643" t="s">
-        <v>547</v>
+        <v>1990</v>
       </c>
       <c r="D643" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="E643" t="s">
-        <v>1991</v>
-      </c>
-      <c r="F643" s="2"/>
+        <v>1992</v>
+      </c>
+      <c r="F643" t="s">
+        <v>510</v>
+      </c>
       <c r="G643" s="2"/>
       <c r="H643" s="2"/>
       <c r="I643" t="s">
@@ -26839,13 +26834,11 @@
     </row>
     <row r="644">
       <c r="A644" t="s">
-        <v>1992</v>
-      </c>
-      <c r="B644" t="s">
-        <v>509</v>
-      </c>
+        <v>1993</v>
+      </c>
+      <c r="B644" s="2"/>
       <c r="C644" t="s">
-        <v>1993</v>
+        <v>1430</v>
       </c>
       <c r="D644" t="s">
         <v>1994</v>
@@ -26853,9 +26846,7 @@
       <c r="E644" t="s">
         <v>1995</v>
       </c>
-      <c r="F644" t="s">
-        <v>513</v>
-      </c>
+      <c r="F644" s="2"/>
       <c r="G644" s="2"/>
       <c r="H644" s="2"/>
       <c r="I644" t="s">
@@ -26877,7 +26868,7 @@
       </c>
       <c r="B645" s="2"/>
       <c r="C645" t="s">
-        <v>1433</v>
+        <v>516</v>
       </c>
       <c r="D645" t="s">
         <v>1997</v>
@@ -26905,9 +26896,11 @@
       <c r="A646" t="s">
         <v>1999</v>
       </c>
-      <c r="B646" s="2"/>
+      <c r="B646" t="s">
+        <v>506</v>
+      </c>
       <c r="C646" t="s">
-        <v>519</v>
+        <v>1990</v>
       </c>
       <c r="D646" t="s">
         <v>2000</v>
@@ -26915,7 +26908,9 @@
       <c r="E646" t="s">
         <v>2001</v>
       </c>
-      <c r="F646" s="2"/>
+      <c r="F646" t="s">
+        <v>510</v>
+      </c>
       <c r="G646" s="2"/>
       <c r="H646" s="2"/>
       <c r="I646" t="s">
@@ -26935,11 +26930,9 @@
       <c r="A647" t="s">
         <v>2002</v>
       </c>
-      <c r="B647" t="s">
-        <v>509</v>
-      </c>
+      <c r="B647" s="2"/>
       <c r="C647" t="s">
-        <v>1993</v>
+        <v>1860</v>
       </c>
       <c r="D647" t="s">
         <v>2003</v>
@@ -26947,9 +26940,7 @@
       <c r="E647" t="s">
         <v>2004</v>
       </c>
-      <c r="F647" t="s">
-        <v>513</v>
-      </c>
+      <c r="F647" s="2"/>
       <c r="G647" s="2"/>
       <c r="H647" s="2"/>
       <c r="I647" t="s">
@@ -26971,7 +26962,7 @@
       </c>
       <c r="B648" s="2"/>
       <c r="C648" t="s">
-        <v>1863</v>
+        <v>1430</v>
       </c>
       <c r="D648" t="s">
         <v>2006</v>
@@ -27001,7 +26992,7 @@
       </c>
       <c r="B649" s="2"/>
       <c r="C649" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="D649" t="s">
         <v>2009</v>
@@ -27029,9 +27020,11 @@
       <c r="A650" t="s">
         <v>2011</v>
       </c>
-      <c r="B650" s="2"/>
+      <c r="B650" t="s">
+        <v>506</v>
+      </c>
       <c r="C650" t="s">
-        <v>1433</v>
+        <v>727</v>
       </c>
       <c r="D650" t="s">
         <v>2012</v>
@@ -27039,7 +27032,9 @@
       <c r="E650" t="s">
         <v>2013</v>
       </c>
-      <c r="F650" s="2"/>
+      <c r="F650" t="s">
+        <v>510</v>
+      </c>
       <c r="G650" s="2"/>
       <c r="H650" s="2"/>
       <c r="I650" t="s">
@@ -27060,19 +27055,19 @@
         <v>2014</v>
       </c>
       <c r="B651" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C651" t="s">
-        <v>730</v>
+        <v>2015</v>
       </c>
       <c r="D651" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E651" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="F651" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G651" s="2"/>
       <c r="H651" s="2"/>
@@ -27091,13 +27086,13 @@
     </row>
     <row r="652">
       <c r="A652" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B652" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C652" t="s">
-        <v>2018</v>
+        <v>1406</v>
       </c>
       <c r="D652" t="s">
         <v>2019</v>
@@ -27106,7 +27101,7 @@
         <v>2020</v>
       </c>
       <c r="F652" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G652" s="2"/>
       <c r="H652" s="2"/>
@@ -27128,10 +27123,10 @@
         <v>2021</v>
       </c>
       <c r="B653" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C653" t="s">
-        <v>1409</v>
+        <v>727</v>
       </c>
       <c r="D653" t="s">
         <v>2022</v>
@@ -27140,7 +27135,7 @@
         <v>2023</v>
       </c>
       <c r="F653" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G653" s="2"/>
       <c r="H653" s="2"/>
@@ -27162,10 +27157,10 @@
         <v>2024</v>
       </c>
       <c r="B654" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C654" t="s">
-        <v>730</v>
+        <v>1417</v>
       </c>
       <c r="D654" t="s">
         <v>2025</v>
@@ -27174,7 +27169,7 @@
         <v>2026</v>
       </c>
       <c r="F654" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G654" s="2"/>
       <c r="H654" s="2"/>
@@ -27196,19 +27191,19 @@
         <v>2027</v>
       </c>
       <c r="B655" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C655" t="s">
-        <v>1420</v>
+        <v>2028</v>
       </c>
       <c r="D655" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="E655" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="F655" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G655" s="2"/>
       <c r="H655" s="2"/>
@@ -27227,13 +27222,13 @@
     </row>
     <row r="656">
       <c r="A656" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="B656" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C656" t="s">
-        <v>2031</v>
+        <v>1950</v>
       </c>
       <c r="D656" t="s">
         <v>2032</v>
@@ -27242,7 +27237,7 @@
         <v>2033</v>
       </c>
       <c r="F656" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G656" s="2"/>
       <c r="H656" s="2"/>
@@ -27264,10 +27259,10 @@
         <v>2034</v>
       </c>
       <c r="B657" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C657" t="s">
-        <v>1953</v>
+        <v>1990</v>
       </c>
       <c r="D657" t="s">
         <v>2035</v>
@@ -27276,7 +27271,7 @@
         <v>2036</v>
       </c>
       <c r="F657" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G657" s="2"/>
       <c r="H657" s="2"/>
@@ -27298,10 +27293,10 @@
         <v>2037</v>
       </c>
       <c r="B658" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C658" t="s">
-        <v>1993</v>
+        <v>1950</v>
       </c>
       <c r="D658" t="s">
         <v>2038</v>
@@ -27310,7 +27305,7 @@
         <v>2039</v>
       </c>
       <c r="F658" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G658" s="2"/>
       <c r="H658" s="2"/>
@@ -27332,19 +27327,19 @@
         <v>2040</v>
       </c>
       <c r="B659" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C659" t="s">
-        <v>1953</v>
+        <v>2041</v>
       </c>
       <c r="D659" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="E659" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="F659" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G659" s="2"/>
       <c r="H659" s="2"/>
@@ -27363,13 +27358,13 @@
     </row>
     <row r="660">
       <c r="A660" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="B660" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C660" t="s">
-        <v>2044</v>
+        <v>1954</v>
       </c>
       <c r="D660" t="s">
         <v>2045</v>
@@ -27378,7 +27373,7 @@
         <v>2046</v>
       </c>
       <c r="F660" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G660" s="2"/>
       <c r="H660" s="2"/>
@@ -27400,10 +27395,10 @@
         <v>2047</v>
       </c>
       <c r="B661" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C661" t="s">
-        <v>1957</v>
+        <v>1406</v>
       </c>
       <c r="D661" t="s">
         <v>2048</v>
@@ -27412,7 +27407,7 @@
         <v>2049</v>
       </c>
       <c r="F661" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G661" s="2"/>
       <c r="H661" s="2"/>
@@ -27434,10 +27429,10 @@
         <v>2050</v>
       </c>
       <c r="B662" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C662" t="s">
-        <v>1409</v>
+        <v>1983</v>
       </c>
       <c r="D662" t="s">
         <v>2051</v>
@@ -27446,7 +27441,7 @@
         <v>2052</v>
       </c>
       <c r="F662" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G662" s="2"/>
       <c r="H662" s="2"/>
@@ -27468,19 +27463,19 @@
         <v>2053</v>
       </c>
       <c r="B663" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C663" t="s">
-        <v>1986</v>
+        <v>2054</v>
       </c>
       <c r="D663" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="E663" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="F663" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G663" s="2"/>
       <c r="H663" s="2"/>
@@ -27499,13 +27494,13 @@
     </row>
     <row r="664">
       <c r="A664" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="B664" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C664" t="s">
-        <v>2057</v>
+        <v>1927</v>
       </c>
       <c r="D664" t="s">
         <v>2058</v>
@@ -27514,7 +27509,7 @@
         <v>2059</v>
       </c>
       <c r="F664" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G664" s="2"/>
       <c r="H664" s="2"/>
@@ -27536,10 +27531,10 @@
         <v>2060</v>
       </c>
       <c r="B665" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C665" t="s">
-        <v>1930</v>
+        <v>1927</v>
       </c>
       <c r="D665" t="s">
         <v>2061</v>
@@ -27548,7 +27543,7 @@
         <v>2062</v>
       </c>
       <c r="F665" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G665" s="2"/>
       <c r="H665" s="2"/>
@@ -27570,10 +27565,10 @@
         <v>2063</v>
       </c>
       <c r="B666" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C666" t="s">
-        <v>1930</v>
+        <v>1954</v>
       </c>
       <c r="D666" t="s">
         <v>2064</v>
@@ -27582,7 +27577,7 @@
         <v>2065</v>
       </c>
       <c r="F666" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G666" s="2"/>
       <c r="H666" s="2"/>
@@ -27603,11 +27598,9 @@
       <c r="A667" t="s">
         <v>2066</v>
       </c>
-      <c r="B667" t="s">
-        <v>509</v>
-      </c>
+      <c r="B667" s="2"/>
       <c r="C667" t="s">
-        <v>1957</v>
+        <v>1430</v>
       </c>
       <c r="D667" t="s">
         <v>2067</v>
@@ -27615,9 +27608,7 @@
       <c r="E667" t="s">
         <v>2068</v>
       </c>
-      <c r="F667" t="s">
-        <v>513</v>
-      </c>
+      <c r="F667" s="2"/>
       <c r="G667" s="2"/>
       <c r="H667" s="2"/>
       <c r="I667" t="s">
@@ -27637,17 +27628,21 @@
       <c r="A668" t="s">
         <v>2069</v>
       </c>
-      <c r="B668" s="2"/>
+      <c r="B668" t="s">
+        <v>506</v>
+      </c>
       <c r="C668" t="s">
-        <v>1433</v>
+        <v>2070</v>
       </c>
       <c r="D668" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="E668" t="s">
-        <v>2071</v>
-      </c>
-      <c r="F668" s="2"/>
+        <v>2072</v>
+      </c>
+      <c r="F668" t="s">
+        <v>510</v>
+      </c>
       <c r="G668" s="2"/>
       <c r="H668" s="2"/>
       <c r="I668" t="s">
@@ -27665,22 +27660,22 @@
     </row>
     <row r="669">
       <c r="A669" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="B669" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C669" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="D669" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="E669" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="F669" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G669" s="2"/>
       <c r="H669" s="2"/>
@@ -27699,13 +27694,11 @@
     </row>
     <row r="670">
       <c r="A670" t="s">
-        <v>2076</v>
-      </c>
-      <c r="B670" t="s">
-        <v>509</v>
-      </c>
+        <v>2077</v>
+      </c>
+      <c r="B670" s="2"/>
       <c r="C670" t="s">
-        <v>2077</v>
+        <v>1888</v>
       </c>
       <c r="D670" t="s">
         <v>2078</v>
@@ -27713,9 +27706,7 @@
       <c r="E670" t="s">
         <v>2079</v>
       </c>
-      <c r="F670" t="s">
-        <v>513</v>
-      </c>
+      <c r="F670" s="2"/>
       <c r="G670" s="2"/>
       <c r="H670" s="2"/>
       <c r="I670" t="s">
@@ -27735,9 +27726,11 @@
       <c r="A671" t="s">
         <v>2080</v>
       </c>
-      <c r="B671" s="2"/>
+      <c r="B671" t="s">
+        <v>506</v>
+      </c>
       <c r="C671" t="s">
-        <v>1891</v>
+        <v>1480</v>
       </c>
       <c r="D671" t="s">
         <v>2081</v>
@@ -27745,7 +27738,9 @@
       <c r="E671" t="s">
         <v>2082</v>
       </c>
-      <c r="F671" s="2"/>
+      <c r="F671" t="s">
+        <v>510</v>
+      </c>
       <c r="G671" s="2"/>
       <c r="H671" s="2"/>
       <c r="I671" t="s">
@@ -27766,10 +27761,10 @@
         <v>2083</v>
       </c>
       <c r="B672" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C672" t="s">
-        <v>1483</v>
+        <v>2074</v>
       </c>
       <c r="D672" t="s">
         <v>2084</v>
@@ -27778,7 +27773,7 @@
         <v>2085</v>
       </c>
       <c r="F672" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G672" s="2"/>
       <c r="H672" s="2"/>
@@ -27800,10 +27795,10 @@
         <v>2086</v>
       </c>
       <c r="B673" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C673" t="s">
-        <v>2077</v>
+        <v>1927</v>
       </c>
       <c r="D673" t="s">
         <v>2087</v>
@@ -27812,7 +27807,7 @@
         <v>2088</v>
       </c>
       <c r="F673" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G673" s="2"/>
       <c r="H673" s="2"/>
@@ -27834,10 +27829,10 @@
         <v>2089</v>
       </c>
       <c r="B674" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C674" t="s">
-        <v>1930</v>
+        <v>1406</v>
       </c>
       <c r="D674" t="s">
         <v>2090</v>
@@ -27846,7 +27841,7 @@
         <v>2091</v>
       </c>
       <c r="F674" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G674" s="2"/>
       <c r="H674" s="2"/>
@@ -27868,10 +27863,10 @@
         <v>2092</v>
       </c>
       <c r="B675" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C675" t="s">
-        <v>1409</v>
+        <v>1990</v>
       </c>
       <c r="D675" t="s">
         <v>2093</v>
@@ -27880,7 +27875,7 @@
         <v>2094</v>
       </c>
       <c r="F675" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G675" s="2"/>
       <c r="H675" s="2"/>
@@ -27902,10 +27897,10 @@
         <v>2095</v>
       </c>
       <c r="B676" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C676" t="s">
-        <v>1993</v>
+        <v>1907</v>
       </c>
       <c r="D676" t="s">
         <v>2096</v>
@@ -27914,7 +27909,7 @@
         <v>2097</v>
       </c>
       <c r="F676" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G676" s="2"/>
       <c r="H676" s="2"/>
@@ -27936,10 +27931,10 @@
         <v>2098</v>
       </c>
       <c r="B677" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C677" t="s">
-        <v>1910</v>
+        <v>1990</v>
       </c>
       <c r="D677" t="s">
         <v>2099</v>
@@ -27948,7 +27943,7 @@
         <v>2100</v>
       </c>
       <c r="F677" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G677" s="2"/>
       <c r="H677" s="2"/>
@@ -27970,10 +27965,10 @@
         <v>2101</v>
       </c>
       <c r="B678" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C678" t="s">
-        <v>1993</v>
+        <v>1970</v>
       </c>
       <c r="D678" t="s">
         <v>2102</v>
@@ -27982,7 +27977,7 @@
         <v>2103</v>
       </c>
       <c r="F678" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G678" s="2"/>
       <c r="H678" s="2"/>
@@ -28004,10 +27999,10 @@
         <v>2104</v>
       </c>
       <c r="B679" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C679" t="s">
-        <v>1973</v>
+        <v>2054</v>
       </c>
       <c r="D679" t="s">
         <v>2105</v>
@@ -28016,7 +28011,7 @@
         <v>2106</v>
       </c>
       <c r="F679" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G679" s="2"/>
       <c r="H679" s="2"/>
@@ -28038,10 +28033,10 @@
         <v>2107</v>
       </c>
       <c r="B680" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C680" t="s">
-        <v>2057</v>
+        <v>2015</v>
       </c>
       <c r="D680" t="s">
         <v>2108</v>
@@ -28050,7 +28045,7 @@
         <v>2109</v>
       </c>
       <c r="F680" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G680" s="2"/>
       <c r="H680" s="2"/>
@@ -28072,10 +28067,10 @@
         <v>2110</v>
       </c>
       <c r="B681" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C681" t="s">
-        <v>2018</v>
+        <v>1970</v>
       </c>
       <c r="D681" t="s">
         <v>2111</v>
@@ -28084,7 +28079,7 @@
         <v>2112</v>
       </c>
       <c r="F681" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G681" s="2"/>
       <c r="H681" s="2"/>
@@ -28106,10 +28101,10 @@
         <v>2113</v>
       </c>
       <c r="B682" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C682" t="s">
-        <v>1973</v>
+        <v>1990</v>
       </c>
       <c r="D682" t="s">
         <v>2114</v>
@@ -28118,7 +28113,7 @@
         <v>2115</v>
       </c>
       <c r="F682" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G682" s="2"/>
       <c r="H682" s="2"/>
@@ -28140,10 +28135,10 @@
         <v>2116</v>
       </c>
       <c r="B683" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C683" t="s">
-        <v>1993</v>
+        <v>512</v>
       </c>
       <c r="D683" t="s">
         <v>2117</v>
@@ -28152,7 +28147,7 @@
         <v>2118</v>
       </c>
       <c r="F683" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G683" s="2"/>
       <c r="H683" s="2"/>
@@ -28174,10 +28169,10 @@
         <v>2119</v>
       </c>
       <c r="B684" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C684" t="s">
-        <v>515</v>
+        <v>2041</v>
       </c>
       <c r="D684" t="s">
         <v>2120</v>
@@ -28186,7 +28181,7 @@
         <v>2121</v>
       </c>
       <c r="F684" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G684" s="2"/>
       <c r="H684" s="2"/>
@@ -28208,10 +28203,10 @@
         <v>2122</v>
       </c>
       <c r="B685" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C685" t="s">
-        <v>2044</v>
+        <v>2041</v>
       </c>
       <c r="D685" t="s">
         <v>2123</v>
@@ -28220,7 +28215,7 @@
         <v>2124</v>
       </c>
       <c r="F685" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G685" s="2"/>
       <c r="H685" s="2"/>
@@ -28242,10 +28237,10 @@
         <v>2125</v>
       </c>
       <c r="B686" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C686" t="s">
-        <v>2044</v>
+        <v>1566</v>
       </c>
       <c r="D686" t="s">
         <v>2126</v>
@@ -28254,7 +28249,7 @@
         <v>2127</v>
       </c>
       <c r="F686" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G686" s="2"/>
       <c r="H686" s="2"/>
@@ -28276,10 +28271,10 @@
         <v>2128</v>
       </c>
       <c r="B687" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C687" t="s">
-        <v>1569</v>
+        <v>579</v>
       </c>
       <c r="D687" t="s">
         <v>2129</v>
@@ -28288,7 +28283,7 @@
         <v>2130</v>
       </c>
       <c r="F687" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G687" s="2"/>
       <c r="H687" s="2"/>
@@ -28310,10 +28305,10 @@
         <v>2131</v>
       </c>
       <c r="B688" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C688" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="D688" t="s">
         <v>2132</v>
@@ -28322,7 +28317,7 @@
         <v>2133</v>
       </c>
       <c r="F688" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G688" s="2"/>
       <c r="H688" s="2"/>
@@ -28344,10 +28339,10 @@
         <v>2134</v>
       </c>
       <c r="B689" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C689" t="s">
-        <v>578</v>
+        <v>1566</v>
       </c>
       <c r="D689" t="s">
         <v>2135</v>
@@ -28356,7 +28351,7 @@
         <v>2136</v>
       </c>
       <c r="F689" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G689" s="2"/>
       <c r="H689" s="2"/>
@@ -28378,10 +28373,10 @@
         <v>2137</v>
       </c>
       <c r="B690" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C690" t="s">
-        <v>1569</v>
+        <v>1417</v>
       </c>
       <c r="D690" t="s">
         <v>2138</v>
@@ -28390,7 +28385,7 @@
         <v>2139</v>
       </c>
       <c r="F690" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G690" s="2"/>
       <c r="H690" s="2"/>
@@ -28412,10 +28407,10 @@
         <v>2140</v>
       </c>
       <c r="B691" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C691" t="s">
-        <v>1420</v>
+        <v>2070</v>
       </c>
       <c r="D691" t="s">
         <v>2141</v>
@@ -28424,7 +28419,7 @@
         <v>2142</v>
       </c>
       <c r="F691" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G691" s="2"/>
       <c r="H691" s="2"/>
@@ -28446,10 +28441,10 @@
         <v>2143</v>
       </c>
       <c r="B692" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="C692" t="s">
-        <v>2073</v>
+        <v>1480</v>
       </c>
       <c r="D692" t="s">
         <v>2144</v>
@@ -28458,7 +28453,7 @@
         <v>2145</v>
       </c>
       <c r="F692" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="G692" s="2"/>
       <c r="H692" s="2"/>
@@ -28480,19 +28475,19 @@
         <v>2146</v>
       </c>
       <c r="B693" t="s">
-        <v>509</v>
+        <v>2147</v>
       </c>
       <c r="C693" t="s">
-        <v>1483</v>
+        <v>575</v>
       </c>
       <c r="D693" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="E693" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="F693" t="s">
-        <v>513</v>
+        <v>2150</v>
       </c>
       <c r="G693" s="2"/>
       <c r="H693" s="2"/>
@@ -28511,23 +28506,19 @@
     </row>
     <row r="694">
       <c r="A694" t="s">
-        <v>2149</v>
-      </c>
-      <c r="B694" t="s">
-        <v>2150</v>
-      </c>
+        <v>2151</v>
+      </c>
+      <c r="B694" s="2"/>
       <c r="C694" t="s">
-        <v>578</v>
+        <v>2152</v>
       </c>
       <c r="D694" t="s">
-        <v>2151</v>
+        <v>2153</v>
       </c>
       <c r="E694" t="s">
-        <v>2152</v>
-      </c>
-      <c r="F694" t="s">
-        <v>2153</v>
-      </c>
+        <v>2154</v>
+      </c>
+      <c r="F694" s="2"/>
       <c r="G694" s="2"/>
       <c r="H694" s="2"/>
       <c r="I694" t="s">
@@ -28545,11 +28536,11 @@
     </row>
     <row r="695">
       <c r="A695" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="B695" s="2"/>
       <c r="C695" t="s">
-        <v>2155</v>
+        <v>1888</v>
       </c>
       <c r="D695" t="s">
         <v>2156</v>
@@ -28579,7 +28570,7 @@
       </c>
       <c r="B696" s="2"/>
       <c r="C696" t="s">
-        <v>1891</v>
+        <v>2152</v>
       </c>
       <c r="D696" t="s">
         <v>2159</v>
@@ -28609,7 +28600,7 @@
       </c>
       <c r="B697" s="2"/>
       <c r="C697" t="s">
-        <v>2155</v>
+        <v>1888</v>
       </c>
       <c r="D697" t="s">
         <v>2162</v>
@@ -28639,7 +28630,7 @@
       </c>
       <c r="B698" s="2"/>
       <c r="C698" t="s">
-        <v>1891</v>
+        <v>1888</v>
       </c>
       <c r="D698" t="s">
         <v>2165</v>
@@ -28669,7 +28660,7 @@
       </c>
       <c r="B699" s="2"/>
       <c r="C699" t="s">
-        <v>1891</v>
+        <v>2152</v>
       </c>
       <c r="D699" t="s">
         <v>2168</v>
@@ -28699,7 +28690,7 @@
       </c>
       <c r="B700" s="2"/>
       <c r="C700" t="s">
-        <v>2155</v>
+        <v>1888</v>
       </c>
       <c r="D700" t="s">
         <v>2171</v>
@@ -28729,7 +28720,7 @@
       </c>
       <c r="B701" s="2"/>
       <c r="C701" t="s">
-        <v>1891</v>
+        <v>1888</v>
       </c>
       <c r="D701" t="s">
         <v>2174</v>
@@ -28759,7 +28750,7 @@
       </c>
       <c r="B702" s="2"/>
       <c r="C702" t="s">
-        <v>1891</v>
+        <v>1888</v>
       </c>
       <c r="D702" t="s">
         <v>2177</v>
@@ -28789,7 +28780,7 @@
       </c>
       <c r="B703" s="2"/>
       <c r="C703" t="s">
-        <v>1891</v>
+        <v>2152</v>
       </c>
       <c r="D703" t="s">
         <v>2180</v>
@@ -28819,13 +28810,13 @@
       </c>
       <c r="B704" s="2"/>
       <c r="C704" t="s">
-        <v>2155</v>
+        <v>2183</v>
       </c>
       <c r="D704" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="E704" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="F704" s="2"/>
       <c r="G704" s="2"/>
@@ -28845,11 +28836,11 @@
     </row>
     <row r="705">
       <c r="A705" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="B705" s="2"/>
       <c r="C705" t="s">
-        <v>2186</v>
+        <v>1888</v>
       </c>
       <c r="D705" t="s">
         <v>2187</v>
@@ -28879,7 +28870,7 @@
       </c>
       <c r="B706" s="2"/>
       <c r="C706" t="s">
-        <v>1891</v>
+        <v>1888</v>
       </c>
       <c r="D706" t="s">
         <v>2190</v>
@@ -28909,7 +28900,7 @@
       </c>
       <c r="B707" s="2"/>
       <c r="C707" t="s">
-        <v>1891</v>
+        <v>1888</v>
       </c>
       <c r="D707" t="s">
         <v>2193</v>
@@ -28939,7 +28930,7 @@
       </c>
       <c r="B708" s="2"/>
       <c r="C708" t="s">
-        <v>1891</v>
+        <v>1888</v>
       </c>
       <c r="D708" t="s">
         <v>2196</v>
@@ -28969,7 +28960,7 @@
       </c>
       <c r="B709" s="2"/>
       <c r="C709" t="s">
-        <v>1891</v>
+        <v>2152</v>
       </c>
       <c r="D709" t="s">
         <v>2199</v>
@@ -28999,7 +28990,7 @@
       </c>
       <c r="B710" s="2"/>
       <c r="C710" t="s">
-        <v>2155</v>
+        <v>2152</v>
       </c>
       <c r="D710" t="s">
         <v>2202</v>
@@ -29029,7 +29020,7 @@
       </c>
       <c r="B711" s="2"/>
       <c r="C711" t="s">
-        <v>2155</v>
+        <v>2152</v>
       </c>
       <c r="D711" t="s">
         <v>2205</v>
@@ -29059,7 +29050,7 @@
       </c>
       <c r="B712" s="2"/>
       <c r="C712" t="s">
-        <v>2155</v>
+        <v>1888</v>
       </c>
       <c r="D712" t="s">
         <v>2208</v>
@@ -29089,7 +29080,7 @@
       </c>
       <c r="B713" s="2"/>
       <c r="C713" t="s">
-        <v>1891</v>
+        <v>1888</v>
       </c>
       <c r="D713" t="s">
         <v>2211</v>
@@ -29119,7 +29110,7 @@
       </c>
       <c r="B714" s="2"/>
       <c r="C714" t="s">
-        <v>1891</v>
+        <v>1888</v>
       </c>
       <c r="D714" t="s">
         <v>2214</v>
@@ -29149,7 +29140,7 @@
       </c>
       <c r="B715" s="2"/>
       <c r="C715" t="s">
-        <v>1891</v>
+        <v>2152</v>
       </c>
       <c r="D715" t="s">
         <v>2217</v>
@@ -29179,7 +29170,7 @@
       </c>
       <c r="B716" s="2"/>
       <c r="C716" t="s">
-        <v>2155</v>
+        <v>1888</v>
       </c>
       <c r="D716" t="s">
         <v>2220</v>
@@ -29209,7 +29200,7 @@
       </c>
       <c r="B717" s="2"/>
       <c r="C717" t="s">
-        <v>1891</v>
+        <v>1888</v>
       </c>
       <c r="D717" t="s">
         <v>2223</v>
@@ -29239,7 +29230,7 @@
       </c>
       <c r="B718" s="2"/>
       <c r="C718" t="s">
-        <v>1891</v>
+        <v>2152</v>
       </c>
       <c r="D718" t="s">
         <v>2226</v>
@@ -29269,7 +29260,7 @@
       </c>
       <c r="B719" s="2"/>
       <c r="C719" t="s">
-        <v>2155</v>
+        <v>2152</v>
       </c>
       <c r="D719" t="s">
         <v>2229</v>
@@ -29299,7 +29290,7 @@
       </c>
       <c r="B720" s="2"/>
       <c r="C720" t="s">
-        <v>2155</v>
+        <v>1888</v>
       </c>
       <c r="D720" t="s">
         <v>2232</v>
@@ -29329,7 +29320,7 @@
       </c>
       <c r="B721" s="2"/>
       <c r="C721" t="s">
-        <v>1891</v>
+        <v>1888</v>
       </c>
       <c r="D721" t="s">
         <v>2235</v>
@@ -29359,7 +29350,7 @@
       </c>
       <c r="B722" s="2"/>
       <c r="C722" t="s">
-        <v>1891</v>
+        <v>2152</v>
       </c>
       <c r="D722" t="s">
         <v>2238</v>
@@ -29389,7 +29380,7 @@
       </c>
       <c r="B723" s="2"/>
       <c r="C723" t="s">
-        <v>2155</v>
+        <v>2183</v>
       </c>
       <c r="D723" t="s">
         <v>2241</v>
@@ -29419,7 +29410,7 @@
       </c>
       <c r="B724" s="2"/>
       <c r="C724" t="s">
-        <v>2186</v>
+        <v>2152</v>
       </c>
       <c r="D724" t="s">
         <v>2244</v>
@@ -29449,7 +29440,7 @@
       </c>
       <c r="B725" s="2"/>
       <c r="C725" t="s">
-        <v>2155</v>
+        <v>1888</v>
       </c>
       <c r="D725" t="s">
         <v>2247</v>
@@ -29479,7 +29470,7 @@
       </c>
       <c r="B726" s="2"/>
       <c r="C726" t="s">
-        <v>1891</v>
+        <v>1888</v>
       </c>
       <c r="D726" t="s">
         <v>2250</v>
@@ -29509,7 +29500,7 @@
       </c>
       <c r="B727" s="2"/>
       <c r="C727" t="s">
-        <v>1891</v>
+        <v>1888</v>
       </c>
       <c r="D727" t="s">
         <v>2253</v>
@@ -29538,15 +29529,9 @@
         <v>2255</v>
       </c>
       <c r="B728" s="2"/>
-      <c r="C728" t="s">
-        <v>1891</v>
-      </c>
-      <c r="D728" t="s">
-        <v>2256</v>
-      </c>
-      <c r="E728" t="s">
-        <v>2257</v>
-      </c>
+      <c r="C728" s="2"/>
+      <c r="D728" s="2"/>
+      <c r="E728" s="2"/>
       <c r="F728" s="2"/>
       <c r="G728" s="2"/>
       <c r="H728" s="2"/>
@@ -29565,7 +29550,7 @@
     </row>
     <row r="729">
       <c r="A729" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
@@ -29589,7 +29574,7 @@
     </row>
     <row r="730">
       <c r="A730" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
@@ -29613,7 +29598,7 @@
     </row>
     <row r="731">
       <c r="A731" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
@@ -29637,7 +29622,7 @@
     </row>
     <row r="732">
       <c r="A732" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
@@ -29661,7 +29646,7 @@
     </row>
     <row r="733">
       <c r="A733" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
@@ -29685,7 +29670,7 @@
     </row>
     <row r="734">
       <c r="A734" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
@@ -29709,7 +29694,7 @@
     </row>
     <row r="735">
       <c r="A735" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
@@ -29733,7 +29718,7 @@
     </row>
     <row r="736">
       <c r="A736" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
@@ -29757,7 +29742,7 @@
     </row>
     <row r="737">
       <c r="A737" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
@@ -29781,7 +29766,7 @@
     </row>
     <row r="738">
       <c r="A738" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
@@ -29800,30 +29785,6 @@
       <c r="L738" s="3"/>
       <c r="M738" s="3"/>
       <c r="N738" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="739">
-      <c r="A739" t="s">
-        <v>2268</v>
-      </c>
-      <c r="B739" s="2"/>
-      <c r="C739" s="2"/>
-      <c r="D739" s="2"/>
-      <c r="E739" s="2"/>
-      <c r="F739" s="2"/>
-      <c r="G739" s="2"/>
-      <c r="H739" s="2"/>
-      <c r="I739" t="s">
-        <v>18</v>
-      </c>
-      <c r="J739" t="s">
-        <v>19</v>
-      </c>
-      <c r="K739" s="3"/>
-      <c r="L739" s="3"/>
-      <c r="M739" s="3"/>
-      <c r="N739" t="s">
         <v>20</v>
       </c>
     </row>
@@ -29843,10 +29804,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>2269</v>
+        <v>2266</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2270</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="2">
@@ -29854,7 +29815,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2271</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="3">
@@ -29862,7 +29823,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2272</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="4">
@@ -29870,7 +29831,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2273</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="5">
@@ -29878,7 +29839,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>2274</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="6">
@@ -29886,7 +29847,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>2275</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="7">
@@ -29894,7 +29855,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>2276</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="8">
@@ -29902,7 +29863,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>2277</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="9">
@@ -29910,7 +29871,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>2278</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="10">
@@ -29918,7 +29879,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>2279</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="11">
@@ -29926,7 +29887,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>2280</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="12">
@@ -29934,7 +29895,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>2281</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="13">
@@ -29942,7 +29903,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>2282</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="14">
@@ -29950,7 +29911,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>2283</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="15">
@@ -29958,7 +29919,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>2284</v>
+        <v>2281</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/mails_01/P08_5/table_to_fill.xlsx
+++ b/analysis/mails_01/P08_5/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2282" uniqueCount="2282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2283" uniqueCount="2283">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -6802,6 +6802,9 @@
   </si>
   <si>
     <t xml:space="preserve">MFD10691</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFD10692</t>
   </si>
   <si>
     <t xml:space="preserve">MFD10695</t>
@@ -29788,6 +29791,30 @@
         <v>20</v>
       </c>
     </row>
+    <row r="739">
+      <c r="A739" t="s">
+        <v>2266</v>
+      </c>
+      <c r="B739" s="2"/>
+      <c r="C739" s="2"/>
+      <c r="D739" s="2"/>
+      <c r="E739" s="2"/>
+      <c r="F739" s="2"/>
+      <c r="G739" s="2"/>
+      <c r="H739" s="2"/>
+      <c r="I739" t="s">
+        <v>18</v>
+      </c>
+      <c r="J739" t="s">
+        <v>19</v>
+      </c>
+      <c r="K739" s="3"/>
+      <c r="L739" s="3"/>
+      <c r="M739" s="3"/>
+      <c r="N739" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -29804,10 +29831,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>2266</v>
+        <v>2267</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2267</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="2">
@@ -29815,7 +29842,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>2268</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="3">
@@ -29823,7 +29850,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>2269</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="4">
@@ -29831,7 +29858,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2270</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="5">
@@ -29839,7 +29866,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>2271</v>
+        <v>2272</v>
       </c>
     </row>
     <row r="6">
@@ -29847,7 +29874,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>2272</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="7">
@@ -29855,7 +29882,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>2273</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="8">
@@ -29863,7 +29890,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>2274</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="9">
@@ -29871,7 +29898,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="10">
@@ -29879,7 +29906,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>2276</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="11">
@@ -29887,7 +29914,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="12">
@@ -29895,7 +29922,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
     </row>
     <row r="13">
@@ -29903,7 +29930,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>2279</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="14">
@@ -29911,7 +29938,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>2280</v>
+        <v>2281</v>
       </c>
     </row>
     <row r="15">
@@ -29919,7 +29946,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>2281</v>
+        <v>2282</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/mails_01/P08_5/table_to_fill.xlsx
+++ b/analysis/mails_01/P08_5/table_to_fill.xlsx
@@ -30639,8 +30639,12 @@
       <c r="H571" t="s">
         <v>77</v>
       </c>
-      <c r="I571" s="2"/>
-      <c r="J571" s="2"/>
+      <c r="I571" t="s">
+        <v>20</v>
+      </c>
+      <c r="J571" t="s">
+        <v>21</v>
+      </c>
       <c r="K571" s="3"/>
       <c r="L571" s="3"/>
       <c r="M571" s="3"/>
@@ -30669,11 +30673,21 @@
       <c r="H572" t="s">
         <v>1597</v>
       </c>
-      <c r="I572" s="2"/>
-      <c r="J572" s="2"/>
-      <c r="K572" s="3"/>
-      <c r="L572" s="3"/>
-      <c r="M572" s="3"/>
+      <c r="I572" t="s">
+        <v>20</v>
+      </c>
+      <c r="J572" t="s">
+        <v>21</v>
+      </c>
+      <c r="K572" t="s">
+        <v>41</v>
+      </c>
+      <c r="L572" t="s">
+        <v>42</v>
+      </c>
+      <c r="M572" t="s">
+        <v>1598</v>
+      </c>
       <c r="N572" t="s">
         <v>25</v>
       </c>
@@ -30699,11 +30713,21 @@
       <c r="H573" t="s">
         <v>1784</v>
       </c>
-      <c r="I573" s="2"/>
-      <c r="J573" s="2"/>
-      <c r="K573" s="3"/>
-      <c r="L573" s="3"/>
-      <c r="M573" s="3"/>
+      <c r="I573" t="s">
+        <v>20</v>
+      </c>
+      <c r="J573" t="s">
+        <v>21</v>
+      </c>
+      <c r="K573" t="s">
+        <v>41</v>
+      </c>
+      <c r="L573" t="s">
+        <v>42</v>
+      </c>
+      <c r="M573" t="s">
+        <v>96</v>
+      </c>
       <c r="N573" t="s">
         <v>25</v>
       </c>
@@ -30729,11 +30753,21 @@
       <c r="H574" t="s">
         <v>623</v>
       </c>
-      <c r="I574" s="2"/>
-      <c r="J574" s="2"/>
-      <c r="K574" s="3"/>
-      <c r="L574" s="3"/>
-      <c r="M574" s="3"/>
+      <c r="I574" t="s">
+        <v>20</v>
+      </c>
+      <c r="J574" t="s">
+        <v>21</v>
+      </c>
+      <c r="K574" t="s">
+        <v>163</v>
+      </c>
+      <c r="L574" t="s">
+        <v>203</v>
+      </c>
+      <c r="M574" t="s">
+        <v>624</v>
+      </c>
       <c r="N574" t="s">
         <v>25</v>
       </c>
@@ -30759,11 +30793,21 @@
       <c r="H575" t="s">
         <v>386</v>
       </c>
-      <c r="I575" s="2"/>
-      <c r="J575" s="2"/>
-      <c r="K575" s="3"/>
-      <c r="L575" s="3"/>
-      <c r="M575" s="3"/>
+      <c r="I575" t="s">
+        <v>20</v>
+      </c>
+      <c r="J575" t="s">
+        <v>21</v>
+      </c>
+      <c r="K575" t="s">
+        <v>41</v>
+      </c>
+      <c r="L575" t="s">
+        <v>42</v>
+      </c>
+      <c r="M575" t="s">
+        <v>387</v>
+      </c>
       <c r="N575" t="s">
         <v>25</v>
       </c>
@@ -30789,9 +30833,15 @@
       <c r="H576" t="s">
         <v>698</v>
       </c>
-      <c r="I576" s="2"/>
-      <c r="J576" s="2"/>
-      <c r="K576" s="3"/>
+      <c r="I576" t="s">
+        <v>20</v>
+      </c>
+      <c r="J576" t="s">
+        <v>21</v>
+      </c>
+      <c r="K576" t="s">
+        <v>284</v>
+      </c>
       <c r="L576" s="3"/>
       <c r="M576" s="3"/>
       <c r="N576" t="s">
@@ -30819,10 +30869,18 @@
       <c r="H577" t="s">
         <v>40</v>
       </c>
-      <c r="I577" s="2"/>
-      <c r="J577" s="2"/>
-      <c r="K577" s="3"/>
-      <c r="L577" s="3"/>
+      <c r="I577" t="s">
+        <v>20</v>
+      </c>
+      <c r="J577" t="s">
+        <v>21</v>
+      </c>
+      <c r="K577" t="s">
+        <v>41</v>
+      </c>
+      <c r="L577" t="s">
+        <v>42</v>
+      </c>
       <c r="M577" s="3"/>
       <c r="N577" t="s">
         <v>25</v>
@@ -30847,8 +30905,12 @@
       <c r="H578" t="s">
         <v>77</v>
       </c>
-      <c r="I578" s="2"/>
-      <c r="J578" s="2"/>
+      <c r="I578" t="s">
+        <v>20</v>
+      </c>
+      <c r="J578" t="s">
+        <v>21</v>
+      </c>
       <c r="K578" s="3"/>
       <c r="L578" s="3"/>
       <c r="M578" s="3"/>
@@ -30877,11 +30939,21 @@
       <c r="H579" t="s">
         <v>623</v>
       </c>
-      <c r="I579" s="2"/>
-      <c r="J579" s="2"/>
-      <c r="K579" s="3"/>
-      <c r="L579" s="3"/>
-      <c r="M579" s="3"/>
+      <c r="I579" t="s">
+        <v>20</v>
+      </c>
+      <c r="J579" t="s">
+        <v>21</v>
+      </c>
+      <c r="K579" t="s">
+        <v>163</v>
+      </c>
+      <c r="L579" t="s">
+        <v>203</v>
+      </c>
+      <c r="M579" t="s">
+        <v>624</v>
+      </c>
       <c r="N579" t="s">
         <v>25</v>
       </c>
@@ -30907,11 +30979,21 @@
       <c r="H580" t="s">
         <v>202</v>
       </c>
-      <c r="I580" s="2"/>
-      <c r="J580" s="2"/>
-      <c r="K580" s="3"/>
-      <c r="L580" s="3"/>
-      <c r="M580" s="3"/>
+      <c r="I580" t="s">
+        <v>20</v>
+      </c>
+      <c r="J580" t="s">
+        <v>21</v>
+      </c>
+      <c r="K580" t="s">
+        <v>163</v>
+      </c>
+      <c r="L580" t="s">
+        <v>203</v>
+      </c>
+      <c r="M580" t="s">
+        <v>204</v>
+      </c>
       <c r="N580" t="s">
         <v>25</v>
       </c>
@@ -31013,11 +31095,21 @@
       <c r="H583" t="s">
         <v>623</v>
       </c>
-      <c r="I583" s="2"/>
-      <c r="J583" s="2"/>
-      <c r="K583" s="3"/>
-      <c r="L583" s="3"/>
-      <c r="M583" s="3"/>
+      <c r="I583" t="s">
+        <v>20</v>
+      </c>
+      <c r="J583" t="s">
+        <v>21</v>
+      </c>
+      <c r="K583" t="s">
+        <v>163</v>
+      </c>
+      <c r="L583" t="s">
+        <v>203</v>
+      </c>
+      <c r="M583" t="s">
+        <v>624</v>
+      </c>
       <c r="N583" t="s">
         <v>25</v>
       </c>
@@ -31043,11 +31135,21 @@
       <c r="H584" t="s">
         <v>623</v>
       </c>
-      <c r="I584" s="2"/>
-      <c r="J584" s="2"/>
-      <c r="K584" s="3"/>
-      <c r="L584" s="3"/>
-      <c r="M584" s="3"/>
+      <c r="I584" t="s">
+        <v>20</v>
+      </c>
+      <c r="J584" t="s">
+        <v>21</v>
+      </c>
+      <c r="K584" t="s">
+        <v>163</v>
+      </c>
+      <c r="L584" t="s">
+        <v>203</v>
+      </c>
+      <c r="M584" t="s">
+        <v>624</v>
+      </c>
       <c r="N584" t="s">
         <v>25</v>
       </c>
@@ -31071,8 +31173,12 @@
       <c r="H585" t="s">
         <v>77</v>
       </c>
-      <c r="I585" s="2"/>
-      <c r="J585" s="2"/>
+      <c r="I585" t="s">
+        <v>20</v>
+      </c>
+      <c r="J585" t="s">
+        <v>21</v>
+      </c>
       <c r="K585" s="3"/>
       <c r="L585" s="3"/>
       <c r="M585" s="3"/>
@@ -31101,10 +31207,18 @@
       <c r="H586" t="s">
         <v>40</v>
       </c>
-      <c r="I586" s="2"/>
-      <c r="J586" s="2"/>
-      <c r="K586" s="3"/>
-      <c r="L586" s="3"/>
+      <c r="I586" t="s">
+        <v>20</v>
+      </c>
+      <c r="J586" t="s">
+        <v>21</v>
+      </c>
+      <c r="K586" t="s">
+        <v>41</v>
+      </c>
+      <c r="L586" t="s">
+        <v>42</v>
+      </c>
       <c r="M586" s="3"/>
       <c r="N586" t="s">
         <v>25</v>
@@ -31131,9 +31245,15 @@
       <c r="H587" t="s">
         <v>698</v>
       </c>
-      <c r="I587" s="2"/>
-      <c r="J587" s="2"/>
-      <c r="K587" s="3"/>
+      <c r="I587" t="s">
+        <v>20</v>
+      </c>
+      <c r="J587" t="s">
+        <v>21</v>
+      </c>
+      <c r="K587" t="s">
+        <v>284</v>
+      </c>
       <c r="L587" s="3"/>
       <c r="M587" s="3"/>
       <c r="N587" t="s">
@@ -31161,11 +31281,21 @@
       <c r="H588" t="s">
         <v>320</v>
       </c>
-      <c r="I588" s="2"/>
-      <c r="J588" s="2"/>
-      <c r="K588" s="3"/>
-      <c r="L588" s="3"/>
-      <c r="M588" s="3"/>
+      <c r="I588" t="s">
+        <v>20</v>
+      </c>
+      <c r="J588" t="s">
+        <v>21</v>
+      </c>
+      <c r="K588" t="s">
+        <v>284</v>
+      </c>
+      <c r="L588" t="s">
+        <v>285</v>
+      </c>
+      <c r="M588" t="s">
+        <v>321</v>
+      </c>
       <c r="N588" t="s">
         <v>25</v>
       </c>
@@ -31191,11 +31321,21 @@
       <c r="H589" t="s">
         <v>559</v>
       </c>
-      <c r="I589" s="2"/>
-      <c r="J589" s="2"/>
-      <c r="K589" s="3"/>
-      <c r="L589" s="3"/>
-      <c r="M589" s="3"/>
+      <c r="I589" t="s">
+        <v>20</v>
+      </c>
+      <c r="J589" t="s">
+        <v>21</v>
+      </c>
+      <c r="K589" t="s">
+        <v>284</v>
+      </c>
+      <c r="L589" t="s">
+        <v>560</v>
+      </c>
+      <c r="M589" t="s">
+        <v>561</v>
+      </c>
       <c r="N589" t="s">
         <v>25</v>
       </c>
@@ -31221,11 +31361,21 @@
       <c r="H590" t="s">
         <v>152</v>
       </c>
-      <c r="I590" s="2"/>
-      <c r="J590" s="2"/>
-      <c r="K590" s="3"/>
-      <c r="L590" s="3"/>
-      <c r="M590" s="3"/>
+      <c r="I590" t="s">
+        <v>20</v>
+      </c>
+      <c r="J590" t="s">
+        <v>21</v>
+      </c>
+      <c r="K590" t="s">
+        <v>41</v>
+      </c>
+      <c r="L590" t="s">
+        <v>42</v>
+      </c>
+      <c r="M590" t="s">
+        <v>153</v>
+      </c>
       <c r="N590" t="s">
         <v>25</v>
       </c>
@@ -32609,10 +32759,18 @@
       <c r="H626" t="s">
         <v>40</v>
       </c>
-      <c r="I626" s="2"/>
-      <c r="J626" s="2"/>
-      <c r="K626" s="3"/>
-      <c r="L626" s="3"/>
+      <c r="I626" t="s">
+        <v>20</v>
+      </c>
+      <c r="J626" t="s">
+        <v>21</v>
+      </c>
+      <c r="K626" t="s">
+        <v>41</v>
+      </c>
+      <c r="L626" t="s">
+        <v>42</v>
+      </c>
       <c r="M626" s="3"/>
       <c r="N626" t="s">
         <v>25</v>
@@ -32639,10 +32797,18 @@
       <c r="H627" t="s">
         <v>40</v>
       </c>
-      <c r="I627" s="2"/>
-      <c r="J627" s="2"/>
-      <c r="K627" s="3"/>
-      <c r="L627" s="3"/>
+      <c r="I627" t="s">
+        <v>20</v>
+      </c>
+      <c r="J627" t="s">
+        <v>21</v>
+      </c>
+      <c r="K627" t="s">
+        <v>41</v>
+      </c>
+      <c r="L627" t="s">
+        <v>42</v>
+      </c>
       <c r="M627" s="3"/>
       <c r="N627" t="s">
         <v>25</v>
@@ -32667,8 +32833,12 @@
       <c r="H628" t="s">
         <v>77</v>
       </c>
-      <c r="I628" s="2"/>
-      <c r="J628" s="2"/>
+      <c r="I628" t="s">
+        <v>20</v>
+      </c>
+      <c r="J628" t="s">
+        <v>21</v>
+      </c>
       <c r="K628" s="3"/>
       <c r="L628" s="3"/>
       <c r="M628" s="3"/>
@@ -32697,11 +32867,21 @@
       <c r="H629" t="s">
         <v>202</v>
       </c>
-      <c r="I629" s="2"/>
-      <c r="J629" s="2"/>
-      <c r="K629" s="3"/>
-      <c r="L629" s="3"/>
-      <c r="M629" s="3"/>
+      <c r="I629" t="s">
+        <v>20</v>
+      </c>
+      <c r="J629" t="s">
+        <v>21</v>
+      </c>
+      <c r="K629" t="s">
+        <v>163</v>
+      </c>
+      <c r="L629" t="s">
+        <v>203</v>
+      </c>
+      <c r="M629" t="s">
+        <v>204</v>
+      </c>
       <c r="N629" t="s">
         <v>25</v>
       </c>
@@ -32727,10 +32907,18 @@
       <c r="H630" t="s">
         <v>40</v>
       </c>
-      <c r="I630" s="2"/>
-      <c r="J630" s="2"/>
-      <c r="K630" s="3"/>
-      <c r="L630" s="3"/>
+      <c r="I630" t="s">
+        <v>20</v>
+      </c>
+      <c r="J630" t="s">
+        <v>21</v>
+      </c>
+      <c r="K630" t="s">
+        <v>41</v>
+      </c>
+      <c r="L630" t="s">
+        <v>42</v>
+      </c>
       <c r="M630" s="3"/>
       <c r="N630" t="s">
         <v>25</v>
@@ -32757,10 +32945,18 @@
       <c r="H631" t="s">
         <v>40</v>
       </c>
-      <c r="I631" s="2"/>
-      <c r="J631" s="2"/>
-      <c r="K631" s="3"/>
-      <c r="L631" s="3"/>
+      <c r="I631" t="s">
+        <v>20</v>
+      </c>
+      <c r="J631" t="s">
+        <v>21</v>
+      </c>
+      <c r="K631" t="s">
+        <v>41</v>
+      </c>
+      <c r="L631" t="s">
+        <v>42</v>
+      </c>
       <c r="M631" s="3"/>
       <c r="N631" t="s">
         <v>25</v>
@@ -32785,8 +32981,12 @@
       <c r="H632" t="s">
         <v>77</v>
       </c>
-      <c r="I632" s="2"/>
-      <c r="J632" s="2"/>
+      <c r="I632" t="s">
+        <v>20</v>
+      </c>
+      <c r="J632" t="s">
+        <v>21</v>
+      </c>
       <c r="K632" s="3"/>
       <c r="L632" s="3"/>
       <c r="M632" s="3"/>
@@ -32815,11 +33015,21 @@
       <c r="H633" t="s">
         <v>202</v>
       </c>
-      <c r="I633" s="2"/>
-      <c r="J633" s="2"/>
-      <c r="K633" s="3"/>
-      <c r="L633" s="3"/>
-      <c r="M633" s="3"/>
+      <c r="I633" t="s">
+        <v>20</v>
+      </c>
+      <c r="J633" t="s">
+        <v>21</v>
+      </c>
+      <c r="K633" t="s">
+        <v>163</v>
+      </c>
+      <c r="L633" t="s">
+        <v>203</v>
+      </c>
+      <c r="M633" t="s">
+        <v>204</v>
+      </c>
       <c r="N633" t="s">
         <v>25</v>
       </c>
@@ -32845,10 +33055,18 @@
       <c r="H634" t="s">
         <v>40</v>
       </c>
-      <c r="I634" s="2"/>
-      <c r="J634" s="2"/>
-      <c r="K634" s="3"/>
-      <c r="L634" s="3"/>
+      <c r="I634" t="s">
+        <v>20</v>
+      </c>
+      <c r="J634" t="s">
+        <v>21</v>
+      </c>
+      <c r="K634" t="s">
+        <v>41</v>
+      </c>
+      <c r="L634" t="s">
+        <v>42</v>
+      </c>
       <c r="M634" s="3"/>
       <c r="N634" t="s">
         <v>25</v>
@@ -32875,10 +33093,18 @@
       <c r="H635" t="s">
         <v>40</v>
       </c>
-      <c r="I635" s="2"/>
-      <c r="J635" s="2"/>
-      <c r="K635" s="3"/>
-      <c r="L635" s="3"/>
+      <c r="I635" t="s">
+        <v>20</v>
+      </c>
+      <c r="J635" t="s">
+        <v>21</v>
+      </c>
+      <c r="K635" t="s">
+        <v>41</v>
+      </c>
+      <c r="L635" t="s">
+        <v>42</v>
+      </c>
       <c r="M635" s="3"/>
       <c r="N635" t="s">
         <v>25</v>
@@ -32905,10 +33131,18 @@
       <c r="H636" t="s">
         <v>40</v>
       </c>
-      <c r="I636" s="2"/>
-      <c r="J636" s="2"/>
-      <c r="K636" s="3"/>
-      <c r="L636" s="3"/>
+      <c r="I636" t="s">
+        <v>20</v>
+      </c>
+      <c r="J636" t="s">
+        <v>21</v>
+      </c>
+      <c r="K636" t="s">
+        <v>41</v>
+      </c>
+      <c r="L636" t="s">
+        <v>42</v>
+      </c>
       <c r="M636" s="3"/>
       <c r="N636" t="s">
         <v>25</v>
@@ -32935,10 +33169,18 @@
       <c r="H637" t="s">
         <v>40</v>
       </c>
-      <c r="I637" s="2"/>
-      <c r="J637" s="2"/>
-      <c r="K637" s="3"/>
-      <c r="L637" s="3"/>
+      <c r="I637" t="s">
+        <v>20</v>
+      </c>
+      <c r="J637" t="s">
+        <v>21</v>
+      </c>
+      <c r="K637" t="s">
+        <v>41</v>
+      </c>
+      <c r="L637" t="s">
+        <v>42</v>
+      </c>
       <c r="M637" s="3"/>
       <c r="N637" t="s">
         <v>25</v>
@@ -32965,11 +33207,21 @@
       <c r="H638" t="s">
         <v>202</v>
       </c>
-      <c r="I638" s="2"/>
-      <c r="J638" s="2"/>
-      <c r="K638" s="3"/>
-      <c r="L638" s="3"/>
-      <c r="M638" s="3"/>
+      <c r="I638" t="s">
+        <v>20</v>
+      </c>
+      <c r="J638" t="s">
+        <v>21</v>
+      </c>
+      <c r="K638" t="s">
+        <v>163</v>
+      </c>
+      <c r="L638" t="s">
+        <v>203</v>
+      </c>
+      <c r="M638" t="s">
+        <v>204</v>
+      </c>
       <c r="N638" t="s">
         <v>25</v>
       </c>
@@ -32995,10 +33247,18 @@
       <c r="H639" t="s">
         <v>40</v>
       </c>
-      <c r="I639" s="2"/>
-      <c r="J639" s="2"/>
-      <c r="K639" s="3"/>
-      <c r="L639" s="3"/>
+      <c r="I639" t="s">
+        <v>20</v>
+      </c>
+      <c r="J639" t="s">
+        <v>21</v>
+      </c>
+      <c r="K639" t="s">
+        <v>41</v>
+      </c>
+      <c r="L639" t="s">
+        <v>42</v>
+      </c>
       <c r="M639" s="3"/>
       <c r="N639" t="s">
         <v>25</v>
@@ -33025,10 +33285,18 @@
       <c r="H640" t="s">
         <v>40</v>
       </c>
-      <c r="I640" s="2"/>
-      <c r="J640" s="2"/>
-      <c r="K640" s="3"/>
-      <c r="L640" s="3"/>
+      <c r="I640" t="s">
+        <v>20</v>
+      </c>
+      <c r="J640" t="s">
+        <v>21</v>
+      </c>
+      <c r="K640" t="s">
+        <v>41</v>
+      </c>
+      <c r="L640" t="s">
+        <v>42</v>
+      </c>
       <c r="M640" s="3"/>
       <c r="N640" t="s">
         <v>25</v>
@@ -33055,10 +33323,18 @@
       <c r="H641" t="s">
         <v>258</v>
       </c>
-      <c r="I641" s="2"/>
-      <c r="J641" s="2"/>
-      <c r="K641" s="3"/>
-      <c r="L641" s="3"/>
+      <c r="I641" t="s">
+        <v>20</v>
+      </c>
+      <c r="J641" t="s">
+        <v>21</v>
+      </c>
+      <c r="K641" t="s">
+        <v>163</v>
+      </c>
+      <c r="L641" t="s">
+        <v>203</v>
+      </c>
       <c r="M641" s="3"/>
       <c r="N641" t="s">
         <v>25</v>
@@ -33085,10 +33361,18 @@
       <c r="H642" t="s">
         <v>40</v>
       </c>
-      <c r="I642" s="2"/>
-      <c r="J642" s="2"/>
-      <c r="K642" s="3"/>
-      <c r="L642" s="3"/>
+      <c r="I642" t="s">
+        <v>20</v>
+      </c>
+      <c r="J642" t="s">
+        <v>21</v>
+      </c>
+      <c r="K642" t="s">
+        <v>41</v>
+      </c>
+      <c r="L642" t="s">
+        <v>42</v>
+      </c>
       <c r="M642" s="3"/>
       <c r="N642" t="s">
         <v>25</v>
@@ -33115,11 +33399,21 @@
       <c r="H643" t="s">
         <v>202</v>
       </c>
-      <c r="I643" s="2"/>
-      <c r="J643" s="2"/>
-      <c r="K643" s="3"/>
-      <c r="L643" s="3"/>
-      <c r="M643" s="3"/>
+      <c r="I643" t="s">
+        <v>20</v>
+      </c>
+      <c r="J643" t="s">
+        <v>21</v>
+      </c>
+      <c r="K643" t="s">
+        <v>163</v>
+      </c>
+      <c r="L643" t="s">
+        <v>203</v>
+      </c>
+      <c r="M643" t="s">
+        <v>204</v>
+      </c>
       <c r="N643" t="s">
         <v>25</v>
       </c>
@@ -33145,10 +33439,18 @@
       <c r="H644" t="s">
         <v>40</v>
       </c>
-      <c r="I644" s="2"/>
-      <c r="J644" s="2"/>
-      <c r="K644" s="3"/>
-      <c r="L644" s="3"/>
+      <c r="I644" t="s">
+        <v>20</v>
+      </c>
+      <c r="J644" t="s">
+        <v>21</v>
+      </c>
+      <c r="K644" t="s">
+        <v>41</v>
+      </c>
+      <c r="L644" t="s">
+        <v>42</v>
+      </c>
       <c r="M644" s="3"/>
       <c r="N644" t="s">
         <v>25</v>
@@ -33213,10 +33515,18 @@
       <c r="H646" t="s">
         <v>40</v>
       </c>
-      <c r="I646" s="2"/>
-      <c r="J646" s="2"/>
-      <c r="K646" s="3"/>
-      <c r="L646" s="3"/>
+      <c r="I646" t="s">
+        <v>20</v>
+      </c>
+      <c r="J646" t="s">
+        <v>21</v>
+      </c>
+      <c r="K646" t="s">
+        <v>41</v>
+      </c>
+      <c r="L646" t="s">
+        <v>42</v>
+      </c>
       <c r="M646" s="3"/>
       <c r="N646" t="s">
         <v>25</v>
@@ -33243,10 +33553,18 @@
       <c r="H647" t="s">
         <v>40</v>
       </c>
-      <c r="I647" s="2"/>
-      <c r="J647" s="2"/>
-      <c r="K647" s="3"/>
-      <c r="L647" s="3"/>
+      <c r="I647" t="s">
+        <v>20</v>
+      </c>
+      <c r="J647" t="s">
+        <v>21</v>
+      </c>
+      <c r="K647" t="s">
+        <v>41</v>
+      </c>
+      <c r="L647" t="s">
+        <v>42</v>
+      </c>
       <c r="M647" s="3"/>
       <c r="N647" t="s">
         <v>25</v>
@@ -33273,10 +33591,18 @@
       <c r="H648" t="s">
         <v>40</v>
       </c>
-      <c r="I648" s="2"/>
-      <c r="J648" s="2"/>
-      <c r="K648" s="3"/>
-      <c r="L648" s="3"/>
+      <c r="I648" t="s">
+        <v>20</v>
+      </c>
+      <c r="J648" t="s">
+        <v>21</v>
+      </c>
+      <c r="K648" t="s">
+        <v>41</v>
+      </c>
+      <c r="L648" t="s">
+        <v>42</v>
+      </c>
       <c r="M648" s="3"/>
       <c r="N648" t="s">
         <v>25</v>
@@ -33303,10 +33629,18 @@
       <c r="H649" t="s">
         <v>40</v>
       </c>
-      <c r="I649" s="2"/>
-      <c r="J649" s="2"/>
-      <c r="K649" s="3"/>
-      <c r="L649" s="3"/>
+      <c r="I649" t="s">
+        <v>20</v>
+      </c>
+      <c r="J649" t="s">
+        <v>21</v>
+      </c>
+      <c r="K649" t="s">
+        <v>41</v>
+      </c>
+      <c r="L649" t="s">
+        <v>42</v>
+      </c>
       <c r="M649" s="3"/>
       <c r="N649" t="s">
         <v>25</v>
@@ -33333,10 +33667,18 @@
       <c r="H650" t="s">
         <v>40</v>
       </c>
-      <c r="I650" s="2"/>
-      <c r="J650" s="2"/>
-      <c r="K650" s="3"/>
-      <c r="L650" s="3"/>
+      <c r="I650" t="s">
+        <v>20</v>
+      </c>
+      <c r="J650" t="s">
+        <v>21</v>
+      </c>
+      <c r="K650" t="s">
+        <v>41</v>
+      </c>
+      <c r="L650" t="s">
+        <v>42</v>
+      </c>
       <c r="M650" s="3"/>
       <c r="N650" t="s">
         <v>25</v>
@@ -33363,10 +33705,18 @@
       <c r="H651" t="s">
         <v>40</v>
       </c>
-      <c r="I651" s="2"/>
-      <c r="J651" s="2"/>
-      <c r="K651" s="3"/>
-      <c r="L651" s="3"/>
+      <c r="I651" t="s">
+        <v>20</v>
+      </c>
+      <c r="J651" t="s">
+        <v>21</v>
+      </c>
+      <c r="K651" t="s">
+        <v>41</v>
+      </c>
+      <c r="L651" t="s">
+        <v>42</v>
+      </c>
       <c r="M651" s="3"/>
       <c r="N651" t="s">
         <v>25</v>
@@ -33393,10 +33743,18 @@
       <c r="H652" t="s">
         <v>40</v>
       </c>
-      <c r="I652" s="2"/>
-      <c r="J652" s="2"/>
-      <c r="K652" s="3"/>
-      <c r="L652" s="3"/>
+      <c r="I652" t="s">
+        <v>20</v>
+      </c>
+      <c r="J652" t="s">
+        <v>21</v>
+      </c>
+      <c r="K652" t="s">
+        <v>41</v>
+      </c>
+      <c r="L652" t="s">
+        <v>42</v>
+      </c>
       <c r="M652" s="3"/>
       <c r="N652" t="s">
         <v>25</v>
@@ -33423,10 +33781,18 @@
       <c r="H653" t="s">
         <v>40</v>
       </c>
-      <c r="I653" s="2"/>
-      <c r="J653" s="2"/>
-      <c r="K653" s="3"/>
-      <c r="L653" s="3"/>
+      <c r="I653" t="s">
+        <v>20</v>
+      </c>
+      <c r="J653" t="s">
+        <v>21</v>
+      </c>
+      <c r="K653" t="s">
+        <v>41</v>
+      </c>
+      <c r="L653" t="s">
+        <v>42</v>
+      </c>
       <c r="M653" s="3"/>
       <c r="N653" t="s">
         <v>25</v>
@@ -33453,10 +33819,18 @@
       <c r="H654" t="s">
         <v>40</v>
       </c>
-      <c r="I654" s="2"/>
-      <c r="J654" s="2"/>
-      <c r="K654" s="3"/>
-      <c r="L654" s="3"/>
+      <c r="I654" t="s">
+        <v>20</v>
+      </c>
+      <c r="J654" t="s">
+        <v>21</v>
+      </c>
+      <c r="K654" t="s">
+        <v>41</v>
+      </c>
+      <c r="L654" t="s">
+        <v>42</v>
+      </c>
       <c r="M654" s="3"/>
       <c r="N654" t="s">
         <v>25</v>
@@ -33483,10 +33857,18 @@
       <c r="H655" t="s">
         <v>258</v>
       </c>
-      <c r="I655" s="2"/>
-      <c r="J655" s="2"/>
-      <c r="K655" s="3"/>
-      <c r="L655" s="3"/>
+      <c r="I655" t="s">
+        <v>20</v>
+      </c>
+      <c r="J655" t="s">
+        <v>21</v>
+      </c>
+      <c r="K655" t="s">
+        <v>163</v>
+      </c>
+      <c r="L655" t="s">
+        <v>203</v>
+      </c>
       <c r="M655" s="3"/>
       <c r="N655" t="s">
         <v>25</v>
@@ -33513,11 +33895,21 @@
       <c r="H656" t="s">
         <v>386</v>
       </c>
-      <c r="I656" s="2"/>
-      <c r="J656" s="2"/>
-      <c r="K656" s="3"/>
-      <c r="L656" s="3"/>
-      <c r="M656" s="3"/>
+      <c r="I656" t="s">
+        <v>20</v>
+      </c>
+      <c r="J656" t="s">
+        <v>21</v>
+      </c>
+      <c r="K656" t="s">
+        <v>41</v>
+      </c>
+      <c r="L656" t="s">
+        <v>42</v>
+      </c>
+      <c r="M656" t="s">
+        <v>387</v>
+      </c>
       <c r="N656" t="s">
         <v>25</v>
       </c>
@@ -33543,10 +33935,18 @@
       <c r="H657" t="s">
         <v>40</v>
       </c>
-      <c r="I657" s="2"/>
-      <c r="J657" s="2"/>
-      <c r="K657" s="3"/>
-      <c r="L657" s="3"/>
+      <c r="I657" t="s">
+        <v>20</v>
+      </c>
+      <c r="J657" t="s">
+        <v>21</v>
+      </c>
+      <c r="K657" t="s">
+        <v>41</v>
+      </c>
+      <c r="L657" t="s">
+        <v>42</v>
+      </c>
       <c r="M657" s="3"/>
       <c r="N657" t="s">
         <v>25</v>
@@ -33573,10 +33973,18 @@
       <c r="H658" t="s">
         <v>40</v>
       </c>
-      <c r="I658" s="2"/>
-      <c r="J658" s="2"/>
-      <c r="K658" s="3"/>
-      <c r="L658" s="3"/>
+      <c r="I658" t="s">
+        <v>20</v>
+      </c>
+      <c r="J658" t="s">
+        <v>21</v>
+      </c>
+      <c r="K658" t="s">
+        <v>41</v>
+      </c>
+      <c r="L658" t="s">
+        <v>42</v>
+      </c>
       <c r="M658" s="3"/>
       <c r="N658" t="s">
         <v>25</v>
@@ -33603,10 +34011,18 @@
       <c r="H659" t="s">
         <v>40</v>
       </c>
-      <c r="I659" s="2"/>
-      <c r="J659" s="2"/>
-      <c r="K659" s="3"/>
-      <c r="L659" s="3"/>
+      <c r="I659" t="s">
+        <v>20</v>
+      </c>
+      <c r="J659" t="s">
+        <v>21</v>
+      </c>
+      <c r="K659" t="s">
+        <v>41</v>
+      </c>
+      <c r="L659" t="s">
+        <v>42</v>
+      </c>
       <c r="M659" s="3"/>
       <c r="N659" t="s">
         <v>25</v>
@@ -33633,10 +34049,18 @@
       <c r="H660" t="s">
         <v>40</v>
       </c>
-      <c r="I660" s="2"/>
-      <c r="J660" s="2"/>
-      <c r="K660" s="3"/>
-      <c r="L660" s="3"/>
+      <c r="I660" t="s">
+        <v>20</v>
+      </c>
+      <c r="J660" t="s">
+        <v>21</v>
+      </c>
+      <c r="K660" t="s">
+        <v>41</v>
+      </c>
+      <c r="L660" t="s">
+        <v>42</v>
+      </c>
       <c r="M660" s="3"/>
       <c r="N660" t="s">
         <v>25</v>
@@ -33663,10 +34087,18 @@
       <c r="H661" t="s">
         <v>40</v>
       </c>
-      <c r="I661" s="2"/>
-      <c r="J661" s="2"/>
-      <c r="K661" s="3"/>
-      <c r="L661" s="3"/>
+      <c r="I661" t="s">
+        <v>20</v>
+      </c>
+      <c r="J661" t="s">
+        <v>21</v>
+      </c>
+      <c r="K661" t="s">
+        <v>41</v>
+      </c>
+      <c r="L661" t="s">
+        <v>42</v>
+      </c>
       <c r="M661" s="3"/>
       <c r="N661" t="s">
         <v>25</v>
@@ -33693,10 +34125,18 @@
       <c r="H662" t="s">
         <v>40</v>
       </c>
-      <c r="I662" s="2"/>
-      <c r="J662" s="2"/>
-      <c r="K662" s="3"/>
-      <c r="L662" s="3"/>
+      <c r="I662" t="s">
+        <v>20</v>
+      </c>
+      <c r="J662" t="s">
+        <v>21</v>
+      </c>
+      <c r="K662" t="s">
+        <v>41</v>
+      </c>
+      <c r="L662" t="s">
+        <v>42</v>
+      </c>
       <c r="M662" s="3"/>
       <c r="N662" t="s">
         <v>25</v>
@@ -33723,10 +34163,18 @@
       <c r="H663" t="s">
         <v>40</v>
       </c>
-      <c r="I663" s="2"/>
-      <c r="J663" s="2"/>
-      <c r="K663" s="3"/>
-      <c r="L663" s="3"/>
+      <c r="I663" t="s">
+        <v>20</v>
+      </c>
+      <c r="J663" t="s">
+        <v>21</v>
+      </c>
+      <c r="K663" t="s">
+        <v>41</v>
+      </c>
+      <c r="L663" t="s">
+        <v>42</v>
+      </c>
       <c r="M663" s="3"/>
       <c r="N663" t="s">
         <v>25</v>
@@ -33753,10 +34201,18 @@
       <c r="H664" t="s">
         <v>40</v>
       </c>
-      <c r="I664" s="2"/>
-      <c r="J664" s="2"/>
-      <c r="K664" s="3"/>
-      <c r="L664" s="3"/>
+      <c r="I664" t="s">
+        <v>20</v>
+      </c>
+      <c r="J664" t="s">
+        <v>21</v>
+      </c>
+      <c r="K664" t="s">
+        <v>41</v>
+      </c>
+      <c r="L664" t="s">
+        <v>42</v>
+      </c>
       <c r="M664" s="3"/>
       <c r="N664" t="s">
         <v>25</v>
@@ -33783,10 +34239,18 @@
       <c r="H665" t="s">
         <v>40</v>
       </c>
-      <c r="I665" s="2"/>
-      <c r="J665" s="2"/>
-      <c r="K665" s="3"/>
-      <c r="L665" s="3"/>
+      <c r="I665" t="s">
+        <v>20</v>
+      </c>
+      <c r="J665" t="s">
+        <v>21</v>
+      </c>
+      <c r="K665" t="s">
+        <v>41</v>
+      </c>
+      <c r="L665" t="s">
+        <v>42</v>
+      </c>
       <c r="M665" s="3"/>
       <c r="N665" t="s">
         <v>25</v>
@@ -33813,10 +34277,18 @@
       <c r="H666" t="s">
         <v>40</v>
       </c>
-      <c r="I666" s="2"/>
-      <c r="J666" s="2"/>
-      <c r="K666" s="3"/>
-      <c r="L666" s="3"/>
+      <c r="I666" t="s">
+        <v>20</v>
+      </c>
+      <c r="J666" t="s">
+        <v>21</v>
+      </c>
+      <c r="K666" t="s">
+        <v>41</v>
+      </c>
+      <c r="L666" t="s">
+        <v>42</v>
+      </c>
       <c r="M666" s="3"/>
       <c r="N666" t="s">
         <v>25</v>
@@ -33843,10 +34315,18 @@
       <c r="H667" t="s">
         <v>258</v>
       </c>
-      <c r="I667" s="2"/>
-      <c r="J667" s="2"/>
-      <c r="K667" s="3"/>
-      <c r="L667" s="3"/>
+      <c r="I667" t="s">
+        <v>20</v>
+      </c>
+      <c r="J667" t="s">
+        <v>21</v>
+      </c>
+      <c r="K667" t="s">
+        <v>163</v>
+      </c>
+      <c r="L667" t="s">
+        <v>203</v>
+      </c>
       <c r="M667" s="3"/>
       <c r="N667" t="s">
         <v>25</v>
@@ -33873,10 +34353,18 @@
       <c r="H668" t="s">
         <v>40</v>
       </c>
-      <c r="I668" s="2"/>
-      <c r="J668" s="2"/>
-      <c r="K668" s="3"/>
-      <c r="L668" s="3"/>
+      <c r="I668" t="s">
+        <v>20</v>
+      </c>
+      <c r="J668" t="s">
+        <v>21</v>
+      </c>
+      <c r="K668" t="s">
+        <v>41</v>
+      </c>
+      <c r="L668" t="s">
+        <v>42</v>
+      </c>
       <c r="M668" s="3"/>
       <c r="N668" t="s">
         <v>25</v>
@@ -33903,10 +34391,18 @@
       <c r="H669" t="s">
         <v>40</v>
       </c>
-      <c r="I669" s="2"/>
-      <c r="J669" s="2"/>
-      <c r="K669" s="3"/>
-      <c r="L669" s="3"/>
+      <c r="I669" t="s">
+        <v>20</v>
+      </c>
+      <c r="J669" t="s">
+        <v>21</v>
+      </c>
+      <c r="K669" t="s">
+        <v>41</v>
+      </c>
+      <c r="L669" t="s">
+        <v>42</v>
+      </c>
       <c r="M669" s="3"/>
       <c r="N669" t="s">
         <v>25</v>
@@ -33931,8 +34427,12 @@
       <c r="H670" t="s">
         <v>77</v>
       </c>
-      <c r="I670" s="2"/>
-      <c r="J670" s="2"/>
+      <c r="I670" t="s">
+        <v>20</v>
+      </c>
+      <c r="J670" t="s">
+        <v>21</v>
+      </c>
       <c r="K670" s="3"/>
       <c r="L670" s="3"/>
       <c r="M670" s="3"/>
@@ -33961,10 +34461,18 @@
       <c r="H671" t="s">
         <v>258</v>
       </c>
-      <c r="I671" s="2"/>
-      <c r="J671" s="2"/>
-      <c r="K671" s="3"/>
-      <c r="L671" s="3"/>
+      <c r="I671" t="s">
+        <v>20</v>
+      </c>
+      <c r="J671" t="s">
+        <v>21</v>
+      </c>
+      <c r="K671" t="s">
+        <v>163</v>
+      </c>
+      <c r="L671" t="s">
+        <v>203</v>
+      </c>
       <c r="M671" s="3"/>
       <c r="N671" t="s">
         <v>25</v>
@@ -33991,10 +34499,18 @@
       <c r="H672" t="s">
         <v>40</v>
       </c>
-      <c r="I672" s="2"/>
-      <c r="J672" s="2"/>
-      <c r="K672" s="3"/>
-      <c r="L672" s="3"/>
+      <c r="I672" t="s">
+        <v>20</v>
+      </c>
+      <c r="J672" t="s">
+        <v>21</v>
+      </c>
+      <c r="K672" t="s">
+        <v>41</v>
+      </c>
+      <c r="L672" t="s">
+        <v>42</v>
+      </c>
       <c r="M672" s="3"/>
       <c r="N672" t="s">
         <v>25</v>
@@ -34021,10 +34537,18 @@
       <c r="H673" t="s">
         <v>258</v>
       </c>
-      <c r="I673" s="2"/>
-      <c r="J673" s="2"/>
-      <c r="K673" s="3"/>
-      <c r="L673" s="3"/>
+      <c r="I673" t="s">
+        <v>20</v>
+      </c>
+      <c r="J673" t="s">
+        <v>21</v>
+      </c>
+      <c r="K673" t="s">
+        <v>163</v>
+      </c>
+      <c r="L673" t="s">
+        <v>203</v>
+      </c>
       <c r="M673" s="3"/>
       <c r="N673" t="s">
         <v>25</v>
@@ -34051,10 +34575,18 @@
       <c r="H674" t="s">
         <v>40</v>
       </c>
-      <c r="I674" s="2"/>
-      <c r="J674" s="2"/>
-      <c r="K674" s="3"/>
-      <c r="L674" s="3"/>
+      <c r="I674" t="s">
+        <v>20</v>
+      </c>
+      <c r="J674" t="s">
+        <v>21</v>
+      </c>
+      <c r="K674" t="s">
+        <v>41</v>
+      </c>
+      <c r="L674" t="s">
+        <v>42</v>
+      </c>
       <c r="M674" s="3"/>
       <c r="N674" t="s">
         <v>25</v>
@@ -34081,10 +34613,18 @@
       <c r="H675" t="s">
         <v>40</v>
       </c>
-      <c r="I675" s="2"/>
-      <c r="J675" s="2"/>
-      <c r="K675" s="3"/>
-      <c r="L675" s="3"/>
+      <c r="I675" t="s">
+        <v>20</v>
+      </c>
+      <c r="J675" t="s">
+        <v>21</v>
+      </c>
+      <c r="K675" t="s">
+        <v>41</v>
+      </c>
+      <c r="L675" t="s">
+        <v>42</v>
+      </c>
       <c r="M675" s="3"/>
       <c r="N675" t="s">
         <v>25</v>
@@ -34111,10 +34651,18 @@
       <c r="H676" t="s">
         <v>40</v>
       </c>
-      <c r="I676" s="2"/>
-      <c r="J676" s="2"/>
-      <c r="K676" s="3"/>
-      <c r="L676" s="3"/>
+      <c r="I676" t="s">
+        <v>20</v>
+      </c>
+      <c r="J676" t="s">
+        <v>21</v>
+      </c>
+      <c r="K676" t="s">
+        <v>41</v>
+      </c>
+      <c r="L676" t="s">
+        <v>42</v>
+      </c>
       <c r="M676" s="3"/>
       <c r="N676" t="s">
         <v>25</v>
@@ -34141,10 +34689,18 @@
       <c r="H677" t="s">
         <v>40</v>
       </c>
-      <c r="I677" s="2"/>
-      <c r="J677" s="2"/>
-      <c r="K677" s="3"/>
-      <c r="L677" s="3"/>
+      <c r="I677" t="s">
+        <v>20</v>
+      </c>
+      <c r="J677" t="s">
+        <v>21</v>
+      </c>
+      <c r="K677" t="s">
+        <v>41</v>
+      </c>
+      <c r="L677" t="s">
+        <v>42</v>
+      </c>
       <c r="M677" s="3"/>
       <c r="N677" t="s">
         <v>25</v>
@@ -34171,10 +34727,18 @@
       <c r="H678" t="s">
         <v>40</v>
       </c>
-      <c r="I678" s="2"/>
-      <c r="J678" s="2"/>
-      <c r="K678" s="3"/>
-      <c r="L678" s="3"/>
+      <c r="I678" t="s">
+        <v>20</v>
+      </c>
+      <c r="J678" t="s">
+        <v>21</v>
+      </c>
+      <c r="K678" t="s">
+        <v>41</v>
+      </c>
+      <c r="L678" t="s">
+        <v>42</v>
+      </c>
       <c r="M678" s="3"/>
       <c r="N678" t="s">
         <v>25</v>
@@ -34201,10 +34765,18 @@
       <c r="H679" t="s">
         <v>40</v>
       </c>
-      <c r="I679" s="2"/>
-      <c r="J679" s="2"/>
-      <c r="K679" s="3"/>
-      <c r="L679" s="3"/>
+      <c r="I679" t="s">
+        <v>20</v>
+      </c>
+      <c r="J679" t="s">
+        <v>21</v>
+      </c>
+      <c r="K679" t="s">
+        <v>41</v>
+      </c>
+      <c r="L679" t="s">
+        <v>42</v>
+      </c>
       <c r="M679" s="3"/>
       <c r="N679" t="s">
         <v>25</v>
@@ -34231,10 +34803,18 @@
       <c r="H680" t="s">
         <v>40</v>
       </c>
-      <c r="I680" s="2"/>
-      <c r="J680" s="2"/>
-      <c r="K680" s="3"/>
-      <c r="L680" s="3"/>
+      <c r="I680" t="s">
+        <v>20</v>
+      </c>
+      <c r="J680" t="s">
+        <v>21</v>
+      </c>
+      <c r="K680" t="s">
+        <v>41</v>
+      </c>
+      <c r="L680" t="s">
+        <v>42</v>
+      </c>
       <c r="M680" s="3"/>
       <c r="N680" t="s">
         <v>25</v>
@@ -34261,10 +34841,18 @@
       <c r="H681" t="s">
         <v>40</v>
       </c>
-      <c r="I681" s="2"/>
-      <c r="J681" s="2"/>
-      <c r="K681" s="3"/>
-      <c r="L681" s="3"/>
+      <c r="I681" t="s">
+        <v>20</v>
+      </c>
+      <c r="J681" t="s">
+        <v>21</v>
+      </c>
+      <c r="K681" t="s">
+        <v>41</v>
+      </c>
+      <c r="L681" t="s">
+        <v>42</v>
+      </c>
       <c r="M681" s="3"/>
       <c r="N681" t="s">
         <v>25</v>
@@ -34289,8 +34877,12 @@
       <c r="H682" t="s">
         <v>77</v>
       </c>
-      <c r="I682" s="2"/>
-      <c r="J682" s="2"/>
+      <c r="I682" t="s">
+        <v>20</v>
+      </c>
+      <c r="J682" t="s">
+        <v>21</v>
+      </c>
       <c r="K682" s="3"/>
       <c r="L682" s="3"/>
       <c r="M682" s="3"/>
@@ -34319,11 +34911,21 @@
       <c r="H683" t="s">
         <v>202</v>
       </c>
-      <c r="I683" s="2"/>
-      <c r="J683" s="2"/>
-      <c r="K683" s="3"/>
-      <c r="L683" s="3"/>
-      <c r="M683" s="3"/>
+      <c r="I683" t="s">
+        <v>20</v>
+      </c>
+      <c r="J683" t="s">
+        <v>21</v>
+      </c>
+      <c r="K683" t="s">
+        <v>163</v>
+      </c>
+      <c r="L683" t="s">
+        <v>203</v>
+      </c>
+      <c r="M683" t="s">
+        <v>204</v>
+      </c>
       <c r="N683" t="s">
         <v>25</v>
       </c>
@@ -34349,10 +34951,18 @@
       <c r="H684" t="s">
         <v>40</v>
       </c>
-      <c r="I684" s="2"/>
-      <c r="J684" s="2"/>
-      <c r="K684" s="3"/>
-      <c r="L684" s="3"/>
+      <c r="I684" t="s">
+        <v>20</v>
+      </c>
+      <c r="J684" t="s">
+        <v>21</v>
+      </c>
+      <c r="K684" t="s">
+        <v>41</v>
+      </c>
+      <c r="L684" t="s">
+        <v>42</v>
+      </c>
       <c r="M684" s="3"/>
       <c r="N684" t="s">
         <v>25</v>
@@ -34379,11 +34989,21 @@
       <c r="H685" t="s">
         <v>202</v>
       </c>
-      <c r="I685" s="2"/>
-      <c r="J685" s="2"/>
-      <c r="K685" s="3"/>
-      <c r="L685" s="3"/>
-      <c r="M685" s="3"/>
+      <c r="I685" t="s">
+        <v>20</v>
+      </c>
+      <c r="J685" t="s">
+        <v>21</v>
+      </c>
+      <c r="K685" t="s">
+        <v>163</v>
+      </c>
+      <c r="L685" t="s">
+        <v>203</v>
+      </c>
+      <c r="M685" t="s">
+        <v>204</v>
+      </c>
       <c r="N685" t="s">
         <v>25</v>
       </c>
@@ -34409,11 +35029,21 @@
       <c r="H686" t="s">
         <v>202</v>
       </c>
-      <c r="I686" s="2"/>
-      <c r="J686" s="2"/>
-      <c r="K686" s="3"/>
-      <c r="L686" s="3"/>
-      <c r="M686" s="3"/>
+      <c r="I686" t="s">
+        <v>20</v>
+      </c>
+      <c r="J686" t="s">
+        <v>21</v>
+      </c>
+      <c r="K686" t="s">
+        <v>163</v>
+      </c>
+      <c r="L686" t="s">
+        <v>203</v>
+      </c>
+      <c r="M686" t="s">
+        <v>204</v>
+      </c>
       <c r="N686" t="s">
         <v>25</v>
       </c>
@@ -34439,10 +35069,18 @@
       <c r="H687" t="s">
         <v>40</v>
       </c>
-      <c r="I687" s="2"/>
-      <c r="J687" s="2"/>
-      <c r="K687" s="3"/>
-      <c r="L687" s="3"/>
+      <c r="I687" t="s">
+        <v>20</v>
+      </c>
+      <c r="J687" t="s">
+        <v>21</v>
+      </c>
+      <c r="K687" t="s">
+        <v>41</v>
+      </c>
+      <c r="L687" t="s">
+        <v>42</v>
+      </c>
       <c r="M687" s="3"/>
       <c r="N687" t="s">
         <v>25</v>
@@ -34469,10 +35107,18 @@
       <c r="H688" t="s">
         <v>258</v>
       </c>
-      <c r="I688" s="2"/>
-      <c r="J688" s="2"/>
-      <c r="K688" s="3"/>
-      <c r="L688" s="3"/>
+      <c r="I688" t="s">
+        <v>20</v>
+      </c>
+      <c r="J688" t="s">
+        <v>21</v>
+      </c>
+      <c r="K688" t="s">
+        <v>163</v>
+      </c>
+      <c r="L688" t="s">
+        <v>203</v>
+      </c>
       <c r="M688" s="3"/>
       <c r="N688" t="s">
         <v>25</v>
@@ -34499,10 +35145,18 @@
       <c r="H689" t="s">
         <v>40</v>
       </c>
-      <c r="I689" s="2"/>
-      <c r="J689" s="2"/>
-      <c r="K689" s="3"/>
-      <c r="L689" s="3"/>
+      <c r="I689" t="s">
+        <v>20</v>
+      </c>
+      <c r="J689" t="s">
+        <v>21</v>
+      </c>
+      <c r="K689" t="s">
+        <v>41</v>
+      </c>
+      <c r="L689" t="s">
+        <v>42</v>
+      </c>
       <c r="M689" s="3"/>
       <c r="N689" t="s">
         <v>25</v>
@@ -34529,11 +35183,21 @@
       <c r="H690" t="s">
         <v>202</v>
       </c>
-      <c r="I690" s="2"/>
-      <c r="J690" s="2"/>
-      <c r="K690" s="3"/>
-      <c r="L690" s="3"/>
-      <c r="M690" s="3"/>
+      <c r="I690" t="s">
+        <v>20</v>
+      </c>
+      <c r="J690" t="s">
+        <v>21</v>
+      </c>
+      <c r="K690" t="s">
+        <v>163</v>
+      </c>
+      <c r="L690" t="s">
+        <v>203</v>
+      </c>
+      <c r="M690" t="s">
+        <v>204</v>
+      </c>
       <c r="N690" t="s">
         <v>25</v>
       </c>
@@ -34783,10 +35447,18 @@
       <c r="H697" t="s">
         <v>40</v>
       </c>
-      <c r="I697" s="2"/>
-      <c r="J697" s="2"/>
-      <c r="K697" s="3"/>
-      <c r="L697" s="3"/>
+      <c r="I697" t="s">
+        <v>20</v>
+      </c>
+      <c r="J697" t="s">
+        <v>21</v>
+      </c>
+      <c r="K697" t="s">
+        <v>41</v>
+      </c>
+      <c r="L697" t="s">
+        <v>42</v>
+      </c>
       <c r="M697" s="3"/>
       <c r="N697" t="s">
         <v>25</v>
@@ -34813,10 +35485,18 @@
       <c r="H698" t="s">
         <v>40</v>
       </c>
-      <c r="I698" s="2"/>
-      <c r="J698" s="2"/>
-      <c r="K698" s="3"/>
-      <c r="L698" s="3"/>
+      <c r="I698" t="s">
+        <v>20</v>
+      </c>
+      <c r="J698" t="s">
+        <v>21</v>
+      </c>
+      <c r="K698" t="s">
+        <v>41</v>
+      </c>
+      <c r="L698" t="s">
+        <v>42</v>
+      </c>
       <c r="M698" s="3"/>
       <c r="N698" t="s">
         <v>25</v>
@@ -34843,10 +35523,18 @@
       <c r="H699" t="s">
         <v>40</v>
       </c>
-      <c r="I699" s="2"/>
-      <c r="J699" s="2"/>
-      <c r="K699" s="3"/>
-      <c r="L699" s="3"/>
+      <c r="I699" t="s">
+        <v>20</v>
+      </c>
+      <c r="J699" t="s">
+        <v>21</v>
+      </c>
+      <c r="K699" t="s">
+        <v>41</v>
+      </c>
+      <c r="L699" t="s">
+        <v>42</v>
+      </c>
       <c r="M699" s="3"/>
       <c r="N699" t="s">
         <v>25</v>
@@ -34873,11 +35561,21 @@
       <c r="H700" t="s">
         <v>202</v>
       </c>
-      <c r="I700" s="2"/>
-      <c r="J700" s="2"/>
-      <c r="K700" s="3"/>
-      <c r="L700" s="3"/>
-      <c r="M700" s="3"/>
+      <c r="I700" t="s">
+        <v>20</v>
+      </c>
+      <c r="J700" t="s">
+        <v>21</v>
+      </c>
+      <c r="K700" t="s">
+        <v>163</v>
+      </c>
+      <c r="L700" t="s">
+        <v>203</v>
+      </c>
+      <c r="M700" t="s">
+        <v>204</v>
+      </c>
       <c r="N700" t="s">
         <v>25</v>
       </c>
@@ -34903,10 +35601,18 @@
       <c r="H701" t="s">
         <v>40</v>
       </c>
-      <c r="I701" s="2"/>
-      <c r="J701" s="2"/>
-      <c r="K701" s="3"/>
-      <c r="L701" s="3"/>
+      <c r="I701" t="s">
+        <v>20</v>
+      </c>
+      <c r="J701" t="s">
+        <v>21</v>
+      </c>
+      <c r="K701" t="s">
+        <v>41</v>
+      </c>
+      <c r="L701" t="s">
+        <v>42</v>
+      </c>
       <c r="M701" s="3"/>
       <c r="N701" t="s">
         <v>25</v>
@@ -34933,10 +35639,18 @@
       <c r="H702" t="s">
         <v>40</v>
       </c>
-      <c r="I702" s="2"/>
-      <c r="J702" s="2"/>
-      <c r="K702" s="3"/>
-      <c r="L702" s="3"/>
+      <c r="I702" t="s">
+        <v>20</v>
+      </c>
+      <c r="J702" t="s">
+        <v>21</v>
+      </c>
+      <c r="K702" t="s">
+        <v>41</v>
+      </c>
+      <c r="L702" t="s">
+        <v>42</v>
+      </c>
       <c r="M702" s="3"/>
       <c r="N702" t="s">
         <v>25</v>
@@ -34963,10 +35677,18 @@
       <c r="H703" t="s">
         <v>258</v>
       </c>
-      <c r="I703" s="2"/>
-      <c r="J703" s="2"/>
-      <c r="K703" s="3"/>
-      <c r="L703" s="3"/>
+      <c r="I703" t="s">
+        <v>20</v>
+      </c>
+      <c r="J703" t="s">
+        <v>21</v>
+      </c>
+      <c r="K703" t="s">
+        <v>163</v>
+      </c>
+      <c r="L703" t="s">
+        <v>203</v>
+      </c>
       <c r="M703" s="3"/>
       <c r="N703" t="s">
         <v>25</v>
@@ -34993,11 +35715,21 @@
       <c r="H704" t="s">
         <v>202</v>
       </c>
-      <c r="I704" s="2"/>
-      <c r="J704" s="2"/>
-      <c r="K704" s="3"/>
-      <c r="L704" s="3"/>
-      <c r="M704" s="3"/>
+      <c r="I704" t="s">
+        <v>20</v>
+      </c>
+      <c r="J704" t="s">
+        <v>21</v>
+      </c>
+      <c r="K704" t="s">
+        <v>163</v>
+      </c>
+      <c r="L704" t="s">
+        <v>203</v>
+      </c>
+      <c r="M704" t="s">
+        <v>204</v>
+      </c>
       <c r="N704" t="s">
         <v>25</v>
       </c>
@@ -35023,10 +35755,18 @@
       <c r="H705" t="s">
         <v>40</v>
       </c>
-      <c r="I705" s="2"/>
-      <c r="J705" s="2"/>
-      <c r="K705" s="3"/>
-      <c r="L705" s="3"/>
+      <c r="I705" t="s">
+        <v>20</v>
+      </c>
+      <c r="J705" t="s">
+        <v>21</v>
+      </c>
+      <c r="K705" t="s">
+        <v>41</v>
+      </c>
+      <c r="L705" t="s">
+        <v>42</v>
+      </c>
       <c r="M705" s="3"/>
       <c r="N705" t="s">
         <v>25</v>
@@ -35053,10 +35793,18 @@
       <c r="H706" t="s">
         <v>40</v>
       </c>
-      <c r="I706" s="2"/>
-      <c r="J706" s="2"/>
-      <c r="K706" s="3"/>
-      <c r="L706" s="3"/>
+      <c r="I706" t="s">
+        <v>20</v>
+      </c>
+      <c r="J706" t="s">
+        <v>21</v>
+      </c>
+      <c r="K706" t="s">
+        <v>41</v>
+      </c>
+      <c r="L706" t="s">
+        <v>42</v>
+      </c>
       <c r="M706" s="3"/>
       <c r="N706" t="s">
         <v>25</v>
@@ -35083,10 +35831,18 @@
       <c r="H707" t="s">
         <v>40</v>
       </c>
-      <c r="I707" s="2"/>
-      <c r="J707" s="2"/>
-      <c r="K707" s="3"/>
-      <c r="L707" s="3"/>
+      <c r="I707" t="s">
+        <v>20</v>
+      </c>
+      <c r="J707" t="s">
+        <v>21</v>
+      </c>
+      <c r="K707" t="s">
+        <v>41</v>
+      </c>
+      <c r="L707" t="s">
+        <v>42</v>
+      </c>
       <c r="M707" s="3"/>
       <c r="N707" t="s">
         <v>25</v>
@@ -35297,8 +36053,12 @@
       <c r="H713" t="s">
         <v>77</v>
       </c>
-      <c r="I713" s="2"/>
-      <c r="J713" s="2"/>
+      <c r="I713" t="s">
+        <v>20</v>
+      </c>
+      <c r="J713" t="s">
+        <v>21</v>
+      </c>
       <c r="K713" s="3"/>
       <c r="L713" s="3"/>
       <c r="M713" s="3"/>
@@ -35327,10 +36087,18 @@
       <c r="H714" t="s">
         <v>40</v>
       </c>
-      <c r="I714" s="2"/>
-      <c r="J714" s="2"/>
-      <c r="K714" s="3"/>
-      <c r="L714" s="3"/>
+      <c r="I714" t="s">
+        <v>20</v>
+      </c>
+      <c r="J714" t="s">
+        <v>21</v>
+      </c>
+      <c r="K714" t="s">
+        <v>41</v>
+      </c>
+      <c r="L714" t="s">
+        <v>42</v>
+      </c>
       <c r="M714" s="3"/>
       <c r="N714" t="s">
         <v>25</v>
@@ -35357,10 +36125,18 @@
       <c r="H715" t="s">
         <v>40</v>
       </c>
-      <c r="I715" s="2"/>
-      <c r="J715" s="2"/>
-      <c r="K715" s="3"/>
-      <c r="L715" s="3"/>
+      <c r="I715" t="s">
+        <v>20</v>
+      </c>
+      <c r="J715" t="s">
+        <v>21</v>
+      </c>
+      <c r="K715" t="s">
+        <v>41</v>
+      </c>
+      <c r="L715" t="s">
+        <v>42</v>
+      </c>
       <c r="M715" s="3"/>
       <c r="N715" t="s">
         <v>25</v>
@@ -35387,10 +36163,18 @@
       <c r="H716" t="s">
         <v>258</v>
       </c>
-      <c r="I716" s="2"/>
-      <c r="J716" s="2"/>
-      <c r="K716" s="3"/>
-      <c r="L716" s="3"/>
+      <c r="I716" t="s">
+        <v>20</v>
+      </c>
+      <c r="J716" t="s">
+        <v>21</v>
+      </c>
+      <c r="K716" t="s">
+        <v>163</v>
+      </c>
+      <c r="L716" t="s">
+        <v>203</v>
+      </c>
       <c r="M716" s="3"/>
       <c r="N716" t="s">
         <v>25</v>
@@ -35417,11 +36201,21 @@
       <c r="H717" t="s">
         <v>202</v>
       </c>
-      <c r="I717" s="2"/>
-      <c r="J717" s="2"/>
-      <c r="K717" s="3"/>
-      <c r="L717" s="3"/>
-      <c r="M717" s="3"/>
+      <c r="I717" t="s">
+        <v>20</v>
+      </c>
+      <c r="J717" t="s">
+        <v>21</v>
+      </c>
+      <c r="K717" t="s">
+        <v>163</v>
+      </c>
+      <c r="L717" t="s">
+        <v>203</v>
+      </c>
+      <c r="M717" t="s">
+        <v>204</v>
+      </c>
       <c r="N717" t="s">
         <v>25</v>
       </c>
@@ -35447,10 +36241,18 @@
       <c r="H718" t="s">
         <v>40</v>
       </c>
-      <c r="I718" s="2"/>
-      <c r="J718" s="2"/>
-      <c r="K718" s="3"/>
-      <c r="L718" s="3"/>
+      <c r="I718" t="s">
+        <v>20</v>
+      </c>
+      <c r="J718" t="s">
+        <v>21</v>
+      </c>
+      <c r="K718" t="s">
+        <v>41</v>
+      </c>
+      <c r="L718" t="s">
+        <v>42</v>
+      </c>
       <c r="M718" s="3"/>
       <c r="N718" t="s">
         <v>25</v>
@@ -35477,10 +36279,18 @@
       <c r="H719" t="s">
         <v>258</v>
       </c>
-      <c r="I719" s="2"/>
-      <c r="J719" s="2"/>
-      <c r="K719" s="3"/>
-      <c r="L719" s="3"/>
+      <c r="I719" t="s">
+        <v>20</v>
+      </c>
+      <c r="J719" t="s">
+        <v>21</v>
+      </c>
+      <c r="K719" t="s">
+        <v>163</v>
+      </c>
+      <c r="L719" t="s">
+        <v>203</v>
+      </c>
       <c r="M719" s="3"/>
       <c r="N719" t="s">
         <v>25</v>
@@ -35507,11 +36317,21 @@
       <c r="H720" t="s">
         <v>202</v>
       </c>
-      <c r="I720" s="2"/>
-      <c r="J720" s="2"/>
-      <c r="K720" s="3"/>
-      <c r="L720" s="3"/>
-      <c r="M720" s="3"/>
+      <c r="I720" t="s">
+        <v>20</v>
+      </c>
+      <c r="J720" t="s">
+        <v>21</v>
+      </c>
+      <c r="K720" t="s">
+        <v>163</v>
+      </c>
+      <c r="L720" t="s">
+        <v>203</v>
+      </c>
+      <c r="M720" t="s">
+        <v>204</v>
+      </c>
       <c r="N720" t="s">
         <v>25</v>
       </c>
@@ -35540,9 +36360,15 @@
       <c r="I721" t="s">
         <v>800</v>
       </c>
-      <c r="J721" s="2"/>
-      <c r="K721" s="3"/>
-      <c r="L721" s="3"/>
+      <c r="J721" t="s">
+        <v>21</v>
+      </c>
+      <c r="K721" t="s">
+        <v>801</v>
+      </c>
+      <c r="L721" t="s">
+        <v>802</v>
+      </c>
       <c r="M721" s="3"/>
       <c r="N721" t="s">
         <v>25</v>
